--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -3020,7 +3020,7 @@
   <dimension ref="A1:B528"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="B427" sqref="B427"/>
+      <selection activeCell="B430" sqref="B430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="1"/>

--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13200"/>
+    <workbookView windowHeight="16520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
     <sheet name="eventHandle" sheetId="2" r:id="rId2"/>
+    <sheet name="3.8.201" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="638">
   <si>
     <t>C++功能</t>
   </si>
@@ -36,6 +37,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetChannelProfile(</t>
     </r>
     <r>
@@ -64,6 +72,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetClientRole(</t>
     </r>
     <r>
@@ -89,6 +104,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">public abstract int SetClientRole(CLIENT_ROLE_TYPE role, ref </t>
     </r>
     <r>
@@ -126,6 +148,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> public abstract int JoinChannel(string token, string channelId, uint uid, </t>
     </r>
     <r>
@@ -150,10 +179,46 @@
     </r>
   </si>
   <si>
-    <t>public abstract int JoinChannelEx(string token, RtcConnection connection, ChannelMediaOptions options);可能需要为每一个join保存一下mediaOptions咯</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public abstract int JoinChannelEx(string token, RtcConnection connection, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChannelMediaOptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> options);可能需要为每一个join保存一下mediaOptions咯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int UpdateChannelMediaOptions(</t>
     </r>
     <r>
@@ -179,6 +244,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int UpdateChannelMediaOptionsEx(</t>
     </r>
     <r>
@@ -213,6 +285,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> public abstract int LeaveChannel(</t>
     </r>
     <r>
@@ -256,6 +335,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">public abstract int JoinChannelWithUserAccount(string token, string channelId, string userAccount, </t>
     </r>
     <r>
@@ -309,6 +395,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">public abstract int </t>
     </r>
     <r>
@@ -337,6 +430,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">public abstract int </t>
     </r>
     <r>
@@ -371,6 +471,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetAudioProfile(</t>
     </r>
     <r>
@@ -416,6 +523,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetAudioProfile(</t>
     </r>
     <r>
@@ -447,6 +561,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int MuteRecordingSignal(</t>
     </r>
     <r>
@@ -499,6 +620,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> public abstract int MuteRemoteAudioStream(</t>
     </r>
     <r>
@@ -565,6 +693,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int StartPreview(</t>
     </r>
     <r>
@@ -599,6 +734,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetVideoEncoderConfiguration(</t>
     </r>
     <r>
@@ -660,6 +802,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetLocalVideoMirrorMode(</t>
     </r>
     <r>
@@ -697,6 +846,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int MuteAllRemoteVideoStreams(</t>
     </r>
     <r>
@@ -722,6 +878,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> public abstract int SetDefaultMuteAllRemoteVideoStreams(</t>
     </r>
     <r>
@@ -800,7 +963,36 @@
     <t>设置音频高级属性</t>
   </si>
   <si>
-    <t>public abstract int SetAdvancedAudioOptions(AdvancedAudioOptions options);</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public abstract int SetAdvancedAudioOptions(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AdvancedAudioOptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> options);</t>
+    </r>
   </si>
   <si>
     <t>美颜和变声</t>
@@ -1044,28 +1236,151 @@
     <t>大小流</t>
   </si>
   <si>
-    <t>public abstract int EnableDualStreamMode(bool enabled);</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public abstract int EnableDualStreamMode(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enabled);</t>
+    </r>
   </si>
   <si>
     <t>client.enableDualStream</t>
   </si>
   <si>
-    <t>public abstract int EnableDualStreamMode(VIDEO_SOURCE_TYPE sourceType, bool enabled);</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public abstract int EnableDualStreamMode(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VIDEO_SOURCE_TYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sourceType, bool enabled);</t>
+    </r>
   </si>
   <si>
     <t>client.disableDualStream</t>
   </si>
   <si>
-    <t>public abstract int EnableDualStreamMode(VIDEO_SOURCE_TYPE sourceType, bool enabled, SimulcastStreamConfig streamConfig);</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public abstract int EnableDualStreamMode(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VIDEO_SOURCE_TYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sourceType, bool enabled, SimulcastStreamConfig streamConfig);</t>
+    </r>
   </si>
   <si>
     <t>client.setLowStreamParameter</t>
   </si>
   <si>
-    <t>public abstract int EnableDualStreamModeEx(VIDEO_SOURCE_TYPE sourceType, bool enabled, SimulcastStreamConfig streamConfig, RtcConnection connection);</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public abstract int EnableDualStreamModeEx(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VIDEO_SOURCE_TYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sourceType, bool enabled, SimulcastStreamConfig streamConfig, RtcConnection connection);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetRemoteVideoStreamType(</t>
     </r>
     <r>
@@ -1117,6 +1432,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetRemoteDefaultVideoStreamType(</t>
     </r>
     <r>
@@ -1176,6 +1498,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">public abstract int EnableEncryption(bool enabled, </t>
     </r>
     <r>
@@ -1739,6 +2068,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int MuteLocalAudioStream(</t>
     </r>
     <r>
@@ -1764,6 +2100,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int MuteAllRemoteAudioStreams(</t>
     </r>
     <r>
@@ -1837,6 +2180,30 @@
   </si>
   <si>
     <t>public abstract int StartDirectCdnStreaming(string publishUrl, DirectCdnStreamingMediaOptions options);</t>
+  </si>
+  <si>
+    <t>public abstract int StopDirectCdnStreaming();</t>
+  </si>
+  <si>
+    <t>public abstract int UpdateDirectCdnStreamingMediaOptions(DirectCdnStreamingMediaOptions options);</t>
+  </si>
+  <si>
+    <t>public abstract int PushDirectCdnStreamingCustomVideoFrame(ExternalVideoFrame frame);</t>
+  </si>
+  <si>
+    <t>public abstract int SetDirectExternalAudioSource(bool enable, bool localPlayback);</t>
+  </si>
+  <si>
+    <t>public abstract int PushDirectAudioFrame(AudioFrame frame);</t>
+  </si>
+  <si>
+    <t>RtmpStream</t>
+  </si>
+  <si>
+    <t>public abstract int StartRtmpStreamWithoutTranscoding(string url);</t>
+  </si>
+  <si>
+    <t>public abstract int StartRtmpStreamWithTranscoding(string url, LiveTranscoding transcoding);</t>
   </si>
   <si>
     <t>//config 可能由C++ 的SetDirectCdnStreamingAudioConfiguration，SetDirectCdnStreamingVideoConfiguration设置
@@ -1844,37 +2211,13 @@
 await client.startLiveStreaming("rtmp://xxxx", true);</t>
   </si>
   <si>
-    <t>public abstract int StopDirectCdnStreaming();</t>
+    <t>public abstract int UpdateRtmpTranscoding(LiveTranscoding transcoding);</t>
+  </si>
+  <si>
+    <t>public abstract int StopRtmpStream(string url);</t>
   </si>
   <si>
     <t>stopLiveStreaming(url: string): Promise&lt;void&gt;</t>
-  </si>
-  <si>
-    <t>public abstract int UpdateDirectCdnStreamingMediaOptions(DirectCdnStreamingMediaOptions options);</t>
-  </si>
-  <si>
-    <t>public abstract int PushDirectCdnStreamingCustomVideoFrame(ExternalVideoFrame frame);</t>
-  </si>
-  <si>
-    <t>public abstract int SetDirectExternalAudioSource(bool enable, bool localPlayback);</t>
-  </si>
-  <si>
-    <t>public abstract int PushDirectAudioFrame(AudioFrame frame);</t>
-  </si>
-  <si>
-    <t>RtmpStream</t>
-  </si>
-  <si>
-    <t>public abstract int StartRtmpStreamWithoutTranscoding(string url);</t>
-  </si>
-  <si>
-    <t>public abstract int StartRtmpStreamWithTranscoding(string url, LiveTranscoding transcoding);</t>
-  </si>
-  <si>
-    <t>public abstract int UpdateRtmpTranscoding(LiveTranscoding transcoding);</t>
-  </si>
-  <si>
-    <t>public abstract int StopRtmpStream(string url);</t>
   </si>
   <si>
     <t>log 日志文件</t>
@@ -2037,7 +2380,504 @@
     <t>Web功能</t>
   </si>
   <si>
-    <t>public abstract int SetChannelProfile(CHANNEL_PROFILE_TYPE profile);</t>
+    <t>web找不到对应的C++的</t>
+  </si>
+  <si>
+    <t>client.media-reconnect-start</t>
+  </si>
+  <si>
+    <t>通用回调</t>
+  </si>
+  <si>
+    <t>client.media-reconnect-end</t>
+  </si>
+  <si>
+    <t>OnWarning(int warn, string msg)</t>
+  </si>
+  <si>
+    <t>client.stream-type-changed</t>
+  </si>
+  <si>
+    <t>OnError(int err, string msg)</t>
+  </si>
+  <si>
+    <t>AgorRTC.onAutoplayFailed, client.exception</t>
+  </si>
+  <si>
+    <t>client.is-using-cloud-proxy</t>
+  </si>
+  <si>
+    <t>client.join-fallback-to-proxy</t>
+  </si>
+  <si>
+    <t>加入/离开频道触发的回调</t>
+  </si>
+  <si>
+    <t>client.published-user-list</t>
+  </si>
+  <si>
+    <t>void OnJoinChannelSuccess(RtcConnection connection, int elapsed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnRejoinChannelSuccess(RtcConnection connection, int elapsed) </t>
+  </si>
+  <si>
+    <t>track.track-ended</t>
+  </si>
+  <si>
+    <t>OnLeaveChannel(RtcConnection connection, RtcStats stats)</t>
+  </si>
+  <si>
+    <t>track.beauty-effect-overload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnUserJoined(RtcConnection connection, uint remoteUid, int elapsed) </t>
+  </si>
+  <si>
+    <t>client.onEventUserJoined</t>
+  </si>
+  <si>
+    <t>track.video-element-visible-status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnUserOffline(RtcConnection connection, uint remoteUid, USER_OFFLINE_REASON_TYPE reason) </t>
+  </si>
+  <si>
+    <t>client.onEventUserLeft</t>
+  </si>
+  <si>
+    <t>音频质量</t>
+  </si>
+  <si>
+    <t>OnAudioQuality(RtcConnection connection, uint remoteUid, int quality, UInt16 delay, UInt16 lost)</t>
+  </si>
+  <si>
+    <t>音/视频状态的回调，每2秒一次</t>
+  </si>
+  <si>
+    <t>//2秒一次
+void OnLocalAudioStats(RtcConnection connection, LocalAudioStats stats)</t>
+  </si>
+  <si>
+    <t>void OnRemoteAudioStats(RtcConnection connection, RemoteAudioStats stats)</t>
+  </si>
+  <si>
+    <t>void OnLocalVideoStats(RtcConnection connection, LocalVideoStats stats)</t>
+  </si>
+  <si>
+    <t>void OnRemoteVideoStats(RtcConnection connection, RemoteVideoStats stats)</t>
+  </si>
+  <si>
+    <t>网络质量</t>
+  </si>
+  <si>
+    <t>//triggers this callback within 30 seconds after the app calls StartLastmileProbeTest .
+OnLastmileProbeResult(LastmileProbeResult result)；</t>
+  </si>
+  <si>
+    <t>public virtual void OnLastmileQuality(int quality) { }</t>
+  </si>
+  <si>
+    <t>void OnNetworkTypeChanged(RtcConnection connection, NETWORK_TYPE type)</t>
+  </si>
+  <si>
+    <t>//enable it by calling EnableAudioVolumeIndication
+OnAudioVolumeIndication(RtcConnection connection, AudioVolumeInfo[] speakers, uint speakerNumber, int totalVolume) { }</t>
+  </si>
+  <si>
+    <t>client.volume-indicator</t>
+  </si>
+  <si>
+    <t>通话/网络质量</t>
+  </si>
+  <si>
+    <t>public virtual void OnRtcStats(RtcConnection connection, RtcStats stats) { }</t>
+  </si>
+  <si>
+    <t>void OnNetworkQuality(RtcConnection connection, uint remoteUid, int txQuality, int rxQuality)</t>
+  </si>
+  <si>
+    <t>client.network-quality</t>
+  </si>
+  <si>
+    <t>上/下行网络信息</t>
+  </si>
+  <si>
+    <t>void OnUplinkNetworkInfoUpdated(UplinkNetworkInfo info)</t>
+  </si>
+  <si>
+    <t>OnDownlinkNetworkInfoUpdated(DownlinkNetworkInfo info)</t>
+  </si>
+  <si>
+    <t>音视频频设备发生了变化</t>
+  </si>
+  <si>
+    <t>OnAudioDeviceStateChanged(string deviceId, MEDIA_DEVICE_TYPE deviceType, MEDIA_DEVICE_STATE_TYPE deviceState)</t>
+  </si>
+  <si>
+    <t>AgoraRTC.onMicrophoneChanged,onPlaybackDeviceChanged</t>
+  </si>
+  <si>
+    <t>OnVideoDeviceStateChanged(string deviceId, MEDIA_DEVICE_TYPE deviceType, MEDIA_DEVICE_STATE_TYPE deviceState)</t>
+  </si>
+  <si>
+    <t>AgoraRTC.onCameraChanged</t>
+  </si>
+  <si>
+    <t>public virtual void OnMediaDeviceChanged(MEDIA_DEVICE_TYPE deviceType)</t>
+  </si>
+  <si>
+    <t>OnAudioDeviceVolumeChanged(MEDIA_DEVICE_TYPE deviceType, int volume, bool muted) { }</t>
+  </si>
+  <si>
+    <t>void OnCameraReady()</t>
+  </si>
+  <si>
+    <t>void OnCameraFocusAreaChanged(int x, int y, int width, int height)</t>
+  </si>
+  <si>
+    <t>void OnCameraExposureAreaChanged(int x, int y, int width, int height)</t>
+  </si>
+  <si>
+    <t>void OnFacePositionChanged(int imageWidth, int imageHeight, Rectangle vecRectangle, int[] vecDistance, int numFaces)</t>
+  </si>
+  <si>
+    <t>用户mut/enable audio/video的回调</t>
+  </si>
+  <si>
+    <t>[Obsolete("Use onRemoteAudioStateChanged instead of")]
+        public virtual void OnUserMuteAudio(RtcConnection connection, uint remoteUid, bool muted)</t>
+  </si>
+  <si>
+    <t>client.onEventUserInfoUpdated(uid: UID, msg: "mute-audio" | "mute-video" | "enable-local-video" | "unmute-audio" | "unmute-video" | "disable-local-video")</t>
+  </si>
+  <si>
+    <t>[Obsolete("Use onRemoteVideoStateChanged instead of")]
+        public virtual void OnUserMuteVideo(RtcConnection connection, uint remoteUid, bool muted)</t>
+  </si>
+  <si>
+    <t>[Obsolete("Use onRemoteVideoStateChanged instead of")]
+        public virtual void OnUserEnableVideo(RtcConnection connection, uint remoteUid, bool enabled)</t>
+  </si>
+  <si>
+    <t>[Obsolete("Use onRemoteVideoStateChanged instead of")]
+        public virtual void OnUserEnableLocalVideo(RtcConnection connection, uint remoteUid, bool enabled)</t>
+  </si>
+  <si>
+    <t>//state 是 REMOTE_USER_STATE
+public virtual void OnUserStateChanged(RtcConnection connection, uint remoteUid, uint state) { }</t>
+  </si>
+  <si>
+    <t>混音的回调</t>
+  </si>
+  <si>
+    <t>OnAudioMixingFinished()</t>
+  </si>
+  <si>
+    <t>OnAudioMixingStateChanged(AUDIO_MIXING_STATE_TYPE state, AUDIO_MIXING_ERROR_TYPE errorCode)</t>
+  </si>
+  <si>
+    <t>特效的回调</t>
+  </si>
+  <si>
+    <t>OnAudioEffectFinished(int soundId)</t>
+  </si>
+  <si>
+    <t>节拍器回调</t>
+  </si>
+  <si>
+    <t>OnRhythmPlayerStateChanged(RHYTHM_PLAYER_STATE_TYPE state, RHYTHM_PLAYER_ERROR_TYPE errorCode)</t>
+  </si>
+  <si>
+    <t>Connection状态</t>
+  </si>
+  <si>
+    <t>OnConnectionLost(RtcConnection connection)</t>
+  </si>
+  <si>
+    <t>OnConnectionInterrupted(RtcConnection connection)</t>
+  </si>
+  <si>
+    <t>OnConnectionBanned(RtcConnection connection)</t>
+  </si>
+  <si>
+    <t>void OnConnectionStateChanged(RtcConnection connection, CONNECTION_STATE_TYPE state, CONNECTION_CHANGED_REASON_TYPE reason)</t>
+  </si>
+  <si>
+    <t>client.onEventConnectionStateChange</t>
+  </si>
+  <si>
+    <t>首帧/尾帧回调</t>
+  </si>
+  <si>
+    <t>void OnFirstLocalVideoFrame(RtcConnection connection, int width, int height, int elapsed)</t>
+  </si>
+  <si>
+    <t>void OnFirstLocalVideoFramePublished(RtcConnection connection, int elapsed) { }</t>
+  </si>
+  <si>
+    <t>client.onEventUserPublished(xxx.'video')</t>
+  </si>
+  <si>
+    <t>OnFirstRemoteVideoDecoded(RtcConnection connection, uint remoteUid, int width, int height, int elapsed)</t>
+  </si>
+  <si>
+    <t>track.first-frame-decoded</t>
+  </si>
+  <si>
+    <t>onEventUserUnpublished</t>
+  </si>
+  <si>
+    <t>void OnFirstRemoteVideoFrame(RtcConnection connection, uint remoteUid, int width, int height, int elapsed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnFirstLocalAudioFramePublished(RtcConnection connection, int elapsed) </t>
+  </si>
+  <si>
+    <t>client.onEventUserPublished(xxx,'audio')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public virtual void OnFirstRemoteAudioFrame(RtcConnection connection, uint userId, int elapsed) { }</t>
+  </si>
+  <si>
+    <t>void OnFirstRemoteAudioDecoded(RtcConnection connection, uint uid, int elapsed)</t>
+  </si>
+  <si>
+    <t>当视频帧Size发生了变化</t>
+  </si>
+  <si>
+    <t>void OnVideoSourceFrameSizeChanged(RtcConnection connection, VIDEO_SOURCE_TYPE sourceType, int width, int height)</t>
+  </si>
+  <si>
+    <t>void OnVideoSizeChanged(RtcConnection connection, uint uid, int width, int height, int rotation)</t>
+  </si>
+  <si>
+    <t>本地音/视频流发生了变化</t>
+  </si>
+  <si>
+    <t>void OnLocalVideoStateChanged(RtcConnection connection, LOCAL_VIDEO_STREAM_STATE state, LOCAL_VIDEO_STREAM_ERROR errorCode)</t>
+  </si>
+  <si>
+    <t>void OnLocalAudioStateChanged(RtcConnection connection, LOCAL_AUDIO_STREAM_STATE state, LOCAL_AUDIO_STREAM_ERROR error)</t>
+  </si>
+  <si>
+    <t>远端视频流发生了变化</t>
+  </si>
+  <si>
+    <t>void OnRemoteVideoStateChanged(RtcConnection connection, uint remoteUid, REMOTE_VIDEO_STATE state, REMOTE_VIDEO_STATE_REASON reason, int elapsed)</t>
+  </si>
+  <si>
+    <t>void OnRemoteAudioStateChanged(RtcConnection connection, uint remoteUid, REMOTE_AUDIO_STATE state, REMOTE_AUDIO_STATE_REASON reason, int elapsed)</t>
+  </si>
+  <si>
+    <t>鉴黄相关</t>
+  </si>
+  <si>
+    <t>void OnContentInspectResult(CONTENT_INSPECT_RESULT result)</t>
+  </si>
+  <si>
+    <t>屏幕截图</t>
+  </si>
+  <si>
+    <t>void OnSnapshotTaken(string channel, uint uid, string filePath, int width, int height, int errCode)</t>
+  </si>
+  <si>
+    <t>void OnSnapshotTaken(RtcConnection connection, string filePath, int width, int height, int errCode)</t>
+  </si>
+  <si>
+    <t>当api被call了</t>
+  </si>
+  <si>
+    <t>public virtual void OnApiCallExecuted(int err, string api, string result)；</t>
+  </si>
+  <si>
+    <t>streamMessage回调</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public virtual void OnStreamMessage(RtcConnection connection, uint remoteUid, int streamId, byte[] data, uint length, UInt64 sentTs) { }
+</t>
+  </si>
+  <si>
+    <t>OnStreamMessageError(RtcConnection connection, uint remoteUid, int streamId, int code, int missed, int cached)</t>
+  </si>
+  <si>
+    <t>toke相关</t>
+  </si>
+  <si>
+    <t>void OnRequestToken(RtcConnection connection)</t>
+  </si>
+  <si>
+    <t>client.token-privilege-did-expire</t>
+  </si>
+  <si>
+    <t>void OnTokenPrivilegeWillExpire(RtcConnection connection, string token)</t>
+  </si>
+  <si>
+    <t>client.token-privilege-will-expire</t>
+  </si>
+  <si>
+    <t>活跃说话者</t>
+  </si>
+  <si>
+    <t>void OnActiveSpeaker(RtcConnection connection, uint uid)</t>
+  </si>
+  <si>
+    <t>public virtual void OnIntraRequestReceived(RtcConnection connection) { }</t>
+  </si>
+  <si>
+    <t>public virtual void OnVideoStopped() { }//Please use LOCAL_VIDEO_STREAM_STATE_STOPPED(0) in the OnLocalVideoStateChanged callback instead</t>
+  </si>
+  <si>
+    <t>频道角色发生变化</t>
+  </si>
+  <si>
+    <t>void OnClientRoleChanged(RtcConnection connection, CLIENT_ROLE_TYPE oldRole, CLIENT_ROLE_TYPE newRole)</t>
+  </si>
+  <si>
+    <t>void OnClientRoleChangeFailed(RtcConnection connection, CLIENT_ROLE_CHANGE_FAILED_REASON reason, CLIENT_ROLE_TYPE currentRole)</t>
+  </si>
+  <si>
+    <t>RtmpStreaming相关</t>
+  </si>
+  <si>
+    <t>OnRtmpStreamingStateChanged(string url, RTMP_STREAM_PUBLISH_STATE state, RTMP_STREAM_PUBLISH_ERROR_TYPE errCode)</t>
+  </si>
+  <si>
+    <t>client.live-streaming-error</t>
+  </si>
+  <si>
+    <t>OnRtmpStreamingEvent(string url, RTMP_STREAMING_EVENT eventCode)</t>
+  </si>
+  <si>
+    <t>client.live-streaming-warning</t>
+  </si>
+  <si>
+    <t>OnStreamPublished(string url, int error)//use OnRtmpStreamingStateChanged instead.</t>
+  </si>
+  <si>
+    <t>OnStreamUnpublished(string url)//Use onRtmpStreamingStateChanged instead of</t>
+  </si>
+  <si>
+    <t>Transcoding</t>
+  </si>
+  <si>
+    <t>//SetLiveTranscoding 
+void OnTranscodingUpdated()</t>
+  </si>
+  <si>
+    <t>//音频路由</t>
+  </si>
+  <si>
+    <t>void OnAudioRoutingChanged(int routing)</t>
+  </si>
+  <si>
+    <t>//跨频道转发</t>
+  </si>
+  <si>
+    <t>void OnChannelMediaRelayStateChanged(int state, int code)</t>
+  </si>
+  <si>
+    <t>client.channel-media-relay-state</t>
+  </si>
+  <si>
+    <t>void OnChannelMediaRelayEvent(int code)</t>
+  </si>
+  <si>
+    <t>client.channel-media-relay-event</t>
+  </si>
+  <si>
+    <t>退化，回退</t>
+  </si>
+  <si>
+    <t>void OnLocalPublishFallbackToAudioOnly(bool isFallbackOrRecover)</t>
+  </si>
+  <si>
+    <t>client.stream-fallback</t>
+  </si>
+  <si>
+    <t>void OnRemoteSubscribeFallbackToAudioOnly(uint uid, bool isFallbackOrRecover)</t>
+  </si>
+  <si>
+    <t>远端音/视频流传输状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnRemoteVideoTransportStats(RtcConnection connection, uint remoteUid, UInt16 delay, UInt16 lost, UInt16 rxKBitRate) </t>
+  </si>
+  <si>
+    <t>加解密</t>
+  </si>
+  <si>
+    <t>void OnEncryptionError(RtcConnection connection, ENCRYPTION_ERROR_TYPE errorType)</t>
+  </si>
+  <si>
+    <t>client.crypt-error</t>
+  </si>
+  <si>
+    <t>上传log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public virtual void OnUploadLogResult(RtcConnection connection, string requestId, bool success, UPLOAD_ERROR_REASON reason) { }
+</t>
+  </si>
+  <si>
+    <t>用户数据更新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnUserAccountUpdated(RtcConnection connection, uint remoteUid, string userAccount) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnUserInfoUpdated(uint uid, UserInfo info) </t>
+  </si>
+  <si>
+    <t>void OnLocalUserRegistered(uint uid, string userAccount)</t>
+  </si>
+  <si>
+    <t>权限错误</t>
+  </si>
+  <si>
+    <t>void OnPermissionError(PERMISSION_TYPE permissionType)</t>
+  </si>
+  <si>
+    <t>音视频流订阅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnAudioSubscribeStateChanged(string channel, uint uid, STREAM_SUBSCRIBE_STATE oldState, STREAM_SUBSCRIBE_STATE newState, int elapseSinceLastState) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">void OnVideoSubscribeStateChanged(string channel, uint uid, STREAM_SUBSCRIBE_STATE oldState, STREAM_SUBSCRIBE_STATE newState, int elapseSinceLastState) </t>
+  </si>
+  <si>
+    <t>音/视频流发布</t>
+  </si>
+  <si>
+    <t>void OnAudioPublishStateChanged(string channel, STREAM_PUBLISH_STATE oldState, STREAM_PUBLISH_STATE newState, int elapseSinceLastState)</t>
+  </si>
+  <si>
+    <t>OnVideoPublishStateChanged(string channel, STREAM_PUBLISH_STATE oldState, STREAM_PUBLISH_STATE newState, int elapseSinceLastState)</t>
+  </si>
+  <si>
+    <t>加载插件回调</t>
+  </si>
+  <si>
+    <t>void OnExtensionEvent(string provider, string ext_name, string key, string value)</t>
+  </si>
+  <si>
+    <t>void OnExtensionStarted(string provider, string ext_name)</t>
+  </si>
+  <si>
+    <t>void OnExtensionStopped(string provider, string ext_name)</t>
+  </si>
+  <si>
+    <t>void OnExtensionErrored(string provider, string ext_name, int error, string msg)</t>
+  </si>
+  <si>
+    <t>cdn回调</t>
+  </si>
+  <si>
+    <t>void OnDirectCdnStreamingStateChanged(DIRECT_CDN_STREAMING_STATE state, DIRECT_CDN_STREAMING_ERROR error, string message)</t>
+  </si>
+  <si>
+    <t>void OnDirectCdnStreamingStats(DirectCdnStreamingStats stats)</t>
   </si>
 </sst>
 </file>
@@ -2050,13 +2890,19 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2081,25 +2927,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2111,19 +2950,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2143,8 +2988,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2157,9 +3018,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2173,14 +3034,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2188,22 +3042,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2217,7 +3063,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2232,13 +3078,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2256,7 +3108,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2268,37 +3162,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2316,19 +3216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2340,67 +3240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,7 +3252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2435,21 +3275,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2457,30 +3282,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2523,111 +3324,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2636,46 +3449,85 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2692,10 +3544,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3019,2305 +3868,2305 @@
   <sheetPr/>
   <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="B430" sqref="B430"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="70.7916666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="93.3333333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="70.7916666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="93.3333333333333" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14" spans="1:2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="14" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14" spans="1:2">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" ht="18" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" ht="14" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row r="6" ht="14" spans="1:1">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" ht="18" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" ht="14" spans="1:1">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="1:1">
-      <c r="A9" s="3" t="s">
+    <row r="9" ht="14" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="36" spans="1:2">
-      <c r="A10" s="3" t="s">
+    <row r="10" ht="27" spans="1:2">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="18" spans="1:1">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="14" spans="1:1">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="36" spans="1:2">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="27" spans="1:2">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="36" spans="1:1">
-      <c r="A14" s="3" t="s">
+    <row r="14" ht="27" spans="1:1">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" ht="38" customHeight="1" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="18" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row r="16" ht="14" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="36" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="17" ht="27" spans="1:2">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+    <row r="18" ht="14" spans="1:2">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="18" spans="1:1">
-      <c r="A19" s="3" t="s">
+    <row r="19" ht="14" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" ht="18" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="20" ht="14" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="1:1">
-      <c r="A21" s="2" t="s">
+    <row r="21" ht="14" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="1:2">
-      <c r="A23" s="1" t="s">
+    <row r="23" ht="14" spans="1:2">
+      <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" ht="18" spans="1:1">
-      <c r="A25" s="1" t="s">
+    <row r="25" ht="14" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" ht="36" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="26" ht="27" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" ht="36" spans="1:1">
-      <c r="A27" s="4" t="s">
+    <row r="27" ht="27" spans="1:1">
+      <c r="A27" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" ht="18" spans="1:1">
-      <c r="A29" s="1" t="s">
+    <row r="29" ht="14" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" ht="36" spans="1:1">
-      <c r="A31" s="1" t="s">
+    <row r="31" ht="27" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" ht="18" spans="1:1">
-      <c r="A32" s="1" t="s">
+    <row r="32" ht="14" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" ht="36" spans="1:1">
-      <c r="A33" s="1" t="s">
+    <row r="33" ht="27" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" ht="18" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="35" ht="14" spans="1:1">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" ht="18" spans="1:1">
-      <c r="A36" s="1" t="s">
+    <row r="36" ht="14" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" ht="18" spans="1:1">
-      <c r="A37" s="1" t="s">
+    <row r="37" ht="14" spans="1:1">
+      <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" ht="18" spans="1:1">
-      <c r="A39" s="1" t="s">
+    <row r="39" ht="14" spans="1:1">
+      <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" ht="18" spans="1:2">
-      <c r="A40" s="4" t="s">
+    <row r="40" ht="14" spans="1:2">
+      <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" ht="18" spans="1:1">
-      <c r="A41" s="4" t="s">
+    <row r="41" ht="14" spans="1:1">
+      <c r="A41" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" ht="18" spans="1:1">
-      <c r="A42" s="1" t="s">
+    <row r="42" ht="14" spans="1:1">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" ht="18" spans="1:1">
-      <c r="A43" s="1" t="s">
+    <row r="43" ht="14" spans="1:1">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" ht="18" spans="1:1">
-      <c r="A45" s="1" t="s">
+    <row r="45" ht="14" spans="1:1">
+      <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" ht="36" spans="1:1">
-      <c r="A46" s="4" t="s">
+    <row r="46" ht="27" spans="1:1">
+      <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" ht="18" spans="1:1">
-      <c r="A47" s="4" t="s">
+    <row r="47" ht="14" spans="1:1">
+      <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" ht="18" spans="1:1">
-      <c r="A49" s="1" t="s">
+    <row r="49" ht="14" spans="1:1">
+      <c r="A49" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" ht="18" spans="1:1">
-      <c r="A50" s="1" t="s">
+    <row r="50" ht="14" spans="1:1">
+      <c r="A50" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" ht="18" spans="1:1">
-      <c r="A51" s="4" t="s">
+    <row r="51" ht="14" spans="1:1">
+      <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" ht="18" spans="1:1">
-      <c r="A53" s="1" t="s">
+    <row r="53" ht="14" spans="1:1">
+      <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" ht="18" spans="1:1">
-      <c r="A54" s="1" t="s">
+    <row r="54" ht="14" spans="1:1">
+      <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" ht="18" spans="1:1">
-      <c r="A55" s="1" t="s">
+    <row r="55" ht="14" spans="1:1">
+      <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" ht="18" spans="1:1">
-      <c r="A57" s="1" t="s">
+    <row r="57" ht="14" spans="1:1">
+      <c r="A57" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" ht="18" spans="1:1">
-      <c r="A58" s="1" t="s">
+    <row r="58" ht="14" spans="1:1">
+      <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" ht="18" spans="1:1">
-      <c r="A59" s="1" t="s">
+    <row r="59" ht="14" spans="1:1">
+      <c r="A59" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" ht="18" spans="1:1">
-      <c r="A61" s="1" t="s">
+    <row r="60" ht="14" spans="1:1">
+      <c r="A60" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" ht="18" spans="1:1">
-      <c r="A62" s="1" t="s">
+    <row r="62" ht="14" spans="1:1">
+      <c r="A62" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" ht="18" spans="1:1">
-      <c r="A63" s="1" t="s">
+    <row r="63" ht="14" spans="1:1">
+      <c r="A63" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" ht="18" spans="1:1">
-      <c r="A64" s="4" t="s">
+    <row r="64" ht="14" spans="1:1">
+      <c r="A64" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" ht="36" spans="1:1">
-      <c r="A65" s="1" t="s">
+    <row r="65" ht="27" spans="1:1">
+      <c r="A65" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" ht="18" spans="1:1">
-      <c r="A67" s="1" t="s">
+    <row r="67" ht="14" spans="1:1">
+      <c r="A67" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" ht="18" spans="1:2">
-      <c r="A68" s="1" t="s">
+    <row r="68" ht="14" spans="1:2">
+      <c r="A68" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" ht="18" spans="1:1">
-      <c r="A69" s="1" t="s">
+    <row r="69" ht="14" spans="1:1">
+      <c r="A69" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="71" ht="18" spans="1:1">
-      <c r="A71" s="1" t="s">
+    <row r="71" ht="14" spans="1:1">
+      <c r="A71" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72" ht="18" spans="1:1">
-      <c r="A72" s="1" t="s">
+    <row r="72" ht="14" spans="1:1">
+      <c r="A72" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" ht="18" spans="1:1">
-      <c r="A73" s="4" t="s">
+    <row r="73" ht="14" spans="1:1">
+      <c r="A73" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" ht="18" spans="1:1">
-      <c r="A74" s="1" t="s">
+    <row r="74" ht="14" spans="1:1">
+      <c r="A74" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" ht="18" spans="1:1">
-      <c r="A75" s="1" t="s">
+    <row r="75" ht="14" spans="1:1">
+      <c r="A75" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" ht="18" spans="1:1">
-      <c r="A77" s="1" t="s">
+    <row r="77" ht="14" spans="1:1">
+      <c r="A77" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" ht="18" spans="1:2">
-      <c r="A78" s="4" t="s">
+    <row r="78" ht="14" spans="1:2">
+      <c r="A78" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" ht="36" spans="1:2">
-      <c r="A79" s="1" t="s">
+    <row r="79" ht="27" spans="1:2">
+      <c r="A79" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="5"/>
-    </row>
-    <row r="81" ht="18" spans="1:1">
-      <c r="A81" s="5" t="s">
+      <c r="A80" s="9"/>
+    </row>
+    <row r="81" ht="14" spans="1:1">
+      <c r="A81" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" ht="18" spans="1:1">
-      <c r="A82" s="5" t="s">
+    <row r="82" ht="14" spans="1:1">
+      <c r="A82" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" ht="36" spans="1:1">
-      <c r="A83" s="6" t="s">
+    <row r="83" ht="27" spans="1:1">
+      <c r="A83" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" ht="18" spans="1:1">
-      <c r="A84" s="6" t="s">
+    <row r="84" ht="14" spans="1:1">
+      <c r="A84" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85" ht="36" spans="1:1">
-      <c r="A85" s="6" t="s">
+    <row r="85" ht="27" spans="1:1">
+      <c r="A85" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" ht="36" spans="1:1">
-      <c r="A86" s="6" t="s">
+    <row r="86" ht="27" spans="1:1">
+      <c r="A86" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="87" ht="36" spans="1:1">
-      <c r="A87" s="6" t="s">
+    <row r="87" ht="27" spans="1:1">
+      <c r="A87" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="88" ht="18" spans="1:1">
-      <c r="A88" s="6" t="s">
+    <row r="88" ht="14" spans="1:1">
+      <c r="A88" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" ht="18" spans="1:1">
-      <c r="A90" s="1" t="s">
+    <row r="90" ht="14" spans="1:1">
+      <c r="A90" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="91" ht="18" spans="1:1">
-      <c r="A91" s="4" t="s">
+    <row r="91" ht="27" spans="1:1">
+      <c r="A91" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93" ht="18" spans="1:1">
-      <c r="A93" s="1" t="s">
+    <row r="93" ht="14" spans="1:1">
+      <c r="A93" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94" ht="18" spans="1:1">
-      <c r="A94" s="1" t="s">
+    <row r="94" ht="14" spans="1:1">
+      <c r="A94" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" ht="18" spans="1:1">
-      <c r="A95" s="1" t="s">
+    <row r="95" ht="14" spans="1:1">
+      <c r="A95" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" ht="36" spans="1:1">
-      <c r="A96" s="4" t="s">
+    <row r="96" ht="27" spans="1:1">
+      <c r="A96" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="97" ht="18" spans="1:1">
-      <c r="A97" s="4" t="s">
+    <row r="97" ht="14" spans="1:1">
+      <c r="A97" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="98" ht="18" spans="1:1">
-      <c r="A98" s="4" t="s">
+    <row r="98" ht="14" spans="1:1">
+      <c r="A98" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" ht="18" spans="1:1">
-      <c r="A100" s="1" t="s">
+    <row r="100" ht="14" spans="1:1">
+      <c r="A100" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="101" ht="18" spans="1:1">
-      <c r="A101" s="1" t="s">
+    <row r="101" ht="14" spans="1:1">
+      <c r="A101" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="103" ht="18" spans="1:1">
-      <c r="A103" s="1" t="s">
+    <row r="103" ht="14" spans="1:1">
+      <c r="A103" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" ht="18" spans="1:1">
-      <c r="A104" s="1" t="s">
+    <row r="104" ht="14" spans="1:1">
+      <c r="A104" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="106" ht="18" spans="1:1">
-      <c r="A106" s="1" t="s">
+    <row r="106" ht="14" spans="1:1">
+      <c r="A106" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="107" ht="18" spans="1:1">
-      <c r="A107" s="1" t="s">
+    <row r="107" ht="14" spans="1:1">
+      <c r="A107" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="108" ht="18" spans="1:1">
-      <c r="A108" s="1" t="s">
+    <row r="108" ht="27" spans="1:1">
+      <c r="A108" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="109" ht="18" spans="1:1">
-      <c r="A109" s="1" t="s">
+    <row r="109" ht="14" spans="1:1">
+      <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="110" ht="18" spans="1:1">
-      <c r="A110" s="1" t="s">
+    <row r="110" ht="14" spans="1:1">
+      <c r="A110" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="112" ht="18" spans="1:1">
-      <c r="A112" s="1" t="s">
+    <row r="112" ht="14" spans="1:1">
+      <c r="A112" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="113" ht="18" spans="1:1">
-      <c r="A113" s="1" t="s">
+    <row r="113" ht="14" spans="1:1">
+      <c r="A113" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="114" ht="18" spans="1:1">
-      <c r="A114" s="1" t="s">
+    <row r="114" ht="14" spans="1:1">
+      <c r="A114" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="18" spans="1:1">
-      <c r="A115" s="1" t="s">
+    <row r="115" ht="14" spans="1:1">
+      <c r="A115" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="116" ht="18" spans="1:1">
-      <c r="A116" s="1" t="s">
+    <row r="116" ht="14" spans="1:1">
+      <c r="A116" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="118" ht="18" spans="1:1">
-      <c r="A118" s="1" t="s">
+    <row r="118" ht="14" spans="1:1">
+      <c r="A118" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="119" ht="18" spans="1:1">
-      <c r="A119" s="1" t="s">
+    <row r="119" ht="14" spans="1:1">
+      <c r="A119" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="120" ht="18" spans="1:1">
-      <c r="A120" s="1" t="s">
+    <row r="120" ht="14" spans="1:1">
+      <c r="A120" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="122" ht="18" spans="1:1">
-      <c r="A122" s="1" t="s">
+    <row r="122" ht="14" spans="1:1">
+      <c r="A122" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="123" ht="18" spans="1:1">
-      <c r="A123" s="1" t="s">
+    <row r="123" ht="14" spans="1:1">
+      <c r="A123" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="125" ht="18" spans="1:1">
-      <c r="A125" s="1" t="s">
+    <row r="125" ht="14" spans="1:1">
+      <c r="A125" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="126" ht="36" spans="1:2">
-      <c r="A126" s="1" t="s">
+    <row r="126" ht="40" spans="1:2">
+      <c r="A126" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="127" ht="18" spans="1:1">
-      <c r="A127" s="1" t="s">
+    <row r="127" ht="14" spans="1:1">
+      <c r="A127" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="128" ht="18" spans="1:1">
-      <c r="A128" s="1" t="s">
+    <row r="128" ht="14" spans="1:1">
+      <c r="A128" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="129" ht="18" spans="1:1">
-      <c r="A129" s="1" t="s">
+    <row r="129" ht="14" spans="1:1">
+      <c r="A129" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="130" ht="36" spans="1:1">
-      <c r="A130" s="1" t="s">
+    <row r="130" ht="27" spans="1:1">
+      <c r="A130" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="131" ht="36" spans="1:1">
-      <c r="A131" s="1" t="s">
+    <row r="131" ht="27" spans="1:1">
+      <c r="A131" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="132" ht="36" spans="1:1">
-      <c r="A132" s="1" t="s">
+    <row r="132" ht="27" spans="1:1">
+      <c r="A132" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="133" ht="18" spans="1:1">
-      <c r="A133" s="1" t="s">
+    <row r="133" ht="14" spans="1:1">
+      <c r="A133" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="134" ht="53" spans="1:1">
-      <c r="A134" s="1" t="s">
+    <row r="134" ht="40" spans="1:1">
+      <c r="A134" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="135" ht="18" spans="1:1">
-      <c r="A135" s="1" t="s">
+    <row r="135" ht="14" spans="1:1">
+      <c r="A135" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="137" ht="18" spans="1:1">
-      <c r="A137" s="1" t="s">
+    <row r="137" ht="14" spans="1:1">
+      <c r="A137" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="138" ht="36" spans="1:2">
-      <c r="A138" s="1" t="s">
+    <row r="138" ht="27" spans="1:2">
+      <c r="A138" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="140" ht="18" spans="1:1">
-      <c r="A140" s="1" t="s">
+    <row r="140" ht="14" spans="1:1">
+      <c r="A140" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="141" ht="18" spans="1:1">
-      <c r="A141" s="1" t="s">
+    <row r="141" ht="14" spans="1:1">
+      <c r="A141" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="143" ht="18" spans="1:1">
-      <c r="A143" s="1" t="s">
+    <row r="143" ht="14" spans="1:1">
+      <c r="A143" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="144" ht="18" spans="1:1">
-      <c r="A144" s="1" t="s">
+    <row r="144" ht="14" spans="1:1">
+      <c r="A144" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="146" ht="18" spans="1:1">
-      <c r="A146" s="5" t="s">
+    <row r="146" ht="14" spans="1:1">
+      <c r="A146" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="147" ht="18" spans="1:1">
-      <c r="A147" s="5" t="s">
+    <row r="147" ht="14" spans="1:1">
+      <c r="A147" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="148" ht="18" spans="1:1">
-      <c r="A148" s="5" t="s">
+    <row r="148" ht="14" spans="1:1">
+      <c r="A148" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="150" ht="18" spans="1:1">
-      <c r="A150" s="1" t="s">
+    <row r="150" ht="14" spans="1:1">
+      <c r="A150" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="151" ht="19" customHeight="1" spans="1:2">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="152" ht="36" spans="1:2">
-      <c r="A152" s="1" t="s">
+    <row r="152" ht="27" spans="1:2">
+      <c r="A152" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="153" ht="18" spans="1:2">
-      <c r="A153" s="1" t="s">
+    <row r="153" ht="14" spans="1:2">
+      <c r="A153" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="154" ht="18" spans="1:1">
-      <c r="A154" s="1" t="s">
+    <row r="154" ht="14" spans="1:1">
+      <c r="A154" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="155" ht="18" spans="1:1">
-      <c r="A155" s="1" t="s">
+    <row r="155" ht="14" spans="1:1">
+      <c r="A155" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="156" ht="18" spans="1:1">
-      <c r="A156" s="1" t="s">
+    <row r="156" ht="14" spans="1:1">
+      <c r="A156" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="157" ht="18" spans="1:1">
-      <c r="A157" s="1" t="s">
+    <row r="157" ht="14" spans="1:1">
+      <c r="A157" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="158" ht="18" spans="1:1">
-      <c r="A158" s="1" t="s">
+    <row r="158" ht="14" spans="1:1">
+      <c r="A158" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="159" ht="18" spans="1:1">
-      <c r="A159" s="1" t="s">
+    <row r="159" ht="14" spans="1:1">
+      <c r="A159" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="160" ht="18" spans="1:1">
-      <c r="A160" s="1" t="s">
+    <row r="160" ht="14" spans="1:1">
+      <c r="A160" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="161" ht="18" spans="1:1">
-      <c r="A161" s="1" t="s">
+    <row r="161" ht="14" spans="1:1">
+      <c r="A161" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="162" ht="18" spans="1:1">
-      <c r="A162" s="1" t="s">
+    <row r="162" ht="14" spans="1:1">
+      <c r="A162" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="163" ht="18" spans="1:1">
-      <c r="A163" s="1" t="s">
+    <row r="163" ht="14" spans="1:1">
+      <c r="A163" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="164" ht="18" spans="1:1">
-      <c r="A164" s="1" t="s">
+    <row r="164" ht="14" spans="1:1">
+      <c r="A164" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="166" ht="18" spans="1:1">
-      <c r="A166" s="1" t="s">
+    <row r="166" ht="14" spans="1:1">
+      <c r="A166" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="167" ht="18" spans="1:2">
-      <c r="A167" s="1" t="s">
+    <row r="167" ht="14" spans="1:2">
+      <c r="A167" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="168" ht="18" spans="1:2">
-      <c r="A168" s="1" t="s">
+    <row r="168" ht="14" spans="1:2">
+      <c r="A168" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="169" ht="18" spans="1:1">
-      <c r="A169" s="1" t="s">
+    <row r="169" ht="14" spans="1:1">
+      <c r="A169" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="170" ht="36" spans="1:1">
-      <c r="A170" s="1" t="s">
+    <row r="170" ht="27" spans="1:1">
+      <c r="A170" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="171" ht="36" spans="1:1">
-      <c r="A171" s="1" t="s">
+    <row r="171" ht="27" spans="1:1">
+      <c r="A171" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="172" ht="18" spans="1:1">
-      <c r="A172" s="1" t="s">
+    <row r="172" ht="14" spans="1:1">
+      <c r="A172" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="173" ht="18" spans="1:1">
-      <c r="A173" s="1" t="s">
+    <row r="173" ht="14" spans="1:1">
+      <c r="A173" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="174" ht="18" spans="1:1">
-      <c r="A174" s="1" t="s">
+    <row r="174" ht="14" spans="1:1">
+      <c r="A174" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="175" ht="18" spans="1:1">
-      <c r="A175" s="1" t="s">
+    <row r="175" ht="14" spans="1:1">
+      <c r="A175" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="176" ht="18" spans="1:1">
-      <c r="A176" s="1" t="s">
+    <row r="176" ht="14" spans="1:1">
+      <c r="A176" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="177" ht="18" spans="1:1">
-      <c r="A177" s="1" t="s">
+    <row r="177" ht="14" spans="1:1">
+      <c r="A177" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="178" ht="18" spans="1:1">
-      <c r="A178" s="1" t="s">
+    <row r="178" ht="14" spans="1:1">
+      <c r="A178" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="179" ht="18" spans="1:1">
-      <c r="A179" s="1" t="s">
+    <row r="179" ht="14" spans="1:1">
+      <c r="A179" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="180" ht="18" spans="1:1">
-      <c r="A180" s="1" t="s">
+    <row r="180" ht="14" spans="1:1">
+      <c r="A180" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="181" ht="18" spans="1:1">
-      <c r="A181" s="1" t="s">
+    <row r="181" ht="14" spans="1:1">
+      <c r="A181" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="183" ht="18" spans="1:1">
-      <c r="A183" s="1" t="s">
+    <row r="183" ht="14" spans="1:1">
+      <c r="A183" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="184" ht="36" spans="1:1">
-      <c r="A184" s="1" t="s">
+    <row r="184" ht="27" spans="1:1">
+      <c r="A184" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="185" ht="18" spans="1:1">
-      <c r="A185" s="1" t="s">
+    <row r="185" ht="14" spans="1:1">
+      <c r="A185" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="186" ht="18" spans="1:1">
-      <c r="A186" s="1" t="s">
+    <row r="186" ht="14" spans="1:1">
+      <c r="A186" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="188" ht="18" spans="1:1">
-      <c r="A188" s="1" t="s">
+    <row r="188" ht="14" spans="1:1">
+      <c r="A188" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="189" ht="18" spans="1:1">
-      <c r="A189" s="1" t="s">
+    <row r="189" ht="14" spans="1:1">
+      <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="190" ht="18" spans="1:1">
-      <c r="A190" s="1" t="s">
+    <row r="190" ht="14" spans="1:1">
+      <c r="A190" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="191" ht="18" spans="1:1">
-      <c r="A191" s="1" t="s">
+    <row r="191" ht="14" spans="1:1">
+      <c r="A191" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="193" ht="18" spans="1:1">
-      <c r="A193" s="1" t="s">
+    <row r="193" ht="14" spans="1:1">
+      <c r="A193" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="194" ht="18" spans="1:1">
-      <c r="A194" s="1" t="s">
+    <row r="194" ht="14" spans="1:1">
+      <c r="A194" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="195" ht="18" spans="1:1">
-      <c r="A195" s="1" t="s">
+    <row r="195" ht="14" spans="1:1">
+      <c r="A195" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="197" ht="18" spans="1:1">
-      <c r="A197" s="1" t="s">
+    <row r="197" ht="14" spans="1:1">
+      <c r="A197" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="198" ht="36" spans="1:2">
-      <c r="A198" s="1" t="s">
+    <row r="198" ht="27" spans="1:2">
+      <c r="A198" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="199" ht="36" spans="1:1">
-      <c r="A199" s="1" t="s">
+    <row r="199" ht="27" spans="1:1">
+      <c r="A199" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="200" ht="36" spans="1:1">
-      <c r="A200" s="1" t="s">
+    <row r="200" ht="27" spans="1:1">
+      <c r="A200" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="201" ht="36" spans="1:1">
-      <c r="A201" s="1" t="s">
+    <row r="201" ht="27" spans="1:1">
+      <c r="A201" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="202" ht="36" spans="1:1">
-      <c r="A202" s="1" t="s">
+    <row r="202" ht="27" spans="1:1">
+      <c r="A202" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="203" ht="18" spans="1:1">
-      <c r="A203" s="1" t="s">
+    <row r="203" ht="14" spans="1:1">
+      <c r="A203" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="204" ht="18" spans="1:1">
-      <c r="A204" s="1" t="s">
+    <row r="204" ht="14" spans="1:1">
+      <c r="A204" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="205" ht="36" spans="1:1">
-      <c r="A205" s="1" t="s">
+    <row r="205" ht="27" spans="1:1">
+      <c r="A205" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="206" ht="18" spans="1:1">
-      <c r="A206" s="1" t="s">
+    <row r="206" ht="14" spans="1:1">
+      <c r="A206" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="208" ht="18" spans="1:1">
-      <c r="A208" s="1" t="s">
+    <row r="208" ht="14" spans="1:1">
+      <c r="A208" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="209" ht="18" spans="1:2">
-      <c r="A209" s="1" t="s">
+    <row r="209" ht="14" spans="1:2">
+      <c r="A209" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="210" ht="36" spans="1:2">
-      <c r="A210" s="1" t="s">
+    <row r="210" ht="27" spans="1:2">
+      <c r="A210" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="211" ht="36" spans="1:2">
-      <c r="A211" s="1" t="s">
+    <row r="211" ht="27" spans="1:2">
+      <c r="A211" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="212" ht="36" spans="1:1">
-      <c r="A212" s="4" t="s">
+    <row r="212" ht="27" spans="1:1">
+      <c r="A212" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="213" ht="36" spans="1:2">
-      <c r="A213" s="4" t="s">
+    <row r="213" ht="27" spans="1:2">
+      <c r="A213" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="214" ht="36" spans="1:2">
-      <c r="A214" s="4" t="s">
+    <row r="214" ht="27" spans="1:2">
+      <c r="A214" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="215" ht="36" spans="1:2">
-      <c r="A215" s="4" t="s">
+    <row r="215" ht="27" spans="1:2">
+      <c r="A215" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="217" ht="18" spans="1:1">
-      <c r="A217" s="1" t="s">
+    <row r="217" ht="14" spans="1:1">
+      <c r="A217" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="218" ht="18" spans="1:1">
-      <c r="A218" s="1" t="s">
+    <row r="218" ht="14" spans="1:1">
+      <c r="A218" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="219" ht="18" spans="1:1">
-      <c r="A219" s="1" t="s">
+    <row r="219" ht="27" spans="1:1">
+      <c r="A219" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="220" ht="36" spans="1:1">
-      <c r="A220" s="1" t="s">
+    <row r="220" ht="27" spans="1:1">
+      <c r="A220" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="221" ht="18" spans="1:1">
-      <c r="A221" s="1" t="s">
+    <row r="221" ht="14" spans="1:1">
+      <c r="A221" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="222" ht="18" spans="1:1">
-      <c r="A222" s="1" t="s">
+    <row r="222" ht="14" spans="1:1">
+      <c r="A222" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="223" ht="18" spans="1:1">
-      <c r="A223" s="1" t="s">
+    <row r="223" ht="14" spans="1:1">
+      <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="225" ht="18" spans="1:1">
-      <c r="A225" s="1" t="s">
+    <row r="225" ht="14" spans="1:1">
+      <c r="A225" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="226" ht="18" spans="1:1">
-      <c r="A226" s="1" t="s">
+    <row r="226" ht="14" spans="1:1">
+      <c r="A226" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="227" ht="18" spans="1:1">
-      <c r="A227" s="1" t="s">
+    <row r="227" ht="14" spans="1:1">
+      <c r="A227" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="228" ht="18" spans="1:2">
-      <c r="A228" s="4" t="s">
+    <row r="228" ht="14" spans="1:2">
+      <c r="A228" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="229" ht="36" spans="1:1">
-      <c r="A229" s="1" t="s">
+    <row r="229" ht="27" spans="1:1">
+      <c r="A229" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="231" ht="18" spans="1:1">
-      <c r="A231" s="1" t="s">
+    <row r="231" ht="14" spans="1:1">
+      <c r="A231" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="232" ht="18" spans="1:1">
-      <c r="A232" s="1" t="s">
+    <row r="232" ht="14" spans="1:1">
+      <c r="A232" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="233" ht="18" spans="1:1">
-      <c r="A233" s="1" t="s">
+    <row r="233" ht="14" spans="1:1">
+      <c r="A233" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="234" ht="36" spans="1:1">
-      <c r="A234" s="1" t="s">
+    <row r="234" ht="27" spans="1:1">
+      <c r="A234" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="236" ht="18" spans="1:1">
-      <c r="A236" s="1" t="s">
+    <row r="236" ht="14" spans="1:1">
+      <c r="A236" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="237" ht="18" spans="1:1">
-      <c r="A237" s="1" t="s">
+    <row r="237" ht="14" spans="1:1">
+      <c r="A237" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="238" ht="36" spans="1:1">
-      <c r="A238" s="1" t="s">
+    <row r="238" ht="27" spans="1:1">
+      <c r="A238" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="239" ht="18" spans="1:1">
-      <c r="A239" s="1" t="s">
+    <row r="239" ht="14" spans="1:1">
+      <c r="A239" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="241" ht="18" spans="1:1">
-      <c r="A241" s="1" t="s">
+    <row r="241" ht="14" spans="1:1">
+      <c r="A241" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="242" ht="18" spans="1:2">
-      <c r="A242" s="1" t="s">
+    <row r="242" ht="14" spans="1:2">
+      <c r="A242" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="244" ht="18" spans="1:1">
-      <c r="A244" s="1" t="s">
+    <row r="244" ht="14" spans="1:1">
+      <c r="A244" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="245" ht="18" spans="1:1">
-      <c r="A245" s="1" t="s">
+    <row r="245" ht="14" spans="1:1">
+      <c r="A245" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="246" ht="36" spans="1:1">
-      <c r="A246" s="1" t="s">
+    <row r="246" ht="27" spans="1:1">
+      <c r="A246" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="247" ht="18" spans="1:1">
-      <c r="A247" s="1" t="s">
+    <row r="247" ht="14" spans="1:1">
+      <c r="A247" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="249" ht="18" spans="1:1">
-      <c r="A249" s="1" t="s">
+    <row r="249" ht="14" spans="1:1">
+      <c r="A249" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="250" ht="36" spans="1:2">
-      <c r="A250" s="1" t="s">
+    <row r="250" ht="27" spans="1:2">
+      <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="251" ht="36" spans="1:2">
-      <c r="A251" s="1" t="s">
+    <row r="251" ht="27" spans="1:2">
+      <c r="A251" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="252" ht="18" spans="1:2">
-      <c r="A252" s="1" t="s">
+    <row r="252" ht="14" spans="1:2">
+      <c r="A252" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="253" ht="18" spans="1:2">
-      <c r="A253" s="1" t="s">
+    <row r="253" ht="14" spans="1:2">
+      <c r="A253" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="254" ht="18" spans="1:1">
-      <c r="A254" s="1" t="s">
+    <row r="254" ht="14" spans="1:1">
+      <c r="A254" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="256" ht="18" spans="1:1">
-      <c r="A256" s="1" t="s">
+    <row r="256" ht="14" spans="1:1">
+      <c r="A256" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="257" ht="36" spans="1:2">
-      <c r="A257" s="1" t="s">
+    <row r="257" ht="27" spans="1:2">
+      <c r="A257" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="258" ht="36" spans="1:2">
-      <c r="A258" s="1" t="s">
+    <row r="258" ht="27" spans="1:2">
+      <c r="A258" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="259" ht="18" spans="1:1">
-      <c r="A259" s="1" t="s">
+    <row r="259" ht="14" spans="1:1">
+      <c r="A259" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="260" ht="18" spans="1:1">
-      <c r="A260" s="1" t="s">
+    <row r="260" ht="14" spans="1:1">
+      <c r="A260" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="262" ht="18" spans="1:1">
-      <c r="A262" s="1" t="s">
+    <row r="262" ht="14" spans="1:1">
+      <c r="A262" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="263" ht="18" spans="1:1">
-      <c r="A263" s="1" t="s">
+    <row r="263" ht="14" spans="1:1">
+      <c r="A263" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="264" ht="18" spans="1:1">
-      <c r="A264" s="1" t="s">
+    <row r="264" ht="14" spans="1:1">
+      <c r="A264" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="266" ht="18" spans="1:1">
-      <c r="A266" s="1" t="s">
+    <row r="266" ht="14" spans="1:1">
+      <c r="A266" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="267" ht="36" spans="1:1">
-      <c r="A267" s="1" t="s">
+    <row r="267" ht="27" spans="1:1">
+      <c r="A267" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="268" ht="18" spans="1:1">
-      <c r="A268" s="1" t="s">
+    <row r="268" ht="14" spans="1:1">
+      <c r="A268" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="270" ht="18" spans="1:1">
-      <c r="A270" s="1" t="s">
+    <row r="270" ht="14" spans="1:1">
+      <c r="A270" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="271" ht="36" spans="1:1">
-      <c r="A271" s="1" t="s">
+    <row r="271" ht="27" spans="1:1">
+      <c r="A271" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="272" ht="36" spans="1:1">
-      <c r="A272" s="1" t="s">
+    <row r="272" ht="27" spans="1:1">
+      <c r="A272" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="273" ht="36" spans="1:1">
-      <c r="A273" s="1" t="s">
+    <row r="273" ht="27" spans="1:1">
+      <c r="A273" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="274" ht="36" spans="1:1">
-      <c r="A274" s="1" t="s">
+    <row r="274" ht="27" spans="1:1">
+      <c r="A274" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="276" ht="18" spans="1:1">
-      <c r="A276" s="1" t="s">
+    <row r="276" ht="14" spans="1:1">
+      <c r="A276" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="277" ht="53" spans="1:1">
-      <c r="A277" s="1" t="s">
+    <row r="277" ht="40" spans="1:1">
+      <c r="A277" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="278" ht="18" spans="1:1">
-      <c r="A278" s="1" t="s">
+    <row r="278" ht="14" spans="1:1">
+      <c r="A278" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="280" ht="18" spans="1:1">
-      <c r="A280" s="1" t="s">
+    <row r="280" ht="14" spans="1:1">
+      <c r="A280" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="281" ht="18" spans="1:1">
-      <c r="A281" s="1" t="s">
+    <row r="281" ht="14" spans="1:1">
+      <c r="A281" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="282" ht="18" spans="1:1">
-      <c r="A282" s="1" t="s">
+    <row r="282" ht="14" spans="1:1">
+      <c r="A282" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="283" ht="18" spans="1:1">
-      <c r="A283" s="1" t="s">
+    <row r="283" ht="27" spans="1:1">
+      <c r="A283" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="284" ht="18" spans="1:1">
-      <c r="A284" s="1" t="s">
+    <row r="284" ht="14" spans="1:1">
+      <c r="A284" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="286" ht="18" spans="1:1">
-      <c r="A286" s="1" t="s">
+    <row r="286" ht="14" spans="1:1">
+      <c r="A286" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="287" ht="36" spans="1:2">
-      <c r="A287" s="1" t="s">
+    <row r="287" ht="27" spans="1:2">
+      <c r="A287" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="288" ht="18" spans="1:1">
-      <c r="A288" s="1" t="s">
+    <row r="288" ht="14" spans="1:1">
+      <c r="A288" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="289" ht="36" spans="1:1">
-      <c r="A289" s="1" t="s">
+    <row r="289" ht="27" spans="1:1">
+      <c r="A289" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="290" ht="36" spans="1:1">
-      <c r="A290" s="1" t="s">
+    <row r="290" ht="27" spans="1:1">
+      <c r="A290" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="291" ht="36" spans="1:1">
-      <c r="A291" s="1" t="s">
+    <row r="291" ht="27" spans="1:1">
+      <c r="A291" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="293" ht="18" spans="1:1">
-      <c r="A293" s="1" t="s">
+    <row r="293" ht="14" spans="1:1">
+      <c r="A293" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="294" ht="36" spans="1:1">
-      <c r="A294" s="1" t="s">
+    <row r="294" ht="27" spans="1:1">
+      <c r="A294" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="295" ht="18" spans="1:1">
-      <c r="A295" s="1" t="s">
+    <row r="295" ht="14" spans="1:1">
+      <c r="A295" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="296" ht="36" spans="1:1">
-      <c r="A296" s="1" t="s">
+    <row r="296" ht="40" spans="1:1">
+      <c r="A296" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="297" ht="18" spans="1:1">
-      <c r="A297" s="1" t="s">
+    <row r="297" ht="14" spans="1:1">
+      <c r="A297" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="299" ht="18" spans="1:1">
-      <c r="A299" s="1" t="s">
+    <row r="299" ht="14" spans="1:1">
+      <c r="A299" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="300" ht="18" spans="1:2">
-      <c r="A300" s="1" t="s">
+    <row r="300" ht="14" spans="1:2">
+      <c r="A300" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="301" ht="18" spans="1:1">
-      <c r="A301" s="1" t="s">
+    <row r="301" ht="27" spans="1:1">
+      <c r="A301" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="302" ht="36" spans="1:1">
-      <c r="A302" s="1" t="s">
+    <row r="302" ht="40" spans="1:1">
+      <c r="A302" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="303" ht="53" spans="1:1">
-      <c r="A303" s="1" t="s">
+    <row r="303" ht="40" spans="1:1">
+      <c r="A303" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="304" ht="53" spans="1:1">
-      <c r="A304" s="1" t="s">
+    <row r="304" ht="40" spans="1:1">
+      <c r="A304" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="306" ht="18" spans="1:1">
-      <c r="A306" s="1" t="s">
+    <row r="306" ht="14" spans="1:1">
+      <c r="A306" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="307" ht="36" spans="1:1">
-      <c r="A307" s="1" t="s">
+    <row r="307" ht="27" spans="1:1">
+      <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="308" ht="18" spans="1:1">
-      <c r="A308" s="1" t="s">
+    <row r="308" ht="14" spans="1:1">
+      <c r="A308" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="310" ht="18" spans="1:1">
-      <c r="A310" s="1" t="s">
+    <row r="310" ht="14" spans="1:1">
+      <c r="A310" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="311" ht="36" spans="1:1">
-      <c r="A311" s="1" t="s">
+    <row r="311" ht="27" spans="1:1">
+      <c r="A311" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="312" ht="36" spans="1:1">
-      <c r="A312" s="1" t="s">
+    <row r="312" ht="27" spans="1:1">
+      <c r="A312" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="313" ht="18" spans="1:1">
-      <c r="A313" s="1" t="s">
+    <row r="313" ht="14" spans="1:1">
+      <c r="A313" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="314" ht="18" spans="1:1">
-      <c r="A314" s="1" t="s">
+    <row r="314" ht="14" spans="1:1">
+      <c r="A314" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="316" ht="18" spans="1:1">
-      <c r="A316" s="1" t="s">
+    <row r="316" ht="14" spans="1:1">
+      <c r="A316" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="317" ht="36" spans="1:1">
-      <c r="A317" s="1" t="s">
+    <row r="317" ht="27" spans="1:1">
+      <c r="A317" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="318" ht="18" spans="1:1">
-      <c r="A318" s="1" t="s">
+    <row r="318" ht="14" spans="1:1">
+      <c r="A318" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="319" ht="18" spans="1:1">
-      <c r="A319" s="1" t="s">
+    <row r="319" ht="14" spans="1:1">
+      <c r="A319" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="320" ht="18" spans="1:1">
-      <c r="A320" s="1" t="s">
+    <row r="320" ht="14" spans="1:1">
+      <c r="A320" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="321" ht="18" spans="1:1">
-      <c r="A321" s="1" t="s">
+    <row r="321" ht="14" spans="1:1">
+      <c r="A321" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="322" ht="18" spans="1:1">
-      <c r="A322" s="1" t="s">
+    <row r="322" ht="14" spans="1:1">
+      <c r="A322" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="323" ht="18" spans="1:1">
-      <c r="A323" s="1" t="s">
+    <row r="323" ht="14" spans="1:1">
+      <c r="A323" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="324" ht="18" spans="1:1">
-      <c r="A324" s="1" t="s">
+    <row r="324" ht="14" spans="1:1">
+      <c r="A324" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="325" ht="18" spans="1:1">
-      <c r="A325" s="1" t="s">
+    <row r="325" ht="14" spans="1:1">
+      <c r="A325" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="326" ht="18" spans="1:1">
-      <c r="A326" s="1" t="s">
+    <row r="326" ht="27" spans="1:1">
+      <c r="A326" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="327" ht="18" spans="1:1">
-      <c r="A327" s="1" t="s">
+    <row r="327" ht="14" spans="1:1">
+      <c r="A327" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="328" ht="18" spans="1:1">
-      <c r="A328" s="1" t="s">
+    <row r="328" ht="14" spans="1:1">
+      <c r="A328" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="329" ht="18" spans="1:1">
-      <c r="A329" s="1" t="s">
+    <row r="329" ht="14" spans="1:1">
+      <c r="A329" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="330" ht="36" spans="1:1">
-      <c r="A330" s="1" t="s">
+    <row r="330" ht="27" spans="1:1">
+      <c r="A330" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="331" ht="18" spans="1:1">
-      <c r="A331" s="1" t="s">
+    <row r="331" ht="14" spans="1:1">
+      <c r="A331" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="332" ht="18" spans="1:1">
-      <c r="A332" s="1" t="s">
+    <row r="332" ht="14" spans="1:1">
+      <c r="A332" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="334" ht="18" spans="1:1">
-      <c r="A334" s="1" t="s">
+    <row r="334" ht="14" spans="1:1">
+      <c r="A334" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="335" ht="18" spans="1:1">
-      <c r="A335" s="1" t="s">
+    <row r="335" ht="14" spans="1:1">
+      <c r="A335" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="336" ht="18" spans="1:1">
-      <c r="A336" s="1" t="s">
+    <row r="336" ht="14" spans="1:1">
+      <c r="A336" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="337" ht="18" spans="1:1">
-      <c r="A337" s="1" t="s">
+    <row r="337" ht="14" spans="1:1">
+      <c r="A337" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="339" ht="18" spans="1:1">
-      <c r="A339" s="1" t="s">
+    <row r="339" ht="14" spans="1:1">
+      <c r="A339" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="340" ht="18" spans="1:2">
-      <c r="A340" s="1" t="s">
+    <row r="340" ht="27" spans="1:2">
+      <c r="A340" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="341" ht="36" spans="1:1">
-      <c r="A341" s="1" t="s">
+    <row r="341" ht="27" spans="1:1">
+      <c r="A341" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="343" ht="18" spans="1:1">
-      <c r="A343" s="1" t="s">
+    <row r="343" ht="14" spans="1:1">
+      <c r="A343" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="344" ht="18" spans="1:1">
-      <c r="A344" s="1" t="s">
+    <row r="344" ht="14" spans="1:1">
+      <c r="A344" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="345" ht="36" spans="1:1">
-      <c r="A345" s="1" t="s">
+    <row r="345" ht="27" spans="1:1">
+      <c r="A345" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="346" ht="18" spans="1:1">
-      <c r="A346" s="1" t="s">
+    <row r="346" ht="14" spans="1:1">
+      <c r="A346" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="347" ht="36" spans="1:1">
-      <c r="A347" s="1" t="s">
+    <row r="347" ht="27" spans="1:1">
+      <c r="A347" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="348" ht="18" spans="1:1">
-      <c r="A348" s="1" t="s">
+    <row r="348" ht="14" spans="1:1">
+      <c r="A348" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="349" ht="36" spans="1:1">
-      <c r="A349" s="1" t="s">
+    <row r="349" ht="27" spans="1:1">
+      <c r="A349" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="351" ht="18" spans="1:1">
-      <c r="A351" s="1" t="s">
+    <row r="351" ht="14" spans="1:1">
+      <c r="A351" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="352" ht="18" spans="1:1">
-      <c r="A352" s="1" t="s">
+    <row r="352" ht="14" spans="1:1">
+      <c r="A352" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="353" ht="36" spans="1:1">
-      <c r="A353" s="1" t="s">
+    <row r="353" ht="27" spans="1:1">
+      <c r="A353" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="354" ht="18" spans="1:1">
-      <c r="A354" s="1" t="s">
+    <row r="354" ht="14" spans="1:1">
+      <c r="A354" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="355" ht="18" spans="1:1">
-      <c r="A355" s="1" t="s">
+    <row r="355" ht="14" spans="1:1">
+      <c r="A355" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="357" ht="18" spans="1:1">
-      <c r="A357" s="1" t="s">
+    <row r="357" ht="14" spans="1:1">
+      <c r="A357" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="358" ht="18" spans="1:2">
-      <c r="A358" s="1" t="s">
+    <row r="358" ht="14" spans="1:2">
+      <c r="A358" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B358" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="360" ht="18" spans="1:1">
-      <c r="A360" s="1" t="s">
+    <row r="360" ht="14" spans="1:1">
+      <c r="A360" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="361" ht="18" spans="1:1">
-      <c r="A361" s="1" t="s">
+    <row r="361" ht="14" spans="1:1">
+      <c r="A361" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="362" ht="18" spans="1:1">
-      <c r="A362" s="1" t="s">
+    <row r="362" ht="14" spans="1:1">
+      <c r="A362" s="5" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="363" ht="18" customHeight="1" spans="1:2">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B363" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="364" ht="36" spans="1:1">
-      <c r="A364" s="1" t="s">
+    <row r="364" ht="27" spans="1:1">
+      <c r="A364" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="366" ht="18" spans="1:1">
-      <c r="A366" s="1" t="s">
+    <row r="366" ht="14" spans="1:1">
+      <c r="A366" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="367" ht="18" spans="1:2">
-      <c r="A367" s="1" t="s">
+    <row r="367" ht="14" spans="1:2">
+      <c r="A367" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="B367" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="369" ht="18" spans="1:1">
-      <c r="A369" s="1" t="s">
+    <row r="369" ht="14" spans="1:1">
+      <c r="A369" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="370" ht="18" spans="1:1">
-      <c r="A370" s="1" t="s">
+    <row r="370" ht="14" spans="1:1">
+      <c r="A370" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="372" ht="18" spans="1:1">
-      <c r="A372" s="1" t="s">
+    <row r="372" ht="14" spans="1:1">
+      <c r="A372" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="373" ht="18" spans="1:1">
-      <c r="A373" s="1" t="s">
+    <row r="373" ht="14" spans="1:1">
+      <c r="A373" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="374" ht="18" spans="1:1">
-      <c r="A374" s="1" t="s">
+    <row r="374" ht="14" spans="1:1">
+      <c r="A374" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="375" ht="18" spans="1:1">
-      <c r="A375" s="1" t="s">
+    <row r="375" ht="14" spans="1:1">
+      <c r="A375" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="376" ht="18" spans="1:2">
-      <c r="A376" s="1" t="s">
+    <row r="376" ht="14" spans="1:2">
+      <c r="A376" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B376" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="377" ht="18" spans="1:1">
-      <c r="A377" s="1" t="s">
+    <row r="377" ht="14" spans="1:1">
+      <c r="A377" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="378" ht="18" spans="1:1">
-      <c r="A378" s="1" t="s">
+    <row r="378" ht="14" spans="1:1">
+      <c r="A378" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="379" ht="18" spans="1:1">
-      <c r="A379" s="1" t="s">
+    <row r="379" ht="14" spans="1:1">
+      <c r="A379" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="380" ht="18" spans="1:1">
-      <c r="A380" s="1" t="s">
+    <row r="380" ht="14" spans="1:1">
+      <c r="A380" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="381" ht="18" spans="1:1">
-      <c r="A381" s="1" t="s">
+    <row r="381" ht="14" spans="1:1">
+      <c r="A381" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="382" ht="18" spans="1:1">
-      <c r="A382" s="1" t="s">
+    <row r="382" ht="14" spans="1:1">
+      <c r="A382" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="383" ht="18" spans="1:1">
-      <c r="A383" s="1" t="s">
+    <row r="383" ht="14" spans="1:1">
+      <c r="A383" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="384" ht="18" spans="1:1">
-      <c r="A384" s="1" t="s">
+    <row r="384" ht="14" spans="1:1">
+      <c r="A384" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="385" ht="18" spans="1:1">
-      <c r="A385" s="1" t="s">
+    <row r="385" ht="14" spans="1:1">
+      <c r="A385" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="386" ht="18" spans="1:2">
-      <c r="A386" s="1" t="s">
+    <row r="386" ht="14" spans="1:2">
+      <c r="A386" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="B386" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="387" ht="18" spans="1:1">
-      <c r="A387" s="1" t="s">
+    <row r="387" ht="14" spans="1:1">
+      <c r="A387" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="388" ht="18" spans="1:1">
-      <c r="A388" s="1" t="s">
+    <row r="388" ht="14" spans="1:1">
+      <c r="A388" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="389" ht="18" spans="1:1">
-      <c r="A389" s="1" t="s">
+    <row r="389" ht="14" spans="1:1">
+      <c r="A389" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="390" ht="18" spans="1:1">
-      <c r="A390" s="1" t="s">
+    <row r="390" ht="14" spans="1:1">
+      <c r="A390" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="391" ht="18" spans="1:1">
-      <c r="A391" s="1" t="s">
+    <row r="391" ht="14" spans="1:1">
+      <c r="A391" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="392" ht="18" spans="1:1">
-      <c r="A392" s="1" t="s">
+    <row r="392" ht="14" spans="1:1">
+      <c r="A392" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="393" ht="18" spans="1:1">
-      <c r="A393" s="1" t="s">
+    <row r="393" ht="14" spans="1:1">
+      <c r="A393" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="394" ht="18" spans="1:1">
-      <c r="A394" s="1" t="s">
+    <row r="394" ht="14" spans="1:1">
+      <c r="A394" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="395" ht="18" spans="1:1">
-      <c r="A395" s="1" t="s">
+    <row r="395" ht="14" spans="1:1">
+      <c r="A395" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="396" ht="18" spans="1:1">
-      <c r="A396" s="1" t="s">
+    <row r="396" ht="14" spans="1:1">
+      <c r="A396" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="397" ht="18" spans="1:1">
-      <c r="A397" s="1" t="s">
+    <row r="397" ht="14" spans="1:1">
+      <c r="A397" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="399" ht="18" spans="1:1">
-      <c r="A399" s="1" t="s">
+    <row r="399" ht="14" spans="1:1">
+      <c r="A399" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="400" ht="18" spans="1:1">
-      <c r="A400" s="1" t="s">
+    <row r="400" ht="14" spans="1:1">
+      <c r="A400" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="401" ht="18" spans="1:1">
-      <c r="A401" s="1" t="s">
+    <row r="401" ht="14" spans="1:1">
+      <c r="A401" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="402" ht="18" spans="1:2">
-      <c r="A402" s="1" t="s">
+    <row r="402" ht="14" spans="1:2">
+      <c r="A402" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B402" s="1" t="s">
+      <c r="B402" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="403" ht="18" spans="1:1">
-      <c r="A403" s="1" t="s">
+    <row r="403" ht="14" spans="1:1">
+      <c r="A403" s="5" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="404" ht="18" spans="1:1">
-      <c r="A404" s="1" t="s">
+    <row r="404" ht="14" spans="1:1">
+      <c r="A404" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="405" ht="18" spans="1:1">
-      <c r="A405" s="1" t="s">
+    <row r="405" ht="14" spans="1:1">
+      <c r="A405" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="406" ht="18" spans="1:1">
-      <c r="A406" s="1" t="s">
+    <row r="406" ht="14" spans="1:1">
+      <c r="A406" s="5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="408" ht="18" spans="1:1">
-      <c r="A408" s="1" t="s">
+    <row r="408" ht="14" spans="1:1">
+      <c r="A408" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="409" ht="18" spans="1:1">
-      <c r="A409" s="1" t="s">
+    <row r="409" ht="14" spans="1:1">
+      <c r="A409" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="410" ht="18" spans="1:1">
-      <c r="A410" s="1" t="s">
+    <row r="410" ht="14" spans="1:1">
+      <c r="A410" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="411" ht="18" spans="1:1">
-      <c r="A411" s="1" t="s">
+    <row r="411" ht="14" spans="1:1">
+      <c r="A411" s="5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="412" ht="18" spans="1:1">
-      <c r="A412" s="1" t="s">
+    <row r="412" ht="14" spans="1:1">
+      <c r="A412" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="413" ht="18" spans="1:1">
-      <c r="A413" s="1" t="s">
+    <row r="413" ht="14" spans="1:1">
+      <c r="A413" s="5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="414" ht="18" spans="1:1">
-      <c r="A414" s="1" t="s">
+    <row r="414" ht="14" spans="1:1">
+      <c r="A414" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="415" ht="36" spans="1:1">
-      <c r="A415" s="1" t="s">
+    <row r="415" ht="27" spans="1:1">
+      <c r="A415" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="416" ht="36" spans="1:1">
-      <c r="A416" s="1" t="s">
+    <row r="416" ht="27" spans="1:1">
+      <c r="A416" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="417" ht="18" spans="1:1">
-      <c r="A417" s="1" t="s">
+    <row r="417" ht="27" spans="1:1">
+      <c r="A417" s="5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="418" ht="18" spans="1:1">
-      <c r="A418" s="1" t="s">
+    <row r="418" ht="14" spans="1:1">
+      <c r="A418" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="419" ht="18" spans="1:1">
-      <c r="A419" s="4" t="s">
+    <row r="419" ht="14" spans="1:1">
+      <c r="A419" s="8" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="420" ht="18" spans="1:1">
-      <c r="A420" s="4" t="s">
+    <row r="420" ht="14" spans="1:1">
+      <c r="A420" s="8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="421" ht="18" spans="1:1">
-      <c r="A421" s="1" t="s">
+    <row r="421" ht="14" spans="1:1">
+      <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="422" ht="36" spans="1:1">
-      <c r="A422" s="1" t="s">
+    <row r="422" ht="27" spans="1:1">
+      <c r="A422" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="423" ht="18" spans="1:1">
-      <c r="A423" s="1" t="s">
+    <row r="423" ht="14" spans="1:1">
+      <c r="A423" s="5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="424" ht="18" spans="1:1">
-      <c r="A424" s="1" t="s">
+    <row r="424" ht="14" spans="1:1">
+      <c r="A424" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="425" ht="18" spans="1:1">
-      <c r="A425" s="1" t="s">
+    <row r="425" ht="14" spans="1:1">
+      <c r="A425" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="426" ht="18" spans="1:1">
-      <c r="A426" s="1" t="s">
+    <row r="426" ht="14" spans="1:1">
+      <c r="A426" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="428" ht="18" spans="1:1">
-      <c r="A428" s="1" t="s">
+    <row r="428" ht="14" spans="1:1">
+      <c r="A428" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="429" ht="18" spans="1:1">
-      <c r="A429" s="1" t="s">
+    <row r="429" ht="14" spans="1:1">
+      <c r="A429" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="430" ht="36" spans="1:1">
-      <c r="A430" s="1" t="s">
+    <row r="430" ht="27" spans="1:1">
+      <c r="A430" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="431" ht="36" spans="1:1">
-      <c r="A431" s="1" t="s">
+    <row r="431" ht="27" spans="1:1">
+      <c r="A431" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="433" ht="18" spans="1:1">
-      <c r="A433" s="1" t="s">
+    <row r="433" ht="14" spans="1:1">
+      <c r="A433" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="434" ht="18" spans="1:1">
-      <c r="A434" s="1" t="s">
+    <row r="434" ht="14" spans="1:1">
+      <c r="A434" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="435" ht="18" spans="1:1">
-      <c r="A435" s="1" t="s">
+    <row r="435" ht="14" spans="1:1">
+      <c r="A435" s="5" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="437" ht="18" spans="1:1">
-      <c r="A437" s="1" t="s">
+    <row r="437" ht="14" spans="1:1">
+      <c r="A437" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="438" ht="36" spans="1:1">
-      <c r="A438" s="1" t="s">
+    <row r="438" ht="27" spans="1:1">
+      <c r="A438" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="439" ht="36" spans="1:2">
-      <c r="A439" s="1" t="s">
+    <row r="439" ht="27" spans="1:2">
+      <c r="A439" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="B439" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="440" ht="53" spans="1:2">
-      <c r="A440" s="1" t="s">
+    <row r="440" ht="27" spans="1:1">
+      <c r="A440" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B440" s="1" t="s">
+    </row>
+    <row r="441" ht="14" spans="1:1">
+      <c r="A441" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="441" ht="18" spans="1:2">
-      <c r="A441" s="1" t="s">
+    <row r="442" ht="27" spans="1:1">
+      <c r="A442" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B441" s="1" t="s">
+    </row>
+    <row r="443" ht="27" spans="1:1">
+      <c r="A443" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="442" ht="36" spans="1:1">
-      <c r="A442" s="1" t="s">
+    <row r="444" ht="14" spans="1:1">
+      <c r="A444" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="443" ht="36" spans="1:1">
-      <c r="A443" s="1" t="s">
+    <row r="445" ht="14" spans="1:1">
+      <c r="A445" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="444" ht="18" spans="1:1">
-      <c r="A444" s="1" t="s">
+    <row r="449" ht="14" spans="1:1">
+      <c r="A449" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="445" ht="18" spans="1:1">
-      <c r="A445" s="1" t="s">
+    <row r="450" ht="14" spans="1:1">
+      <c r="A450" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="449" ht="18" spans="1:1">
-      <c r="A449" s="1" t="s">
+    <row r="451" ht="53" spans="1:2">
+      <c r="A451" s="5" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="450" ht="18" spans="1:1">
-      <c r="A450" s="1" t="s">
+      <c r="B451" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="451" ht="36" spans="1:1">
-      <c r="A451" s="1" t="s">
+    <row r="452" ht="14" spans="1:1">
+      <c r="A452" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="452" ht="18" spans="1:1">
-      <c r="A452" s="1" t="s">
+    <row r="453" ht="14" spans="1:2">
+      <c r="A453" s="5" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="453" ht="18" spans="1:1">
-      <c r="A453" s="1" t="s">
+      <c r="B453" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="455" ht="18" spans="1:1">
-      <c r="A455" s="1" t="s">
+    <row r="455" ht="14" spans="1:1">
+      <c r="A455" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="456" ht="18" spans="1:1">
-      <c r="A456" s="1" t="s">
+    <row r="456" ht="14" spans="1:1">
+      <c r="A456" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="457" ht="18" spans="1:1">
-      <c r="A457" s="1" t="s">
+    <row r="457" ht="14" spans="1:1">
+      <c r="A457" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="458" ht="18" spans="1:2">
-      <c r="A458" s="1" t="s">
+    <row r="458" ht="14" spans="1:2">
+      <c r="A458" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="B458" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="459" ht="18" spans="1:1">
-      <c r="A459" s="1" t="s">
+    <row r="459" ht="14" spans="1:1">
+      <c r="A459" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="460" ht="18" spans="1:1">
-      <c r="A460" s="1" t="s">
+    <row r="460" ht="14" spans="1:1">
+      <c r="A460" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="462" ht="18" spans="1:1">
-      <c r="A462" s="1" t="s">
+    <row r="462" ht="14" spans="1:1">
+      <c r="A462" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="463" ht="18" spans="1:1">
-      <c r="A463" s="1" t="s">
+    <row r="463" ht="14" spans="1:1">
+      <c r="A463" s="5" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="464" ht="18" spans="1:1">
-      <c r="A464" s="1" t="s">
+    <row r="464" ht="14" spans="1:1">
+      <c r="A464" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="465" ht="18" spans="1:1">
-      <c r="A465" s="1" t="s">
+    <row r="465" ht="14" spans="1:1">
+      <c r="A465" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="466" ht="18" spans="1:1">
-      <c r="A466" s="1" t="s">
+    <row r="466" ht="14" spans="1:1">
+      <c r="A466" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="467" ht="18" spans="1:1">
-      <c r="A467" s="1" t="s">
+    <row r="467" ht="14" spans="1:1">
+      <c r="A467" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="469" ht="18" spans="1:1">
-      <c r="A469" s="1" t="s">
+    <row r="469" ht="14" spans="1:1">
+      <c r="A469" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="470" ht="36" spans="1:1">
-      <c r="A470" s="1" t="s">
+    <row r="470" ht="27" spans="1:1">
+      <c r="A470" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="471" ht="36" spans="1:1">
-      <c r="A471" s="1" t="s">
+    <row r="471" ht="27" spans="1:1">
+      <c r="A471" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="473" ht="18" spans="1:1">
-      <c r="A473" s="1" t="s">
+    <row r="473" ht="14" spans="1:1">
+      <c r="A473" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="474" ht="18" spans="1:2">
-      <c r="A474" s="1" t="s">
+    <row r="474" ht="14" spans="1:2">
+      <c r="A474" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="B474" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="475" ht="36" spans="1:1">
-      <c r="A475" s="1" t="s">
+    <row r="475" ht="27" spans="1:1">
+      <c r="A475" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="477" ht="18" spans="1:1">
-      <c r="A477" s="1" t="s">
+    <row r="477" ht="14" spans="1:1">
+      <c r="A477" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="478" ht="18" spans="1:1">
-      <c r="A478" s="1" t="s">
+    <row r="478" ht="14" spans="1:1">
+      <c r="A478" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="480" ht="18" spans="1:1">
-      <c r="A480" s="1" t="s">
+    <row r="480" ht="14" spans="1:1">
+      <c r="A480" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="481" ht="36" spans="1:1">
-      <c r="A481" s="1" t="s">
+    <row r="481" ht="27" spans="1:1">
+      <c r="A481" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="482" ht="18" spans="1:1">
-      <c r="A482" s="1" t="s">
+    <row r="482" ht="27" spans="1:1">
+      <c r="A482" s="5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="484" ht="18" spans="1:1">
-      <c r="A484" s="1" t="s">
+    <row r="484" ht="14" spans="1:1">
+      <c r="A484" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="485" ht="18" spans="1:1">
-      <c r="A485" s="1" t="s">
+    <row r="485" ht="14" spans="1:1">
+      <c r="A485" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="486" ht="18" spans="1:1">
-      <c r="A486" s="1" t="s">
+    <row r="486" ht="14" spans="1:1">
+      <c r="A486" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="489" ht="18" spans="1:1">
-      <c r="A489" s="1" t="s">
+    <row r="489" ht="14" spans="1:1">
+      <c r="A489" s="5" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="490" ht="53" spans="1:1">
-      <c r="A490" s="1" t="s">
+    <row r="490" ht="40" spans="1:1">
+      <c r="A490" s="5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="492" ht="18" spans="1:1">
-      <c r="A492" s="1" t="s">
+    <row r="492" ht="14" spans="1:1">
+      <c r="A492" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="493" ht="18" spans="1:1">
-      <c r="A493" s="1" t="s">
+    <row r="493" ht="14" spans="1:1">
+      <c r="A493" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="495" ht="18" spans="1:1">
-      <c r="A495" s="1" t="s">
+    <row r="495" ht="14" spans="1:1">
+      <c r="A495" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="496" ht="36" spans="1:1">
-      <c r="A496" s="1" t="s">
+    <row r="496" ht="27" spans="1:1">
+      <c r="A496" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="497" ht="36" spans="1:2">
-      <c r="A497" s="1" t="s">
+    <row r="497" ht="27" spans="1:2">
+      <c r="A497" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B497" s="1" t="s">
+      <c r="B497" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="499" ht="18" spans="1:1">
-      <c r="A499" s="1" t="s">
+    <row r="499" ht="14" spans="1:1">
+      <c r="A499" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="500" ht="18" spans="1:2">
-      <c r="A500" s="1" t="s">
+    <row r="500" ht="27" spans="1:2">
+      <c r="A500" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B500" s="1" t="s">
+      <c r="B500" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="502" ht="18" spans="1:1">
-      <c r="A502" s="1" t="s">
+    <row r="502" ht="14" spans="1:1">
+      <c r="A502" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="503" ht="18" spans="1:1">
-      <c r="A503" s="1" t="s">
+    <row r="503" ht="14" spans="1:1">
+      <c r="A503" s="5" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="504" ht="36" spans="1:1">
-      <c r="A504" s="1" t="s">
+    <row r="504" ht="27" spans="1:1">
+      <c r="A504" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="506" ht="18" spans="1:1">
-      <c r="A506" s="5" t="s">
+    <row r="506" ht="14" spans="1:1">
+      <c r="A506" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="507" ht="18" spans="1:1">
-      <c r="A507" s="5" t="s">
+    <row r="507" ht="27" spans="1:1">
+      <c r="A507" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="509" ht="18" spans="1:1">
-      <c r="A509" s="1" t="s">
+    <row r="509" ht="14" spans="1:1">
+      <c r="A509" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="510" ht="18" spans="1:1">
-      <c r="A510" s="1" t="s">
+    <row r="510" ht="14" spans="1:1">
+      <c r="A510" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="512" ht="18" spans="1:1">
-      <c r="A512" s="1" t="s">
+    <row r="512" ht="14" spans="1:1">
+      <c r="A512" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="513" ht="18" spans="1:1">
-      <c r="A513" s="1" t="s">
+    <row r="513" ht="14" spans="1:1">
+      <c r="A513" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="526" ht="18" spans="1:1">
-      <c r="A526" s="1" t="s">
+    <row r="526" ht="14" spans="1:1">
+      <c r="A526" s="5" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="527" ht="18" spans="1:1">
-      <c r="A527" s="1" t="s">
+    <row r="527" ht="14" spans="1:1">
+      <c r="A527" s="5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="528" ht="18" spans="1:1">
-      <c r="A528" s="1" t="s">
+    <row r="528" ht="27" spans="1:1">
+      <c r="A528" s="5" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5334,33 +6183,836 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="2" width="88.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="79.5583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.4333333333333" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" ht="16" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C1" s="2" t="s">
         <v>475</v>
       </c>
     </row>
+    <row r="2" ht="16" spans="3:3">
+      <c r="C2" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" ht="16" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" ht="16" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" ht="16" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" ht="16" spans="3:3">
+      <c r="C6" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" ht="16" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" ht="16" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" ht="16" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" ht="16" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" ht="16" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" ht="31" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" ht="16" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" ht="31" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17" ht="16" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" ht="31" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" ht="16" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" ht="16" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="21" ht="16" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" ht="16" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" ht="46" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" ht="16" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" ht="16" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" ht="16" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" ht="46" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="31" ht="16" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="32" ht="16" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="33" ht="31" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" ht="16" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" ht="16" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="37" ht="16" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" ht="16" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="41" ht="31" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" ht="31" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="43" ht="16" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" ht="31" spans="1:1">
+      <c r="A44" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="46" ht="16" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="47" ht="16" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="48" ht="16" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="49" ht="31" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="54" ht="16" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="55" ht="46" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" ht="46" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" ht="46" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" ht="46" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" ht="46" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="61" ht="16" spans="1:1">
+      <c r="A61" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62" ht="16" spans="1:1">
+      <c r="A62" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63" ht="31" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66" ht="16" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="67" ht="16" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70" ht="16" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71" ht="31" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73" ht="16" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="74" ht="16" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="75" ht="16" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="76" ht="16" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="77" ht="46" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="79" ht="16" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="80" ht="31" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="81" ht="31" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="82" ht="46" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="83" ht="31" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="84" ht="16" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="85" ht="31" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86" ht="31" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="88" ht="16" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="89" ht="31" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="90" ht="31" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="92" ht="16" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="93" ht="46" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="94" ht="31" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="96" ht="16" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="97" ht="46" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="98" ht="46" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="101" ht="16" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="102" ht="16" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="104" ht="16" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="105" ht="31" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="106" ht="31" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="109" ht="16" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="110" ht="16" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="112" ht="16" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="113" ht="46" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="114" ht="31" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="116" ht="16" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="117" ht="16" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="118" ht="16" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="120" ht="16" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="121" ht="16" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="123" ht="16" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="124" ht="16" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="125" ht="46" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="127" ht="16" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="128" ht="31" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="129" ht="46" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="131" ht="16" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="132" ht="31" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="133" ht="16" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="134" ht="31" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="135" ht="31" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="137" ht="16" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="138" ht="31" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="140" ht="16" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="141" ht="16" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="143" ht="16" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="144" ht="16" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="145" ht="16" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="147" ht="16" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="148" ht="16" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="149" ht="16" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="151" ht="16" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="152" ht="31" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="154" ht="16" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="155" ht="31" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="157" ht="16" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="158" ht="46" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="159" ht="16" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="160" ht="31" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="161" ht="16" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="162" ht="16" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="164" ht="16" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="165" ht="16" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="167" ht="16" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="168" ht="46" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="169" ht="46" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="171" ht="16" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="172" ht="31" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="173" ht="31" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="175" ht="16" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="176" ht="16" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="177" ht="16" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="178" ht="16" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="179" ht="16" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="181" ht="16" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="182" ht="31" spans="1:1">
+      <c r="A182" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="183" ht="16" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B148:B149"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16520" activeTab="1"/>
+    <workbookView windowHeight="13200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
     <sheet name="eventHandle" sheetId="2" r:id="rId2"/>
     <sheet name="3.8.201" sheetId="3" r:id="rId3"/>
+    <sheet name="流的流程" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="642">
   <si>
     <t>C++功能</t>
   </si>
@@ -395,6 +396,19 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">public abstract int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EnableAudio</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -402,6 +416,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>IMicrophoneAudioTrack.setEnabled()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">public abstract int </t>
     </r>
     <r>
@@ -412,7 +441,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>EnableAudio</t>
+      <t>DisableAudio</t>
     </r>
     <r>
       <rPr>
@@ -426,41 +455,6 @@
     </r>
   </si>
   <si>
-    <t>IMicrophoneAudioTrack.setEnabled()</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">public abstract int </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DisableAudio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
     <t>public abstract int PauseAudio();</t>
   </si>
   <si>
@@ -471,13 +465,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>public abstract int SetAudioProfile(</t>
     </r>
     <r>
@@ -1432,13 +1419,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>public abstract int SetRemoteDefaultVideoStreamType(</t>
     </r>
     <r>
@@ -2878,6 +2858,28 @@
   </si>
   <si>
     <t>void OnDirectCdnStreamingStats(DirectCdnStreamingStats stats)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //mainClient 当一个远端的video流被 发布过来的时候。
+//1.  this._engine.globalVariables.enabledVideo 是否可以订阅
+//2   this._engine.globalVariables.pausedVideo 是否可以订阅
+//3   this._engine.mainClientVariables.mutedRemoteVideoStreams 如果有自己，那么以这个为准，否则以4为准
+//4.  this._engine.globalVariables.defaultMutedAllRemoteVideoStreams 里是否可以订阅
+//5   this._engine.mainClientVariables.remoteVideoStreamType 如果有自己，则订阅大小流量以这个为准，否则以6为准</t>
+  </si>
+  <si>
+    <t>、、</t>
+  </si>
+  <si>
+    <t>//mainClient 被创建时候
+//1. enabledDualStreamMode 判断是否使用大小流,如果使用大小流，那么就走2，3。不然跳过2，3
+//2. remoteDefaultVideoStreamType 设置默认的远端的大小流
+//3. remoteVideoStreamTypes 针对特殊的uid的大小流
+//4. 读取 this._engine.mainClientVariables.enabledAudioVolumeIndication，是否不是null,如果是null，就client.enableAudioVolumeIndicator设置一下。并且将this._engine.mainClientVariables.enabledAudioVolumeIndication = null;</t>
+  </si>
+  <si>
+    <t>//ICameraVideoTrack被创建时
+//读取  this._engine.mainClientVariables.deviceId 的值，如果有 setDevice() 且一直保持这个变量</t>
   </si>
 </sst>
 </file>
@@ -3513,9 +3515,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3868,2305 +3879,2305 @@
   <sheetPr/>
   <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="B404" sqref="B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="70.7916666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="93.3333333333333" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="5"/>
+    <col min="1" max="1" width="70.7916666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="93.3333333333333" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="14" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6"/>
+      <c r="A4" s="9"/>
     </row>
     <row r="5" ht="14" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
     </row>
     <row r="8" ht="14" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="14" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" ht="38" customHeight="1" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" ht="14" spans="1:1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" ht="14" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" ht="14" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="14" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" ht="14" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" ht="14" spans="1:2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" ht="14" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:1">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" ht="14" spans="1:1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:1">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:1">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" ht="14" spans="1:1">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:1">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" ht="14" spans="1:1">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" ht="14" spans="1:1">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" ht="14" spans="1:1">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" ht="14" spans="1:1">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" ht="14" spans="1:2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" ht="14" spans="1:1">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" ht="14" spans="1:1">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" ht="14" spans="1:1">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" ht="14" spans="1:1">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:1">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" ht="14" spans="1:1">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" ht="14" spans="1:1">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" ht="14" spans="1:1">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" ht="14" spans="1:1">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="53" ht="14" spans="1:1">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" ht="14" spans="1:1">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" ht="14" spans="1:1">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="57" ht="14" spans="1:1">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="58" ht="14" spans="1:1">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="59" ht="14" spans="1:1">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" ht="14" spans="1:1">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" ht="14" spans="1:1">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="63" ht="14" spans="1:1">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" ht="14" spans="1:1">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" ht="27" spans="1:1">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="67" ht="14" spans="1:1">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="68" ht="14" spans="1:2">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="69" ht="14" spans="1:1">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="71" ht="14" spans="1:1">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="72" ht="14" spans="1:1">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="73" ht="14" spans="1:1">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="74" ht="14" spans="1:1">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="75" ht="14" spans="1:1">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" ht="14" spans="1:1">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="78" ht="14" spans="1:2">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="79" ht="27" spans="1:2">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="9"/>
+      <c r="A80" s="12"/>
     </row>
     <row r="81" ht="14" spans="1:1">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="82" ht="14" spans="1:1">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="83" ht="27" spans="1:1">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="84" ht="14" spans="1:1">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="85" ht="27" spans="1:1">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="86" ht="27" spans="1:1">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="87" ht="27" spans="1:1">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="88" ht="14" spans="1:1">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="90" ht="14" spans="1:1">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="91" ht="27" spans="1:1">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="93" ht="14" spans="1:1">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="94" ht="14" spans="1:1">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="95" ht="14" spans="1:1">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="96" ht="27" spans="1:1">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="97" ht="14" spans="1:1">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="98" ht="14" spans="1:1">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="100" ht="14" spans="1:1">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="101" ht="14" spans="1:1">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="103" ht="14" spans="1:1">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="104" ht="14" spans="1:1">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="106" ht="14" spans="1:1">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="107" ht="14" spans="1:1">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="108" ht="27" spans="1:1">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="109" ht="14" spans="1:1">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="110" ht="14" spans="1:1">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="112" ht="14" spans="1:1">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="113" ht="14" spans="1:1">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="114" ht="14" spans="1:1">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="115" ht="14" spans="1:1">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="116" ht="14" spans="1:1">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="118" ht="14" spans="1:1">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="119" ht="14" spans="1:1">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="120" ht="14" spans="1:1">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="122" ht="14" spans="1:1">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="123" ht="14" spans="1:1">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" ht="14" spans="1:1">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" ht="40" spans="1:2">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="127" ht="14" spans="1:1">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="128" ht="14" spans="1:1">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="129" ht="14" spans="1:1">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="130" ht="27" spans="1:1">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="131" ht="27" spans="1:1">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="132" ht="27" spans="1:1">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="133" ht="14" spans="1:1">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="134" ht="40" spans="1:1">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="135" ht="14" spans="1:1">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="137" ht="14" spans="1:1">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="138" ht="27" spans="1:2">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="140" ht="14" spans="1:1">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="141" ht="14" spans="1:1">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="143" ht="14" spans="1:1">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="144" ht="14" spans="1:1">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="146" ht="14" spans="1:1">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="147" ht="14" spans="1:1">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="148" ht="14" spans="1:1">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="150" ht="14" spans="1:1">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="151" ht="19" customHeight="1" spans="1:2">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="152" ht="27" spans="1:2">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="153" ht="14" spans="1:2">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="154" ht="14" spans="1:1">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="155" ht="14" spans="1:1">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="156" ht="14" spans="1:1">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="157" ht="14" spans="1:1">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="158" ht="14" spans="1:1">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="159" ht="14" spans="1:1">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="160" ht="14" spans="1:1">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="161" ht="14" spans="1:1">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="162" ht="14" spans="1:1">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="163" ht="14" spans="1:1">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="164" ht="14" spans="1:1">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="166" ht="14" spans="1:1">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="167" ht="14" spans="1:2">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="168" ht="14" spans="1:2">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="169" ht="14" spans="1:1">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="170" ht="27" spans="1:1">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="171" ht="27" spans="1:1">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="172" ht="14" spans="1:1">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="173" ht="14" spans="1:1">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="174" ht="14" spans="1:1">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="175" ht="14" spans="1:1">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="176" ht="14" spans="1:1">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="177" ht="14" spans="1:1">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="178" ht="14" spans="1:1">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="179" ht="14" spans="1:1">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="180" ht="14" spans="1:1">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="181" ht="14" spans="1:1">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="183" ht="14" spans="1:1">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="184" ht="27" spans="1:1">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="185" ht="14" spans="1:1">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="186" ht="14" spans="1:1">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="188" ht="14" spans="1:1">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="189" ht="14" spans="1:1">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="190" ht="14" spans="1:1">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="191" ht="14" spans="1:1">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="193" ht="14" spans="1:1">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="194" ht="14" spans="1:1">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="195" ht="14" spans="1:1">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="197" ht="14" spans="1:1">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="198" ht="27" spans="1:2">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="199" ht="27" spans="1:1">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="200" ht="27" spans="1:1">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="201" ht="27" spans="1:1">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="202" ht="27" spans="1:1">
-      <c r="A202" s="5" t="s">
+      <c r="A202" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="203" ht="14" spans="1:1">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="204" ht="14" spans="1:1">
-      <c r="A204" s="5" t="s">
+      <c r="A204" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="205" ht="27" spans="1:1">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="206" ht="14" spans="1:1">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="208" ht="14" spans="1:1">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="209" ht="14" spans="1:2">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="210" ht="27" spans="1:2">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="211" ht="27" spans="1:2">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="212" ht="27" spans="1:1">
-      <c r="A212" s="8" t="s">
+      <c r="A212" s="11" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="213" ht="27" spans="1:2">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="214" ht="27" spans="1:2">
-      <c r="A214" s="8" t="s">
+      <c r="A214" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="215" ht="27" spans="1:2">
-      <c r="A215" s="8" t="s">
+      <c r="A215" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="217" ht="14" spans="1:1">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="218" ht="14" spans="1:1">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="219" ht="27" spans="1:1">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="220" ht="27" spans="1:1">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="221" ht="14" spans="1:1">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="222" ht="14" spans="1:1">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="223" ht="14" spans="1:1">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="225" ht="14" spans="1:1">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="226" ht="14" spans="1:1">
-      <c r="A226" s="5" t="s">
+      <c r="A226" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="227" ht="14" spans="1:1">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="228" ht="14" spans="1:2">
-      <c r="A228" s="8" t="s">
+      <c r="A228" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="229" ht="27" spans="1:1">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="231" ht="14" spans="1:1">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="232" ht="14" spans="1:1">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="233" ht="14" spans="1:1">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="234" ht="27" spans="1:1">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="236" ht="14" spans="1:1">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="237" ht="14" spans="1:1">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="8" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="238" ht="27" spans="1:1">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="239" ht="14" spans="1:1">
-      <c r="A239" s="5" t="s">
+      <c r="A239" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="241" ht="14" spans="1:1">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="8" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="242" ht="14" spans="1:2">
-      <c r="A242" s="5" t="s">
+      <c r="A242" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="244" ht="14" spans="1:1">
-      <c r="A244" s="5" t="s">
+      <c r="A244" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="245" ht="14" spans="1:1">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="246" ht="27" spans="1:1">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="247" ht="14" spans="1:1">
-      <c r="A247" s="5" t="s">
+      <c r="A247" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="249" ht="14" spans="1:1">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="250" ht="27" spans="1:2">
-      <c r="A250" s="5" t="s">
+      <c r="A250" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B250" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="251" ht="27" spans="1:2">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B251" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="252" ht="14" spans="1:2">
-      <c r="A252" s="5" t="s">
+      <c r="A252" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="B252" s="8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="253" ht="14" spans="1:2">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="B253" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="254" ht="14" spans="1:1">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="256" ht="14" spans="1:1">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="257" ht="27" spans="1:2">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B257" s="8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="258" ht="27" spans="1:2">
-      <c r="A258" s="5" t="s">
+      <c r="A258" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="B258" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="259" ht="14" spans="1:1">
-      <c r="A259" s="5" t="s">
+      <c r="A259" s="8" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="260" ht="14" spans="1:1">
-      <c r="A260" s="5" t="s">
+      <c r="A260" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="262" ht="14" spans="1:1">
-      <c r="A262" s="5" t="s">
+      <c r="A262" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="263" ht="14" spans="1:1">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="264" ht="14" spans="1:1">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="266" ht="14" spans="1:1">
-      <c r="A266" s="5" t="s">
+      <c r="A266" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="267" ht="27" spans="1:1">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="268" ht="14" spans="1:1">
-      <c r="A268" s="5" t="s">
+      <c r="A268" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="270" ht="14" spans="1:1">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="271" ht="27" spans="1:1">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="8" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="272" ht="27" spans="1:1">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="273" ht="27" spans="1:1">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="8" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="274" ht="27" spans="1:1">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="276" ht="14" spans="1:1">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="277" ht="40" spans="1:1">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="278" ht="14" spans="1:1">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="280" ht="14" spans="1:1">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="281" ht="14" spans="1:1">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="282" ht="14" spans="1:1">
-      <c r="A282" s="5" t="s">
+      <c r="A282" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="283" ht="27" spans="1:1">
-      <c r="A283" s="5" t="s">
+      <c r="A283" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="284" ht="14" spans="1:1">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="286" ht="14" spans="1:1">
-      <c r="A286" s="5" t="s">
+      <c r="A286" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="287" ht="27" spans="1:2">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B287" s="8" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="288" ht="14" spans="1:1">
-      <c r="A288" s="5" t="s">
+      <c r="A288" s="8" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="289" ht="27" spans="1:1">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="290" ht="27" spans="1:1">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="291" ht="27" spans="1:1">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="8" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="293" ht="14" spans="1:1">
-      <c r="A293" s="5" t="s">
+      <c r="A293" s="8" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="294" ht="27" spans="1:1">
-      <c r="A294" s="5" t="s">
+      <c r="A294" s="8" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="295" ht="14" spans="1:1">
-      <c r="A295" s="5" t="s">
+      <c r="A295" s="8" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="296" ht="40" spans="1:1">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="297" ht="14" spans="1:1">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="299" ht="14" spans="1:1">
-      <c r="A299" s="5" t="s">
+      <c r="A299" s="8" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="300" ht="14" spans="1:2">
-      <c r="A300" s="5" t="s">
+      <c r="A300" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="B300" s="8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="301" ht="27" spans="1:1">
-      <c r="A301" s="5" t="s">
+      <c r="A301" s="8" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="302" ht="40" spans="1:1">
-      <c r="A302" s="5" t="s">
+      <c r="A302" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="303" ht="40" spans="1:1">
-      <c r="A303" s="5" t="s">
+      <c r="A303" s="8" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="304" ht="40" spans="1:1">
-      <c r="A304" s="5" t="s">
+      <c r="A304" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="306" ht="14" spans="1:1">
-      <c r="A306" s="5" t="s">
+      <c r="A306" s="8" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="307" ht="27" spans="1:1">
-      <c r="A307" s="5" t="s">
+      <c r="A307" s="8" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="308" ht="14" spans="1:1">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="8" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="310" ht="14" spans="1:1">
-      <c r="A310" s="5" t="s">
+      <c r="A310" s="8" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="311" ht="27" spans="1:1">
-      <c r="A311" s="5" t="s">
+      <c r="A311" s="8" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="312" ht="27" spans="1:1">
-      <c r="A312" s="5" t="s">
+      <c r="A312" s="8" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="313" ht="14" spans="1:1">
-      <c r="A313" s="5" t="s">
+      <c r="A313" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="314" ht="14" spans="1:1">
-      <c r="A314" s="5" t="s">
+      <c r="A314" s="8" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="316" ht="14" spans="1:1">
-      <c r="A316" s="5" t="s">
+      <c r="A316" s="8" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="317" ht="27" spans="1:1">
-      <c r="A317" s="5" t="s">
+      <c r="A317" s="8" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="318" ht="14" spans="1:1">
-      <c r="A318" s="5" t="s">
+      <c r="A318" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="319" ht="14" spans="1:1">
-      <c r="A319" s="5" t="s">
+      <c r="A319" s="8" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="320" ht="14" spans="1:1">
-      <c r="A320" s="5" t="s">
+      <c r="A320" s="8" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="321" ht="14" spans="1:1">
-      <c r="A321" s="5" t="s">
+      <c r="A321" s="8" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="322" ht="14" spans="1:1">
-      <c r="A322" s="5" t="s">
+      <c r="A322" s="8" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="323" ht="14" spans="1:1">
-      <c r="A323" s="5" t="s">
+      <c r="A323" s="8" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="324" ht="14" spans="1:1">
-      <c r="A324" s="5" t="s">
+      <c r="A324" s="8" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="325" ht="14" spans="1:1">
-      <c r="A325" s="5" t="s">
+      <c r="A325" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="326" ht="27" spans="1:1">
-      <c r="A326" s="5" t="s">
+      <c r="A326" s="8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="327" ht="14" spans="1:1">
-      <c r="A327" s="5" t="s">
+      <c r="A327" s="8" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="328" ht="14" spans="1:1">
-      <c r="A328" s="5" t="s">
+      <c r="A328" s="8" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="329" ht="14" spans="1:1">
-      <c r="A329" s="5" t="s">
+      <c r="A329" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="330" ht="27" spans="1:1">
-      <c r="A330" s="5" t="s">
+      <c r="A330" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="331" ht="14" spans="1:1">
-      <c r="A331" s="5" t="s">
+      <c r="A331" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="332" ht="14" spans="1:1">
-      <c r="A332" s="5" t="s">
+      <c r="A332" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="334" ht="14" spans="1:1">
-      <c r="A334" s="5" t="s">
+      <c r="A334" s="8" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="335" ht="14" spans="1:1">
-      <c r="A335" s="5" t="s">
+      <c r="A335" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="336" ht="14" spans="1:1">
-      <c r="A336" s="5" t="s">
+      <c r="A336" s="8" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="337" ht="14" spans="1:1">
-      <c r="A337" s="5" t="s">
+      <c r="A337" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="339" ht="14" spans="1:1">
-      <c r="A339" s="5" t="s">
+      <c r="A339" s="8" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="340" ht="27" spans="1:2">
-      <c r="A340" s="5" t="s">
+      <c r="A340" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B340" s="5" t="s">
+      <c r="B340" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="341" ht="27" spans="1:1">
-      <c r="A341" s="5" t="s">
+      <c r="A341" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="343" ht="14" spans="1:1">
-      <c r="A343" s="5" t="s">
+      <c r="A343" s="8" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="344" ht="14" spans="1:1">
-      <c r="A344" s="5" t="s">
+      <c r="A344" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="345" ht="27" spans="1:1">
-      <c r="A345" s="5" t="s">
+      <c r="A345" s="8" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="346" ht="14" spans="1:1">
-      <c r="A346" s="5" t="s">
+      <c r="A346" s="8" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="347" ht="27" spans="1:1">
-      <c r="A347" s="5" t="s">
+      <c r="A347" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="348" ht="14" spans="1:1">
-      <c r="A348" s="5" t="s">
+      <c r="A348" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="349" ht="27" spans="1:1">
-      <c r="A349" s="5" t="s">
+      <c r="A349" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="351" ht="14" spans="1:1">
-      <c r="A351" s="5" t="s">
+      <c r="A351" s="8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="352" ht="14" spans="1:1">
-      <c r="A352" s="5" t="s">
+      <c r="A352" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="353" ht="27" spans="1:1">
-      <c r="A353" s="5" t="s">
+      <c r="A353" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="354" ht="14" spans="1:1">
-      <c r="A354" s="5" t="s">
+      <c r="A354" s="8" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="355" ht="14" spans="1:1">
-      <c r="A355" s="5" t="s">
+      <c r="A355" s="8" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="357" ht="14" spans="1:1">
-      <c r="A357" s="5" t="s">
+      <c r="A357" s="8" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="358" ht="14" spans="1:2">
-      <c r="A358" s="5" t="s">
+      <c r="A358" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B358" s="5" t="s">
+      <c r="B358" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="360" ht="14" spans="1:1">
-      <c r="A360" s="5" t="s">
+      <c r="A360" s="8" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="361" ht="14" spans="1:1">
-      <c r="A361" s="5" t="s">
+      <c r="A361" s="8" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="362" ht="14" spans="1:1">
-      <c r="A362" s="5" t="s">
+      <c r="A362" s="8" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="363" ht="18" customHeight="1" spans="1:2">
-      <c r="A363" s="5" t="s">
+      <c r="A363" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B363" s="5" t="s">
+      <c r="B363" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="364" ht="27" spans="1:1">
-      <c r="A364" s="5" t="s">
+      <c r="A364" s="8" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="366" ht="14" spans="1:1">
-      <c r="A366" s="5" t="s">
+      <c r="A366" s="8" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="367" ht="14" spans="1:2">
-      <c r="A367" s="5" t="s">
+      <c r="A367" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B367" s="5" t="s">
+      <c r="B367" s="8" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="369" ht="14" spans="1:1">
-      <c r="A369" s="5" t="s">
+      <c r="A369" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="370" ht="14" spans="1:1">
-      <c r="A370" s="5" t="s">
+      <c r="A370" s="8" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="372" ht="14" spans="1:1">
-      <c r="A372" s="5" t="s">
+      <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="373" ht="14" spans="1:1">
-      <c r="A373" s="5" t="s">
+      <c r="A373" s="8" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="374" ht="14" spans="1:1">
-      <c r="A374" s="5" t="s">
+      <c r="A374" s="8" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="375" ht="14" spans="1:1">
-      <c r="A375" s="5" t="s">
+      <c r="A375" s="8" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="376" ht="14" spans="1:2">
-      <c r="A376" s="5" t="s">
+      <c r="A376" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="B376" s="8" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="377" ht="14" spans="1:1">
-      <c r="A377" s="5" t="s">
+      <c r="A377" s="8" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="378" ht="14" spans="1:1">
-      <c r="A378" s="5" t="s">
+      <c r="A378" s="8" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="379" ht="14" spans="1:1">
-      <c r="A379" s="5" t="s">
+      <c r="A379" s="8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="380" ht="14" spans="1:1">
-      <c r="A380" s="5" t="s">
+      <c r="A380" s="8" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="381" ht="14" spans="1:1">
-      <c r="A381" s="5" t="s">
+      <c r="A381" s="8" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="382" ht="14" spans="1:1">
-      <c r="A382" s="5" t="s">
+      <c r="A382" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="383" ht="14" spans="1:1">
-      <c r="A383" s="5" t="s">
+      <c r="A383" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="384" ht="14" spans="1:1">
-      <c r="A384" s="5" t="s">
+      <c r="A384" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="385" ht="14" spans="1:1">
-      <c r="A385" s="5" t="s">
+      <c r="A385" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="386" ht="14" spans="1:2">
-      <c r="A386" s="5" t="s">
+      <c r="A386" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B386" s="5" t="s">
+      <c r="B386" s="8" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="387" ht="14" spans="1:1">
-      <c r="A387" s="5" t="s">
+      <c r="A387" s="8" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="388" ht="14" spans="1:1">
-      <c r="A388" s="5" t="s">
+      <c r="A388" s="8" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="389" ht="14" spans="1:1">
-      <c r="A389" s="5" t="s">
+      <c r="A389" s="8" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="390" ht="14" spans="1:1">
-      <c r="A390" s="5" t="s">
+      <c r="A390" s="8" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="391" ht="14" spans="1:1">
-      <c r="A391" s="5" t="s">
+      <c r="A391" s="8" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="392" ht="14" spans="1:1">
-      <c r="A392" s="5" t="s">
+      <c r="A392" s="8" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="393" ht="14" spans="1:1">
-      <c r="A393" s="5" t="s">
+      <c r="A393" s="8" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="394" ht="14" spans="1:1">
-      <c r="A394" s="5" t="s">
+      <c r="A394" s="8" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="395" ht="14" spans="1:1">
-      <c r="A395" s="5" t="s">
+      <c r="A395" s="8" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="396" ht="14" spans="1:1">
-      <c r="A396" s="5" t="s">
+      <c r="A396" s="8" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="397" ht="14" spans="1:1">
-      <c r="A397" s="5" t="s">
+      <c r="A397" s="8" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="399" ht="14" spans="1:1">
-      <c r="A399" s="5" t="s">
+      <c r="A399" s="8" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="400" ht="14" spans="1:1">
-      <c r="A400" s="5" t="s">
+      <c r="A400" s="8" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="401" ht="14" spans="1:1">
-      <c r="A401" s="5" t="s">
+      <c r="A401" s="8" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="402" ht="14" spans="1:2">
-      <c r="A402" s="5" t="s">
+      <c r="A402" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B402" s="5" t="s">
+      <c r="B402" s="8" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="403" ht="14" spans="1:1">
-      <c r="A403" s="5" t="s">
+      <c r="A403" s="8" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="404" ht="14" spans="1:1">
-      <c r="A404" s="5" t="s">
+      <c r="A404" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="405" ht="14" spans="1:1">
-      <c r="A405" s="5" t="s">
+      <c r="A405" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="406" ht="14" spans="1:1">
-      <c r="A406" s="5" t="s">
+      <c r="A406" s="8" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="408" ht="14" spans="1:1">
-      <c r="A408" s="5" t="s">
+      <c r="A408" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="409" ht="14" spans="1:1">
-      <c r="A409" s="5" t="s">
+      <c r="A409" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="410" ht="14" spans="1:1">
-      <c r="A410" s="5" t="s">
+      <c r="A410" s="8" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="411" ht="14" spans="1:1">
-      <c r="A411" s="5" t="s">
+      <c r="A411" s="8" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="412" ht="14" spans="1:1">
-      <c r="A412" s="5" t="s">
+      <c r="A412" s="8" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="413" ht="14" spans="1:1">
-      <c r="A413" s="5" t="s">
+      <c r="A413" s="8" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="414" ht="14" spans="1:1">
-      <c r="A414" s="5" t="s">
+      <c r="A414" s="8" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="415" ht="27" spans="1:1">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="8" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="416" ht="27" spans="1:1">
-      <c r="A416" s="5" t="s">
+      <c r="A416" s="8" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="417" ht="27" spans="1:1">
-      <c r="A417" s="5" t="s">
+      <c r="A417" s="8" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="418" ht="14" spans="1:1">
-      <c r="A418" s="5" t="s">
+      <c r="A418" s="8" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="419" ht="14" spans="1:1">
-      <c r="A419" s="8" t="s">
+      <c r="A419" s="11" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="420" ht="14" spans="1:1">
-      <c r="A420" s="8" t="s">
+      <c r="A420" s="11" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="421" ht="14" spans="1:1">
-      <c r="A421" s="5" t="s">
+      <c r="A421" s="8" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="422" ht="27" spans="1:1">
-      <c r="A422" s="5" t="s">
+      <c r="A422" s="8" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="423" ht="14" spans="1:1">
-      <c r="A423" s="5" t="s">
+      <c r="A423" s="8" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="424" ht="14" spans="1:1">
-      <c r="A424" s="5" t="s">
+      <c r="A424" s="8" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="425" ht="14" spans="1:1">
-      <c r="A425" s="5" t="s">
+      <c r="A425" s="8" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="426" ht="14" spans="1:1">
-      <c r="A426" s="5" t="s">
+      <c r="A426" s="8" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="428" ht="14" spans="1:1">
-      <c r="A428" s="5" t="s">
+      <c r="A428" s="8" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="429" ht="14" spans="1:1">
-      <c r="A429" s="5" t="s">
+      <c r="A429" s="8" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="430" ht="27" spans="1:1">
-      <c r="A430" s="5" t="s">
+      <c r="A430" s="8" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="431" ht="27" spans="1:1">
-      <c r="A431" s="5" t="s">
+      <c r="A431" s="8" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="433" ht="14" spans="1:1">
-      <c r="A433" s="5" t="s">
+      <c r="A433" s="8" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="434" ht="14" spans="1:1">
-      <c r="A434" s="5" t="s">
+      <c r="A434" s="8" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="435" ht="14" spans="1:1">
-      <c r="A435" s="5" t="s">
+      <c r="A435" s="8" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="437" ht="14" spans="1:1">
-      <c r="A437" s="5" t="s">
+      <c r="A437" s="8" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="438" ht="27" spans="1:1">
-      <c r="A438" s="5" t="s">
+      <c r="A438" s="8" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="439" ht="27" spans="1:2">
-      <c r="A439" s="5" t="s">
+      <c r="A439" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B439" s="5" t="s">
+      <c r="B439" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="440" ht="27" spans="1:1">
-      <c r="A440" s="5" t="s">
+      <c r="A440" s="8" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="441" ht="14" spans="1:1">
-      <c r="A441" s="5" t="s">
+      <c r="A441" s="8" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="442" ht="27" spans="1:1">
-      <c r="A442" s="5" t="s">
+      <c r="A442" s="8" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="443" ht="27" spans="1:1">
-      <c r="A443" s="5" t="s">
+      <c r="A443" s="8" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="444" ht="14" spans="1:1">
-      <c r="A444" s="5" t="s">
+      <c r="A444" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="445" ht="14" spans="1:1">
-      <c r="A445" s="5" t="s">
+      <c r="A445" s="8" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="449" ht="14" spans="1:1">
-      <c r="A449" s="5" t="s">
+      <c r="A449" s="8" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="450" ht="14" spans="1:1">
-      <c r="A450" s="5" t="s">
+      <c r="A450" s="8" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="451" ht="53" spans="1:2">
-      <c r="A451" s="5" t="s">
+      <c r="A451" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B451" s="5" t="s">
+      <c r="B451" s="8" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="452" ht="14" spans="1:1">
-      <c r="A452" s="5" t="s">
+      <c r="A452" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="453" ht="14" spans="1:2">
-      <c r="A453" s="5" t="s">
+      <c r="A453" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B453" s="5" t="s">
+      <c r="B453" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="455" ht="14" spans="1:1">
-      <c r="A455" s="5" t="s">
+      <c r="A455" s="8" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="456" ht="14" spans="1:1">
-      <c r="A456" s="5" t="s">
+      <c r="A456" s="8" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="457" ht="14" spans="1:1">
-      <c r="A457" s="5" t="s">
+      <c r="A457" s="8" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="458" ht="14" spans="1:2">
-      <c r="A458" s="5" t="s">
+      <c r="A458" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B458" s="5" t="s">
+      <c r="B458" s="8" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="459" ht="14" spans="1:1">
-      <c r="A459" s="5" t="s">
+      <c r="A459" s="8" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="460" ht="14" spans="1:1">
-      <c r="A460" s="5" t="s">
+      <c r="A460" s="8" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="462" ht="14" spans="1:1">
-      <c r="A462" s="5" t="s">
+      <c r="A462" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="463" ht="14" spans="1:1">
-      <c r="A463" s="5" t="s">
+      <c r="A463" s="8" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="464" ht="14" spans="1:1">
-      <c r="A464" s="5" t="s">
+      <c r="A464" s="8" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="465" ht="14" spans="1:1">
-      <c r="A465" s="5" t="s">
+      <c r="A465" s="8" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="466" ht="14" spans="1:1">
-      <c r="A466" s="5" t="s">
+      <c r="A466" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="467" ht="14" spans="1:1">
-      <c r="A467" s="5" t="s">
+      <c r="A467" s="8" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="469" ht="14" spans="1:1">
-      <c r="A469" s="5" t="s">
+      <c r="A469" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="470" ht="27" spans="1:1">
-      <c r="A470" s="5" t="s">
+      <c r="A470" s="8" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="471" ht="27" spans="1:1">
-      <c r="A471" s="5" t="s">
+      <c r="A471" s="8" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="473" ht="14" spans="1:1">
-      <c r="A473" s="5" t="s">
+      <c r="A473" s="8" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="474" ht="14" spans="1:2">
-      <c r="A474" s="5" t="s">
+      <c r="A474" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="B474" s="5" t="s">
+      <c r="B474" s="8" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="475" ht="27" spans="1:1">
-      <c r="A475" s="5" t="s">
+      <c r="A475" s="8" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="477" ht="14" spans="1:1">
-      <c r="A477" s="5" t="s">
+      <c r="A477" s="8" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="478" ht="14" spans="1:1">
-      <c r="A478" s="5" t="s">
+      <c r="A478" s="8" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="480" ht="14" spans="1:1">
-      <c r="A480" s="5" t="s">
+      <c r="A480" s="8" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="481" ht="27" spans="1:1">
-      <c r="A481" s="5" t="s">
+      <c r="A481" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="482" ht="27" spans="1:1">
-      <c r="A482" s="5" t="s">
+      <c r="A482" s="8" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="484" ht="14" spans="1:1">
-      <c r="A484" s="5" t="s">
+      <c r="A484" s="8" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="485" ht="14" spans="1:1">
-      <c r="A485" s="5" t="s">
+      <c r="A485" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="486" ht="14" spans="1:1">
-      <c r="A486" s="5" t="s">
+      <c r="A486" s="8" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="489" ht="14" spans="1:1">
-      <c r="A489" s="5" t="s">
+      <c r="A489" s="8" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="490" ht="40" spans="1:1">
-      <c r="A490" s="5" t="s">
+      <c r="A490" s="8" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="492" ht="14" spans="1:1">
-      <c r="A492" s="5" t="s">
+      <c r="A492" s="8" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="493" ht="14" spans="1:1">
-      <c r="A493" s="5" t="s">
+      <c r="A493" s="8" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="495" ht="14" spans="1:1">
-      <c r="A495" s="5" t="s">
+      <c r="A495" s="8" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="496" ht="27" spans="1:1">
-      <c r="A496" s="5" t="s">
+      <c r="A496" s="8" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="497" ht="27" spans="1:2">
-      <c r="A497" s="5" t="s">
+      <c r="A497" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="B497" s="5" t="s">
+      <c r="B497" s="8" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="499" ht="14" spans="1:1">
-      <c r="A499" s="5" t="s">
+      <c r="A499" s="8" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="500" ht="27" spans="1:2">
-      <c r="A500" s="5" t="s">
+      <c r="A500" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="B500" s="5" t="s">
+      <c r="B500" s="8" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="502" ht="14" spans="1:1">
-      <c r="A502" s="5" t="s">
+      <c r="A502" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="503" ht="14" spans="1:1">
-      <c r="A503" s="5" t="s">
+      <c r="A503" s="8" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="504" ht="27" spans="1:1">
-      <c r="A504" s="5" t="s">
+      <c r="A504" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="506" ht="14" spans="1:1">
-      <c r="A506" s="9" t="s">
+      <c r="A506" s="12" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="507" ht="27" spans="1:1">
-      <c r="A507" s="9" t="s">
+      <c r="A507" s="12" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="509" ht="14" spans="1:1">
-      <c r="A509" s="5" t="s">
+      <c r="A509" s="8" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="510" ht="14" spans="1:1">
-      <c r="A510" s="5" t="s">
+      <c r="A510" s="8" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="512" ht="14" spans="1:1">
-      <c r="A512" s="5" t="s">
+      <c r="A512" s="8" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="513" ht="14" spans="1:1">
-      <c r="A513" s="5" t="s">
+      <c r="A513" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="526" ht="14" spans="1:1">
-      <c r="A526" s="5" t="s">
+      <c r="A526" s="8" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="527" ht="14" spans="1:1">
-      <c r="A527" s="5" t="s">
+      <c r="A527" s="8" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="528" ht="27" spans="1:1">
-      <c r="A528" s="5" t="s">
+      <c r="A528" s="8" t="s">
         <v>472</v>
       </c>
     </row>
@@ -6185,809 +6196,809 @@
   <sheetPr/>
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="79.5583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.4333333333333" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="79.5583333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.7" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41.4333333333333" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="2" ht="16" spans="3:3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="3" ht="16" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="4" ht="16" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="6" ht="16" spans="3:3">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="7" ht="16" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="12" ht="31" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" ht="16" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="15" ht="31" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="17" ht="16" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="18" ht="31" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="19" ht="16" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="20" ht="16" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="21" ht="16" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" ht="16" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="24" ht="46" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="25" ht="16" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="26" ht="16" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" ht="16" spans="1:1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" ht="46" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="31" ht="16" spans="1:1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="32" ht="16" spans="1:1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="6" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="33" ht="31" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="35" ht="16" spans="1:1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="6" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="36" ht="16" spans="1:1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="6" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="37" ht="16" spans="1:1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="6" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="3"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="3"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" ht="16" spans="1:1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="6" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="41" ht="31" spans="1:2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="42" ht="31" spans="1:2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="43" ht="16" spans="1:1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="6" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="44" ht="31" spans="1:1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="6" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="46" ht="16" spans="1:1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="47" ht="16" spans="1:1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="48" ht="16" spans="1:1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="49" ht="31" spans="1:1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="54" ht="16" spans="1:1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="55" ht="46" spans="1:2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="7" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="56" ht="46" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B56" s="4"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" ht="46" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" ht="46" spans="1:2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" ht="46" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="61" ht="16" spans="1:1">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="6" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="62" ht="16" spans="1:1">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="6" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="63" ht="31" spans="1:1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="66" ht="16" spans="1:1">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="6" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="67" ht="16" spans="1:1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="6" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="70" ht="16" spans="1:1">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="71" ht="31" spans="1:1">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="73" ht="16" spans="1:1">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="74" ht="16" spans="1:1">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="75" ht="16" spans="1:1">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="4" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="76" ht="16" spans="1:1">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="77" ht="46" spans="1:2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="79" ht="16" spans="1:1">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="80" ht="31" spans="1:1">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="4" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="81" ht="31" spans="1:2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="82" ht="46" spans="1:3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="5" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="83" ht="31" spans="1:1">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="84" ht="16" spans="1:2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="4" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="85" ht="31" spans="1:1">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="86" ht="31" spans="1:1">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="4" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="88" ht="16" spans="1:1">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="4" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="89" ht="31" spans="1:1">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="4" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="90" ht="31" spans="1:1">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="4" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="92" ht="16" spans="1:1">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="4" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="93" ht="46" spans="1:1">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="4" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="94" ht="31" spans="1:1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="4" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="96" ht="16" spans="1:1">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="4" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="97" ht="46" spans="1:1">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="4" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="98" ht="46" spans="1:1">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="4" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="101" ht="16" spans="1:1">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="4" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="102" ht="16" spans="1:1">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="4" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="104" ht="16" spans="1:1">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="4" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="105" ht="31" spans="1:1">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="4" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="106" ht="31" spans="1:1">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="4" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="109" ht="16" spans="1:1">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="4" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="110" ht="16" spans="1:1">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="4" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="112" ht="16" spans="1:1">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="4" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="113" ht="46" spans="1:1">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="4" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="114" ht="31" spans="1:1">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="4" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="116" ht="16" spans="1:1">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="4" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="117" ht="16" spans="1:2">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="4" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="118" ht="16" spans="1:2">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="4" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="120" ht="16" spans="1:1">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="4" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="121" ht="16" spans="1:1">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="4" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="123" ht="16" spans="1:1">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="4" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="124" ht="16" spans="1:1">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="4" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="125" ht="46" spans="1:1">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="4" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="127" ht="16" spans="1:1">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="4" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="128" ht="31" spans="1:1">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="4" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="129" ht="46" spans="1:1">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="4" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="131" ht="16" spans="1:1">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="4" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="132" ht="31" spans="1:2">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="4" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="133" ht="16" spans="1:2">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="4" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="134" ht="31" spans="1:1">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="4" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="135" ht="31" spans="1:1">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="4" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="137" ht="16" spans="1:1">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="4" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="138" ht="31" spans="1:1">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="4" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="140" ht="16" spans="1:1">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="4" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="141" ht="16" spans="1:1">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="4" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="143" ht="16" spans="1:1">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="4" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="144" ht="16" spans="1:2">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="4" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="145" ht="16" spans="1:2">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="4" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="147" ht="16" spans="1:1">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="4" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="148" ht="16" spans="1:2">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="7" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="149" ht="16" spans="1:1">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="4" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="151" ht="16" spans="1:1">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="4" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="152" ht="31" spans="1:1">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="154" ht="16" spans="1:1">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="4" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="155" ht="31" spans="1:2">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="4" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="157" ht="16" spans="1:1">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="4" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="158" ht="46" spans="1:1">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="4" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="159" ht="16" spans="1:1">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="4" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="160" ht="31" spans="1:1">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="4" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="161" ht="16" spans="1:1">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="4" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="162" ht="16" spans="1:1">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="4" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="164" ht="16" spans="1:1">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="4" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="165" ht="16" spans="1:1">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="4" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="167" ht="16" spans="1:1">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="4" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="168" ht="46" spans="1:1">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="4" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="169" ht="46" spans="1:1">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="4" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="171" ht="16" spans="1:1">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="4" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="172" ht="31" spans="1:1">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="4" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="173" ht="31" spans="1:1">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="4" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="175" ht="16" spans="1:1">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="4" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="176" ht="16" spans="1:1">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="4" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="177" ht="16" spans="1:1">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="4" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="178" ht="16" spans="1:1">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="4" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="179" ht="16" spans="1:1">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="4" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="181" ht="16" spans="1:1">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="4" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="182" ht="31" spans="1:1">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="4" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="183" ht="16" spans="1:1">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="4" t="s">
         <v>637</v>
       </c>
     </row>
@@ -7015,4 +7026,44 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="134.166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="179" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" ht="255" customHeight="1" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13200" activeTab="3"/>
+    <workbookView windowWidth="28000" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="646">
   <si>
     <t>C++功能</t>
   </si>
@@ -38,6 +38,19 @@
   </si>
   <si>
     <r>
+      <t>public abstract int SetChannelProfile(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHANNEL_PROFILE_TYPE</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -45,26 +58,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>public abstract int SetChannelProfile(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CHANNEL_PROFILE_TYPE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> profile);</t>
     </r>
   </si>
@@ -73,13 +66,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>public abstract int SetClientRole(</t>
     </r>
     <r>
@@ -1209,6 +1195,9 @@
   </si>
   <si>
     <t>public abstract int SetScreenCaptureContentHint(VIDEO_CONTENT_HINT contentHint);</t>
+  </si>
+  <si>
+    <t>setOptimizationMode</t>
   </si>
   <si>
     <t>public abstract int UpdateScreenCaptureRegion(Rectangle regionRect);</t>
@@ -2871,15 +2860,40 @@
     <t>、、</t>
   </si>
   <si>
-    <t>//mainClient 被创建时候
-//1. enabledDualStreamMode 判断是否使用大小流,如果使用大小流，那么就走2，3。不然跳过2，3
+    <t xml:space="preserve">//mainClient 被创建时候
+//1. enabledDualStreamMode 判断是否使用远端大小流,如果使用大小流，那么就走2，3。不然跳过2，3
 //2. remoteDefaultVideoStreamType 设置默认的远端的大小流
 //3. remoteVideoStreamTypes 针对特殊的uid的大小流
-//4. 读取 this._engine.mainClientVariables.enabledAudioVolumeIndication，是否不是null,如果是null，就client.enableAudioVolumeIndicator设置一下。并且将this._engine.mainClientVariables.enabledAudioVolumeIndication = null;</t>
+自己的大小流
+this._engine.mainClientVariables.enabledDualStreamMode
+this._engine.mainClientVariables.enabledDualStreamModes
+//4. 读取 this._engine.mainClientVariables.enabledAudioVolumeIndication，是否不是null,如果是null，就client.enableAudioVolumeIndicator设置一下。并且将this._engine.mainClientVariables.enabledAudioVolumeIndication = null;
+5. fallbackOption 存在，存在则设置一下 </t>
   </si>
   <si>
     <t>//ICameraVideoTrack被创建时
-//读取  this._engine.mainClientVariables.deviceId 的值，如果有 setDevice() 且一直保持这个变量</t>
+//1.读取  this._engine.mainClientVariables.deviceId 的值，如果有 setDevice() 且一直保持这个变量
+//2.读取 this._engine.globalVariables.videoEncoderConfiguration 并且设置
+//3 play的时候读取this._engine.globalVariables.videoEncoderConfiguration。mirrorMode
+//去读取this._engine.mainClientVariables.enabledDualStreamModes 的， 看看是否需要client开启大小流
+//去读取this._engine.globalVariables.cameraDirection  看看启用哪个摄像头</t>
+  </si>
+  <si>
+    <t>创建rtc Client的时候
+1.mode：参数 AgoraTranslate.CHANNEL_PROFILE_TYPE2SDK_MODE(this._engine.mainClientVariables.channelProfile)
+2. role: 参数要读取  this._engine.mainClientVariables.clientRoleType
+setClientRole(role, options) //这个options也要设置一下 this._engine.mainClientVariables.clientRoleOptions如果有值，第二个参数就要传递一下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创建 麦克风流 的时候
+1.注意 mutedRecordingSignal 
+2. recordingSignalVolume 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">远端 audio 流哦，要设置
+this._engine.globalVariables.playbackSignalVolumes 是否有自己
+playbackSignalVolume setVolume </t>
   </si>
 </sst>
 </file>
@@ -3879,8 +3893,8 @@
   <sheetPr/>
   <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="B404" sqref="B404"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="B198" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -4786,1088 +4800,1091 @@
         <v>183</v>
       </c>
     </row>
-    <row r="203" ht="14" spans="1:1">
+    <row r="203" ht="14" spans="1:2">
       <c r="A203" s="8" t="s">
         <v>184</v>
       </c>
+      <c r="B203" s="8" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="204" ht="14" spans="1:1">
       <c r="A204" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="205" ht="27" spans="1:1">
       <c r="A205" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="206" ht="14" spans="1:1">
       <c r="A206" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="208" ht="14" spans="1:1">
       <c r="A208" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209" ht="14" spans="1:2">
       <c r="A209" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="210" ht="27" spans="1:2">
       <c r="A210" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="211" ht="27" spans="1:2">
       <c r="A211" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="212" ht="27" spans="1:1">
       <c r="A212" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="213" ht="27" spans="1:2">
       <c r="A213" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" ht="27" spans="1:2">
       <c r="A214" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B214" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="215" ht="27" spans="1:2">
       <c r="A215" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217" ht="14" spans="1:1">
       <c r="A217" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" ht="14" spans="1:1">
       <c r="A218" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="219" ht="27" spans="1:1">
       <c r="A219" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" ht="27" spans="1:1">
       <c r="A220" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="221" ht="14" spans="1:1">
       <c r="A221" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="222" ht="14" spans="1:1">
       <c r="A222" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="223" ht="14" spans="1:1">
       <c r="A223" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="225" ht="14" spans="1:1">
       <c r="A225" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="226" ht="14" spans="1:1">
       <c r="A226" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="227" ht="14" spans="1:1">
       <c r="A227" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="228" ht="14" spans="1:2">
       <c r="A228" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="229" ht="27" spans="1:1">
       <c r="A229" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="231" ht="14" spans="1:1">
       <c r="A231" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="232" ht="14" spans="1:1">
       <c r="A232" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="233" ht="14" spans="1:1">
       <c r="A233" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="234" ht="27" spans="1:1">
       <c r="A234" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="236" ht="14" spans="1:1">
       <c r="A236" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="237" ht="14" spans="1:1">
       <c r="A237" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="238" ht="27" spans="1:1">
       <c r="A238" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="239" ht="14" spans="1:1">
       <c r="A239" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="241" ht="14" spans="1:1">
       <c r="A241" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="242" ht="14" spans="1:2">
       <c r="A242" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="244" ht="14" spans="1:1">
       <c r="A244" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="245" ht="14" spans="1:1">
       <c r="A245" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="246" ht="27" spans="1:1">
       <c r="A246" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="247" ht="14" spans="1:1">
       <c r="A247" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="249" ht="14" spans="1:1">
       <c r="A249" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="250" ht="27" spans="1:2">
       <c r="A250" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="251" ht="27" spans="1:2">
       <c r="A251" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="252" ht="14" spans="1:2">
       <c r="A252" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="253" ht="14" spans="1:2">
       <c r="A253" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="254" ht="14" spans="1:1">
       <c r="A254" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="256" ht="14" spans="1:1">
       <c r="A256" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="257" ht="27" spans="1:2">
       <c r="A257" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="258" ht="27" spans="1:2">
       <c r="A258" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="259" ht="14" spans="1:1">
       <c r="A259" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="260" ht="14" spans="1:1">
       <c r="A260" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="262" ht="14" spans="1:1">
       <c r="A262" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="263" ht="14" spans="1:1">
       <c r="A263" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="264" ht="14" spans="1:1">
       <c r="A264" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="266" ht="14" spans="1:1">
       <c r="A266" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="267" ht="27" spans="1:1">
       <c r="A267" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="268" ht="14" spans="1:1">
       <c r="A268" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="270" ht="14" spans="1:1">
       <c r="A270" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" ht="27" spans="1:1">
       <c r="A271" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" ht="27" spans="1:1">
       <c r="A272" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="273" ht="27" spans="1:1">
       <c r="A273" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="274" ht="27" spans="1:1">
       <c r="A274" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="276" ht="14" spans="1:1">
       <c r="A276" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="277" ht="40" spans="1:1">
       <c r="A277" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="278" ht="14" spans="1:1">
       <c r="A278" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="280" ht="14" spans="1:1">
       <c r="A280" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="281" ht="14" spans="1:1">
       <c r="A281" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="282" ht="14" spans="1:1">
       <c r="A282" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="283" ht="27" spans="1:1">
       <c r="A283" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="284" ht="14" spans="1:1">
       <c r="A284" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="286" ht="14" spans="1:1">
       <c r="A286" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="287" ht="27" spans="1:2">
       <c r="A287" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="288" ht="14" spans="1:1">
       <c r="A288" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="289" ht="27" spans="1:1">
       <c r="A289" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="290" ht="27" spans="1:1">
       <c r="A290" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="291" ht="27" spans="1:1">
       <c r="A291" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="293" ht="14" spans="1:1">
       <c r="A293" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="294" ht="27" spans="1:1">
       <c r="A294" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="295" ht="14" spans="1:1">
       <c r="A295" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="296" ht="40" spans="1:1">
       <c r="A296" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="297" ht="14" spans="1:1">
       <c r="A297" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="299" ht="14" spans="1:1">
       <c r="A299" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="300" ht="14" spans="1:2">
       <c r="A300" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="301" ht="27" spans="1:1">
       <c r="A301" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="302" ht="40" spans="1:1">
       <c r="A302" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="303" ht="40" spans="1:1">
       <c r="A303" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="304" ht="40" spans="1:1">
       <c r="A304" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="306" ht="14" spans="1:1">
       <c r="A306" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="307" ht="27" spans="1:1">
       <c r="A307" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="308" ht="14" spans="1:1">
       <c r="A308" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="310" ht="14" spans="1:1">
       <c r="A310" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="311" ht="27" spans="1:1">
       <c r="A311" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="312" ht="27" spans="1:1">
       <c r="A312" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="313" ht="14" spans="1:1">
       <c r="A313" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="314" ht="14" spans="1:1">
       <c r="A314" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="316" ht="14" spans="1:1">
       <c r="A316" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="317" ht="27" spans="1:1">
       <c r="A317" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="318" ht="14" spans="1:1">
       <c r="A318" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="319" ht="14" spans="1:1">
       <c r="A319" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="320" ht="14" spans="1:1">
       <c r="A320" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="321" ht="14" spans="1:1">
       <c r="A321" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="322" ht="14" spans="1:1">
       <c r="A322" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="323" ht="14" spans="1:1">
       <c r="A323" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="324" ht="14" spans="1:1">
       <c r="A324" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="325" ht="14" spans="1:1">
       <c r="A325" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="326" ht="27" spans="1:1">
       <c r="A326" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="327" ht="14" spans="1:1">
       <c r="A327" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="328" ht="14" spans="1:1">
       <c r="A328" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="329" ht="14" spans="1:1">
       <c r="A329" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="330" ht="27" spans="1:1">
       <c r="A330" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="331" ht="14" spans="1:1">
       <c r="A331" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="332" ht="14" spans="1:1">
       <c r="A332" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="334" ht="14" spans="1:1">
       <c r="A334" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="335" ht="14" spans="1:1">
       <c r="A335" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="336" ht="14" spans="1:1">
       <c r="A336" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="337" ht="14" spans="1:1">
       <c r="A337" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="339" ht="14" spans="1:1">
       <c r="A339" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="340" ht="27" spans="1:2">
       <c r="A340" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="341" ht="27" spans="1:1">
       <c r="A341" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="343" ht="14" spans="1:1">
       <c r="A343" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="344" ht="14" spans="1:1">
       <c r="A344" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="345" ht="27" spans="1:1">
       <c r="A345" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="346" ht="14" spans="1:1">
       <c r="A346" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="347" ht="27" spans="1:1">
       <c r="A347" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="348" ht="14" spans="1:1">
       <c r="A348" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="349" ht="27" spans="1:1">
       <c r="A349" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="351" ht="14" spans="1:1">
       <c r="A351" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="352" ht="14" spans="1:1">
       <c r="A352" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="353" ht="27" spans="1:1">
       <c r="A353" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="354" ht="14" spans="1:1">
       <c r="A354" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="355" ht="14" spans="1:1">
       <c r="A355" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="357" ht="14" spans="1:1">
       <c r="A357" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="358" ht="14" spans="1:2">
       <c r="A358" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="360" ht="14" spans="1:1">
       <c r="A360" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="361" ht="14" spans="1:1">
       <c r="A361" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="362" ht="14" spans="1:1">
       <c r="A362" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="363" ht="18" customHeight="1" spans="1:2">
       <c r="A363" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="364" ht="27" spans="1:1">
       <c r="A364" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="366" ht="14" spans="1:1">
       <c r="A366" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="367" ht="14" spans="1:2">
       <c r="A367" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="369" ht="14" spans="1:1">
       <c r="A369" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="370" ht="14" spans="1:1">
       <c r="A370" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="372" ht="14" spans="1:1">
       <c r="A372" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="373" ht="14" spans="1:1">
       <c r="A373" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="374" ht="14" spans="1:1">
       <c r="A374" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="375" ht="14" spans="1:1">
       <c r="A375" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="376" ht="14" spans="1:2">
       <c r="A376" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="377" ht="14" spans="1:1">
       <c r="A377" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="378" ht="14" spans="1:1">
       <c r="A378" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="379" ht="14" spans="1:1">
       <c r="A379" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="380" ht="14" spans="1:1">
       <c r="A380" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="381" ht="14" spans="1:1">
       <c r="A381" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="382" ht="14" spans="1:1">
       <c r="A382" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="383" ht="14" spans="1:1">
       <c r="A383" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="384" ht="14" spans="1:1">
       <c r="A384" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="385" ht="14" spans="1:1">
       <c r="A385" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="386" ht="14" spans="1:2">
       <c r="A386" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="387" ht="14" spans="1:1">
       <c r="A387" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="388" ht="14" spans="1:1">
       <c r="A388" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="389" ht="14" spans="1:1">
       <c r="A389" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="390" ht="14" spans="1:1">
       <c r="A390" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="391" ht="14" spans="1:1">
       <c r="A391" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="392" ht="14" spans="1:1">
       <c r="A392" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="393" ht="14" spans="1:1">
       <c r="A393" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="394" ht="14" spans="1:1">
       <c r="A394" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="395" ht="14" spans="1:1">
       <c r="A395" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="396" ht="14" spans="1:1">
       <c r="A396" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="397" ht="14" spans="1:1">
       <c r="A397" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="399" ht="14" spans="1:1">
       <c r="A399" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="400" ht="14" spans="1:1">
       <c r="A400" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="401" ht="14" spans="1:1">
       <c r="A401" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="402" ht="14" spans="1:2">
       <c r="A402" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="403" ht="14" spans="1:1">
       <c r="A403" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="404" ht="14" spans="1:1">
       <c r="A404" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="405" ht="14" spans="1:1">
       <c r="A405" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="406" ht="14" spans="1:1">
       <c r="A406" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="408" ht="14" spans="1:1">
       <c r="A408" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="409" ht="14" spans="1:1">
       <c r="A409" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="410" ht="14" spans="1:1">
       <c r="A410" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="411" ht="14" spans="1:1">
       <c r="A411" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="412" ht="14" spans="1:1">
       <c r="A412" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="413" ht="14" spans="1:1">
       <c r="A413" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="414" ht="14" spans="1:1">
       <c r="A414" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="415" ht="27" spans="1:1">
       <c r="A415" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="416" ht="27" spans="1:1">
       <c r="A416" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="417" ht="27" spans="1:1">
       <c r="A417" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="418" ht="14" spans="1:1">
       <c r="A418" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="419" ht="14" spans="1:1">
       <c r="A419" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="420" ht="14" spans="1:1">
       <c r="A420" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="421" ht="14" spans="1:1">
       <c r="A421" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="422" ht="27" spans="1:1">
       <c r="A422" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="423" ht="14" spans="1:1">
       <c r="A423" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="424" ht="14" spans="1:1">
       <c r="A424" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="425" ht="14" spans="1:1">
       <c r="A425" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="426" ht="14" spans="1:1">
       <c r="A426" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="428" ht="14" spans="1:1">
       <c r="A428" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="429" ht="14" spans="1:1">
       <c r="A429" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="430" ht="27" spans="1:1">
       <c r="A430" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="431" ht="27" spans="1:1">
       <c r="A431" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="433" ht="14" spans="1:1">
       <c r="A433" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="434" ht="14" spans="1:1">
       <c r="A434" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="435" ht="14" spans="1:1">
       <c r="A435" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="437" ht="14" spans="1:1">
       <c r="A437" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="438" ht="27" spans="1:1">
       <c r="A438" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="439" ht="27" spans="1:2">
       <c r="A439" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B439" s="8" t="s">
         <v>71</v>
@@ -5875,310 +5892,310 @@
     </row>
     <row r="440" ht="27" spans="1:1">
       <c r="A440" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="441" ht="14" spans="1:1">
       <c r="A441" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="442" ht="27" spans="1:1">
       <c r="A442" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="443" ht="27" spans="1:1">
       <c r="A443" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="444" ht="14" spans="1:1">
       <c r="A444" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="445" ht="14" spans="1:1">
       <c r="A445" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="449" ht="14" spans="1:1">
       <c r="A449" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="450" ht="14" spans="1:1">
       <c r="A450" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="451" ht="53" spans="1:2">
       <c r="A451" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="452" ht="14" spans="1:1">
       <c r="A452" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="453" ht="14" spans="1:2">
       <c r="A453" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="455" ht="14" spans="1:1">
       <c r="A455" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="456" ht="14" spans="1:1">
       <c r="A456" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="457" ht="14" spans="1:1">
       <c r="A457" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="458" ht="14" spans="1:2">
       <c r="A458" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="459" ht="14" spans="1:1">
       <c r="A459" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="460" ht="14" spans="1:1">
       <c r="A460" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="462" ht="14" spans="1:1">
       <c r="A462" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="463" ht="14" spans="1:1">
       <c r="A463" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="464" ht="14" spans="1:1">
       <c r="A464" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="465" ht="14" spans="1:1">
       <c r="A465" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="466" ht="14" spans="1:1">
       <c r="A466" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="467" ht="14" spans="1:1">
       <c r="A467" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="469" ht="14" spans="1:1">
       <c r="A469" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="470" ht="27" spans="1:1">
       <c r="A470" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="471" ht="27" spans="1:1">
       <c r="A471" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="473" ht="14" spans="1:1">
       <c r="A473" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="474" ht="14" spans="1:2">
       <c r="A474" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="475" ht="27" spans="1:1">
       <c r="A475" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="477" ht="14" spans="1:1">
       <c r="A477" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="478" ht="14" spans="1:1">
       <c r="A478" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="480" ht="14" spans="1:1">
       <c r="A480" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="481" ht="27" spans="1:1">
       <c r="A481" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="482" ht="27" spans="1:1">
       <c r="A482" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="484" ht="14" spans="1:1">
       <c r="A484" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="485" ht="14" spans="1:1">
       <c r="A485" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="486" ht="14" spans="1:1">
       <c r="A486" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="489" ht="14" spans="1:1">
       <c r="A489" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="490" ht="40" spans="1:1">
       <c r="A490" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="492" ht="14" spans="1:1">
       <c r="A492" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="493" ht="14" spans="1:1">
       <c r="A493" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="495" ht="14" spans="1:1">
       <c r="A495" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="496" ht="27" spans="1:1">
       <c r="A496" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="497" ht="27" spans="1:2">
       <c r="A497" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="499" ht="14" spans="1:1">
       <c r="A499" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="500" ht="27" spans="1:2">
       <c r="A500" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="502" ht="14" spans="1:1">
       <c r="A502" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="503" ht="14" spans="1:1">
       <c r="A503" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="504" ht="27" spans="1:1">
       <c r="A504" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="506" ht="14" spans="1:1">
       <c r="A506" s="12" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="507" ht="27" spans="1:1">
       <c r="A507" s="12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="509" ht="14" spans="1:1">
       <c r="A509" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="510" ht="14" spans="1:1">
       <c r="A510" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="512" ht="14" spans="1:1">
       <c r="A512" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="513" ht="14" spans="1:1">
       <c r="A513" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="526" ht="14" spans="1:1">
       <c r="A526" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="527" ht="14" spans="1:1">
       <c r="A527" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="528" ht="27" spans="1:1">
       <c r="A528" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -6196,8 +6213,8 @@
   <sheetPr/>
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelCol="2"/>
@@ -6210,98 +6227,98 @@
   <sheetData>
     <row r="1" ht="16" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" ht="16" spans="3:3">
       <c r="C2" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" ht="16" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" ht="16" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" ht="16" spans="3:3">
       <c r="C6" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" ht="16" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" ht="31" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -6309,37 +6326,37 @@
     </row>
     <row r="14" ht="16" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" ht="31" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" ht="16" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" ht="31" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" ht="16" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" ht="16" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" ht="16" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -6347,22 +6364,22 @@
     </row>
     <row r="23" ht="16" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" ht="46" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" ht="16" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" ht="16" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -6370,48 +6387,48 @@
     </row>
     <row r="28" ht="16" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" ht="46" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" ht="16" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" ht="16" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" ht="31" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" ht="16" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" ht="16" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" ht="16" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -6422,584 +6439,584 @@
     </row>
     <row r="40" ht="16" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" ht="31" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="42" ht="31" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" ht="16" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" ht="31" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" ht="16" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" ht="16" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="48" ht="16" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" ht="31" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" ht="16" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" ht="46" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56" ht="46" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B56" s="7"/>
     </row>
     <row r="57" ht="46" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B57" s="7"/>
     </row>
     <row r="58" ht="46" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B58" s="7"/>
     </row>
     <row r="59" ht="46" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B59" s="7"/>
     </row>
     <row r="61" ht="16" spans="1:1">
       <c r="A61" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" ht="16" spans="1:1">
       <c r="A62" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63" ht="31" spans="1:1">
       <c r="A63" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" ht="16" spans="1:1">
       <c r="A66" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" ht="16" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" ht="16" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="71" ht="31" spans="1:1">
       <c r="A71" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73" ht="16" spans="1:1">
       <c r="A73" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74" ht="16" spans="1:1">
       <c r="A74" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" ht="16" spans="1:1">
       <c r="A75" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="76" ht="16" spans="1:1">
       <c r="A76" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="77" ht="46" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="79" ht="16" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="80" ht="31" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" ht="31" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" ht="46" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" ht="31" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" ht="16" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="85" ht="31" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="86" ht="31" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" ht="16" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" ht="31" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" ht="31" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" ht="16" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="93" ht="46" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" ht="31" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96" ht="16" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="97" ht="46" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="98" ht="46" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101" ht="16" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="102" ht="16" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" ht="16" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="105" ht="31" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" ht="31" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="109" ht="16" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="110" ht="16" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="112" ht="16" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="113" ht="46" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="114" ht="31" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" ht="16" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="117" ht="16" spans="1:2">
       <c r="A117" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="118" ht="16" spans="1:2">
       <c r="A118" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="120" ht="16" spans="1:1">
       <c r="A120" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="121" ht="16" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="123" ht="16" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="124" ht="16" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="125" ht="46" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="127" ht="16" spans="1:1">
       <c r="A127" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="128" ht="31" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="129" ht="46" spans="1:1">
       <c r="A129" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" ht="16" spans="1:1">
       <c r="A131" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="132" ht="31" spans="1:2">
       <c r="A132" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="133" ht="16" spans="1:2">
       <c r="A133" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="134" ht="31" spans="1:1">
       <c r="A134" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="135" ht="31" spans="1:1">
       <c r="A135" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="137" ht="16" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" ht="31" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="140" ht="16" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="141" ht="16" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143" ht="16" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="144" ht="16" spans="1:2">
       <c r="A144" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="145" ht="16" spans="1:2">
       <c r="A145" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="147" ht="16" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="148" ht="16" spans="1:2">
       <c r="A148" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="149" ht="16" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="151" ht="16" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="152" ht="31" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="154" ht="16" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="155" ht="31" spans="1:2">
       <c r="A155" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" ht="16" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="158" ht="46" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="159" ht="16" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="160" ht="31" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="161" ht="16" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="162" ht="16" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="164" ht="16" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="165" ht="16" spans="1:1">
       <c r="A165" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="167" ht="16" spans="1:1">
       <c r="A167" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="168" ht="46" spans="1:1">
       <c r="A168" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="169" ht="46" spans="1:1">
       <c r="A169" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="171" ht="16" spans="1:1">
       <c r="A171" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="172" ht="31" spans="1:1">
       <c r="A172" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="173" ht="31" spans="1:1">
       <c r="A173" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="175" ht="16" spans="1:1">
       <c r="A175" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="176" ht="16" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="177" ht="16" spans="1:1">
       <c r="A177" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="178" ht="16" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="179" ht="16" spans="1:1">
       <c r="A179" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="181" ht="16" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="182" ht="31" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="183" ht="16" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -7031,35 +7048,50 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="134.166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="179" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" ht="255" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:1">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="4" ht="80" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="6" ht="191" customHeight="1" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="7" ht="53" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="9" ht="40" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13200"/>
+    <workbookView windowWidth="28000" windowHeight="13200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="647">
   <si>
     <t>C++功能</t>
   </si>
@@ -1467,13 +1467,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">public abstract int EnableEncryption(bool enabled, </t>
     </r>
     <r>
@@ -2868,7 +2861,10 @@
 this._engine.mainClientVariables.enabledDualStreamMode
 this._engine.mainClientVariables.enabledDualStreamModes
 //4. 读取 this._engine.mainClientVariables.enabledAudioVolumeIndication，是否不是null,如果是null，就client.enableAudioVolumeIndicator设置一下。并且将this._engine.mainClientVariables.enabledAudioVolumeIndication = null;
-5. fallbackOption 存在，存在则设置一下 </t>
+5. fallbackOption 存在，存在则设置一下 
+6. this._engine.mainClientVariables.encryptionConfig.enabled为true的话，要开启加密哦
+7. contentInspect 是否开启鉴黄
+8.cloudProxy </t>
   </si>
   <si>
     <t>//ICameraVideoTrack被创建时
@@ -2876,7 +2872,9 @@
 //2.读取 this._engine.globalVariables.videoEncoderConfiguration 并且设置
 //3 play的时候读取this._engine.globalVariables.videoEncoderConfiguration。mirrorMode
 //去读取this._engine.mainClientVariables.enabledDualStreamModes 的， 看看是否需要client开启大小流
-//去读取this._engine.globalVariables.cameraDirection  看看启用哪个摄像头</t>
+//去读取this._engine.globalVariables.cameraDirection  看看启用哪个摄像头
+//如果是屏幕共享，那么需要去读取 screenCaptureContentHint 的值
+//如果去是屏幕共享，那么需要去读取screenCaptureParameters 的值</t>
   </si>
   <si>
     <t>创建rtc Client的时候
@@ -2893,7 +2891,13 @@
   <si>
     <t xml:space="preserve">远端 audio 流哦，要设置
 this._engine.globalVariables.playbackSignalVolumes 是否有自己
-playbackSignalVolume setVolume </t>
+playbackSignalVolume setVolume 
+</t>
+  </si>
+  <si>
+    <t>audio流的操作
+1、enabledAudio是否设置了
+2. pausedAudio 是否设置了</t>
   </si>
 </sst>
 </file>
@@ -3893,8 +3897,8 @@
   <sheetPr/>
   <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="B198" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -7048,10 +7052,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
@@ -7074,7 +7078,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="4" ht="80" spans="1:1">
+    <row r="4" ht="106" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>642</v>
       </c>
@@ -7089,9 +7093,14 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" ht="40" spans="1:1">
+    <row r="9" ht="53" spans="1:1">
       <c r="A9" s="3" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="11" ht="40" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13200" activeTab="3"/>
+    <workbookView windowWidth="28000" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -2853,7 +2853,7 @@
     <t>、、</t>
   </si>
   <si>
-    <t xml:space="preserve">//mainClient 被创建时候
+    <t xml:space="preserve">//Client 被创建时候
 //1. enabledDualStreamMode 判断是否使用远端大小流,如果使用大小流，那么就走2，3。不然跳过2，3
 //2. remoteDefaultVideoStreamType 设置默认的远端的大小流
 //3. remoteVideoStreamTypes 针对特殊的uid的大小流
@@ -6217,8 +6217,8 @@
   <sheetPr/>
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelCol="2"/>
@@ -7054,8 +7054,8 @@
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>

--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13200" activeTab="1"/>
+    <workbookView windowWidth="29480" windowHeight="13200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetChannelProfile(</t>
     </r>
     <r>
@@ -66,6 +73,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetClientRole(</t>
     </r>
     <r>
@@ -382,6 +396,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">public abstract int </t>
     </r>
     <r>
@@ -451,6 +472,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetAudioProfile(</t>
     </r>
     <r>
@@ -1408,6 +1436,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>public abstract int SetRemoteDefaultVideoStreamType(</t>
     </r>
     <r>
@@ -1467,6 +1502,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">public abstract int EnableEncryption(bool enabled, </t>
     </r>
     <r>
@@ -2853,7 +2895,7 @@
     <t>、、</t>
   </si>
   <si>
-    <t xml:space="preserve">//Client 被创建时候
+    <t>//Client 被创建时候
 //1. enabledDualStreamMode 判断是否使用远端大小流,如果使用大小流，那么就走2，3。不然跳过2，3
 //2. remoteDefaultVideoStreamType 设置默认的远端的大小流
 //3. remoteVideoStreamTypes 针对特殊的uid的大小流
@@ -2863,18 +2905,25 @@
 //4. 读取 this._engine.mainClientVariables.enabledAudioVolumeIndication，是否不是null,如果是null，就client.enableAudioVolumeIndicator设置一下。并且将this._engine.mainClientVariables.enabledAudioVolumeIndication = null;
 5. fallbackOption 存在，存在则设置一下 
 6. this._engine.mainClientVariables.encryptionConfig.enabled为true的话，要开启加密哦
+8 joinChannelEx的时候。要看 this._engine.subClientVariables.encryptionConfigs
 7. contentInspect 是否开启鉴黄
-8.cloudProxy </t>
-  </si>
-  <si>
-    <t>//ICameraVideoTrack被创建时
+8.cloudProxy 
+9.远端用户进入的时候，需要读取 this._engine.globalVariables.fallbackOption ，然MainClient设置一下 setStreamFallbackOption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//ICameraVideoTrack被创建时
 //1.读取  this._engine.mainClientVariables.deviceId 的值，如果有 setDevice() 且一直保持这个变量
 //2.读取 this._engine.globalVariables.videoEncoderConfiguration 并且设置
 //3 play的时候读取this._engine.globalVariables.videoEncoderConfiguration。mirrorMode
 //去读取this._engine.mainClientVariables.enabledDualStreamModes 的， 看看是否需要client开启大小流
 //去读取this._engine.globalVariables.cameraDirection  看看启用哪个摄像头
 //如果是屏幕共享，那么需要去读取 screenCaptureContentHint 的值
-//如果去是屏幕共享，那么需要去读取screenCaptureParameters 的值</t>
+//如果去是屏幕共享，那么需要去读取screenCaptureParameters 的值( 如果没有则读取videoEncoderConfiguration)
+//enableVideo
+enabledLocalVideo
+//pasuseVideo
+//mutedLocalVideoStream
+</t>
   </si>
   <si>
     <t>创建rtc Client的时候
@@ -2891,13 +2940,20 @@
   <si>
     <t xml:space="preserve">远端 audio 流哦，要设置
 this._engine.globalVariables.playbackSignalVolumes 是否有自己
+playbackSignalVolumes 是否有自己，如果有这个为准，否则下边这一行的为准
 playbackSignalVolume setVolume 
 </t>
   </si>
   <si>
     <t>audio流的操作
 1、enabledAudio是否设置了
-2. pausedAudio 是否设置了</t>
+2. pausedAudio 是否设置了
+   this._engine.mainClientVariables.mutedRemoteAudioStreams
+3. mutedLocalAudioStream
+   如果 mutedRemoteAudioStreams 里找不到，以找到的为准，否则以下一个为准
+   defaultMutedAllRemoteAudioStreams
+4. muted 
+3. 读取 playbackDeviceId的值，如果不是null,则设置一下playDevice呢</t>
   </si>
 </sst>
 </file>
@@ -2905,9 +2961,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -2934,22 +2990,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2962,19 +3003,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2986,14 +3025,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3010,14 +3057,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3038,23 +3094,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3073,6 +3114,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3104,7 +3160,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3116,157 +3322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3286,6 +3342,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3297,10 +3368,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3308,8 +3377,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3346,21 +3417,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3388,152 +3444,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3553,13 +3609,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3897,2308 +3947,2308 @@
   <sheetPr/>
   <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="A367" sqref="A367"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="70.7916666666667" style="8" customWidth="1"/>
-    <col min="2" max="2" width="93.3333333333333" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="8"/>
+    <col min="1" max="1" width="70.7916666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="93.3333333333333" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="14" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" ht="14" spans="1:1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" ht="14" spans="1:1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="14" spans="1:1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" ht="38" customHeight="1" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" ht="14" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" ht="14" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" ht="14" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="14" spans="1:1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" ht="14" spans="1:1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" ht="14" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" ht="14" spans="1:1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" ht="14" spans="1:1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" ht="14" spans="1:1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" ht="14" spans="1:1">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" ht="14" spans="1:1">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" ht="14" spans="1:1">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" ht="14" spans="1:1">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" ht="14" spans="1:2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" ht="14" spans="1:1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" ht="14" spans="1:1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" ht="14" spans="1:1">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" ht="14" spans="1:1">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:1">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" ht="14" spans="1:1">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" ht="14" spans="1:1">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" ht="14" spans="1:1">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" ht="14" spans="1:1">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="53" ht="14" spans="1:1">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" ht="14" spans="1:1">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" ht="14" spans="1:1">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="57" ht="14" spans="1:1">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="58" ht="14" spans="1:1">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="59" ht="14" spans="1:1">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" ht="14" spans="1:1">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" ht="14" spans="1:1">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="63" ht="14" spans="1:1">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" ht="14" spans="1:1">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" ht="27" spans="1:1">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="67" ht="14" spans="1:1">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="68" ht="14" spans="1:2">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="69" ht="14" spans="1:1">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="71" ht="14" spans="1:1">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="72" ht="14" spans="1:1">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="73" ht="14" spans="1:1">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="74" ht="14" spans="1:1">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="75" ht="14" spans="1:1">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" ht="14" spans="1:1">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="78" ht="14" spans="1:2">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="79" ht="27" spans="1:2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="12"/>
+      <c r="A80" s="10"/>
     </row>
     <row r="81" ht="14" spans="1:1">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="82" ht="14" spans="1:1">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="83" ht="27" spans="1:1">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="84" ht="14" spans="1:1">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="85" ht="27" spans="1:1">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="86" ht="27" spans="1:1">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="87" ht="27" spans="1:1">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="88" ht="14" spans="1:1">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="90" ht="14" spans="1:1">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="91" ht="27" spans="1:1">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="93" ht="14" spans="1:1">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="94" ht="14" spans="1:1">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="95" ht="14" spans="1:1">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="96" ht="27" spans="1:1">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="97" ht="14" spans="1:1">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="98" ht="14" spans="1:1">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="100" ht="14" spans="1:1">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="101" ht="14" spans="1:1">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="103" ht="14" spans="1:1">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="104" ht="14" spans="1:1">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="106" ht="14" spans="1:1">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="107" ht="14" spans="1:1">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="108" ht="27" spans="1:1">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="109" ht="14" spans="1:1">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="110" ht="14" spans="1:1">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="112" ht="14" spans="1:1">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="113" ht="14" spans="1:1">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="114" ht="14" spans="1:1">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="115" ht="14" spans="1:1">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="116" ht="14" spans="1:1">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="118" ht="14" spans="1:1">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="119" ht="14" spans="1:1">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="120" ht="14" spans="1:1">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="122" ht="14" spans="1:1">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="123" ht="14" spans="1:1">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" ht="14" spans="1:1">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="126" ht="40" spans="1:2">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="127" ht="14" spans="1:1">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="128" ht="14" spans="1:1">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="129" ht="14" spans="1:1">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="130" ht="27" spans="1:1">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="131" ht="27" spans="1:1">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="132" ht="27" spans="1:1">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="133" ht="14" spans="1:1">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="134" ht="40" spans="1:1">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="135" ht="14" spans="1:1">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="137" ht="14" spans="1:1">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="138" ht="27" spans="1:2">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="140" ht="14" spans="1:1">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="141" ht="14" spans="1:1">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="143" ht="14" spans="1:1">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="144" ht="14" spans="1:1">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="146" ht="14" spans="1:1">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="147" ht="14" spans="1:1">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="148" ht="14" spans="1:1">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="150" ht="14" spans="1:1">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="151" ht="19" customHeight="1" spans="1:2">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="152" ht="27" spans="1:2">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="153" ht="14" spans="1:2">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="154" ht="14" spans="1:1">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="155" ht="14" spans="1:1">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="156" ht="14" spans="1:1">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="157" ht="14" spans="1:1">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="158" ht="14" spans="1:1">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="159" ht="14" spans="1:1">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="160" ht="14" spans="1:1">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="161" ht="14" spans="1:1">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="162" ht="14" spans="1:1">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="163" ht="14" spans="1:1">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="164" ht="14" spans="1:1">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="166" ht="14" spans="1:1">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="167" ht="14" spans="1:2">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="168" ht="14" spans="1:2">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="169" ht="14" spans="1:1">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="170" ht="27" spans="1:1">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="171" ht="27" spans="1:1">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="172" ht="14" spans="1:1">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="173" ht="14" spans="1:1">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="174" ht="14" spans="1:1">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="175" ht="14" spans="1:1">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="176" ht="14" spans="1:1">
-      <c r="A176" s="8" t="s">
+      <c r="A176" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="177" ht="14" spans="1:1">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="178" ht="14" spans="1:1">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="179" ht="14" spans="1:1">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="180" ht="14" spans="1:1">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="181" ht="14" spans="1:1">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="183" ht="14" spans="1:1">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="184" ht="27" spans="1:1">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="185" ht="14" spans="1:1">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="186" ht="14" spans="1:1">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="188" ht="14" spans="1:1">
-      <c r="A188" s="8" t="s">
+      <c r="A188" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="189" ht="14" spans="1:1">
-      <c r="A189" s="8" t="s">
+      <c r="A189" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="190" ht="14" spans="1:1">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="191" ht="14" spans="1:1">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="193" ht="14" spans="1:1">
-      <c r="A193" s="8" t="s">
+      <c r="A193" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="194" ht="14" spans="1:1">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="195" ht="14" spans="1:1">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="197" ht="14" spans="1:1">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="198" ht="27" spans="1:2">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="199" ht="27" spans="1:1">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="200" ht="27" spans="1:1">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="201" ht="27" spans="1:1">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="202" ht="27" spans="1:1">
-      <c r="A202" s="8" t="s">
+      <c r="A202" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="203" ht="14" spans="1:2">
-      <c r="A203" s="8" t="s">
+      <c r="A203" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="204" ht="14" spans="1:1">
-      <c r="A204" s="8" t="s">
+      <c r="A204" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="205" ht="27" spans="1:1">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="206" ht="14" spans="1:1">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="208" ht="14" spans="1:1">
-      <c r="A208" s="8" t="s">
+      <c r="A208" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="209" ht="14" spans="1:2">
-      <c r="A209" s="11" t="s">
+      <c r="A209" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="210" ht="27" spans="1:2">
-      <c r="A210" s="11" t="s">
+      <c r="A210" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="211" ht="27" spans="1:2">
-      <c r="A211" s="11" t="s">
+      <c r="A211" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="212" ht="27" spans="1:1">
-      <c r="A212" s="11" t="s">
+      <c r="A212" s="9" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="213" ht="27" spans="1:2">
-      <c r="A213" s="11" t="s">
+      <c r="A213" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="214" ht="27" spans="1:2">
-      <c r="A214" s="11" t="s">
+      <c r="A214" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="215" ht="27" spans="1:2">
-      <c r="A215" s="11" t="s">
+      <c r="A215" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="217" ht="14" spans="1:1">
-      <c r="A217" s="8" t="s">
+      <c r="A217" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="218" ht="14" spans="1:1">
-      <c r="A218" s="8" t="s">
+      <c r="A218" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="219" ht="27" spans="1:1">
-      <c r="A219" s="8" t="s">
+      <c r="A219" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="220" ht="27" spans="1:1">
-      <c r="A220" s="8" t="s">
+      <c r="A220" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="221" ht="14" spans="1:1">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="222" ht="14" spans="1:1">
-      <c r="A222" s="8" t="s">
+      <c r="A222" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="223" ht="14" spans="1:1">
-      <c r="A223" s="8" t="s">
+      <c r="A223" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="225" ht="14" spans="1:1">
-      <c r="A225" s="8" t="s">
+      <c r="A225" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="226" ht="14" spans="1:1">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="227" ht="14" spans="1:1">
-      <c r="A227" s="8" t="s">
+      <c r="A227" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="228" ht="14" spans="1:2">
-      <c r="A228" s="11" t="s">
+      <c r="A228" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="229" ht="27" spans="1:1">
-      <c r="A229" s="8" t="s">
+      <c r="A229" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="231" ht="14" spans="1:1">
-      <c r="A231" s="8" t="s">
+      <c r="A231" s="3" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="232" ht="14" spans="1:1">
-      <c r="A232" s="8" t="s">
+      <c r="A232" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="233" ht="14" spans="1:1">
-      <c r="A233" s="8" t="s">
+      <c r="A233" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="234" ht="27" spans="1:1">
-      <c r="A234" s="8" t="s">
+      <c r="A234" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="236" ht="14" spans="1:1">
-      <c r="A236" s="8" t="s">
+      <c r="A236" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="237" ht="14" spans="1:1">
-      <c r="A237" s="8" t="s">
+      <c r="A237" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="238" ht="27" spans="1:1">
-      <c r="A238" s="8" t="s">
+      <c r="A238" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="239" ht="14" spans="1:1">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="241" ht="14" spans="1:1">
-      <c r="A241" s="8" t="s">
+      <c r="A241" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="242" ht="14" spans="1:2">
-      <c r="A242" s="8" t="s">
+      <c r="A242" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B242" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="244" ht="14" spans="1:1">
-      <c r="A244" s="8" t="s">
+      <c r="A244" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="245" ht="14" spans="1:1">
-      <c r="A245" s="8" t="s">
+      <c r="A245" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="246" ht="27" spans="1:1">
-      <c r="A246" s="8" t="s">
+      <c r="A246" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="247" ht="14" spans="1:1">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="249" ht="14" spans="1:1">
-      <c r="A249" s="8" t="s">
+      <c r="A249" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="250" ht="27" spans="1:2">
-      <c r="A250" s="8" t="s">
+      <c r="A250" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B250" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="251" ht="27" spans="1:2">
-      <c r="A251" s="8" t="s">
+      <c r="A251" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="252" ht="14" spans="1:2">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B252" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="253" ht="14" spans="1:2">
-      <c r="A253" s="8" t="s">
+      <c r="A253" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="254" ht="14" spans="1:1">
-      <c r="A254" s="8" t="s">
+      <c r="A254" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="256" ht="14" spans="1:1">
-      <c r="A256" s="8" t="s">
+      <c r="A256" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="257" ht="27" spans="1:2">
-      <c r="A257" s="8" t="s">
+      <c r="A257" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="B257" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="258" ht="27" spans="1:2">
-      <c r="A258" s="8" t="s">
+      <c r="A258" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="3" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="259" ht="14" spans="1:1">
-      <c r="A259" s="8" t="s">
+      <c r="A259" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="260" ht="14" spans="1:1">
-      <c r="A260" s="8" t="s">
+      <c r="A260" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="262" ht="14" spans="1:1">
-      <c r="A262" s="8" t="s">
+      <c r="A262" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="263" ht="14" spans="1:1">
-      <c r="A263" s="8" t="s">
+      <c r="A263" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="264" ht="14" spans="1:1">
-      <c r="A264" s="8" t="s">
+      <c r="A264" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="266" ht="14" spans="1:1">
-      <c r="A266" s="8" t="s">
+      <c r="A266" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="267" ht="27" spans="1:1">
-      <c r="A267" s="8" t="s">
+      <c r="A267" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="268" ht="14" spans="1:1">
-      <c r="A268" s="8" t="s">
+      <c r="A268" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="270" ht="14" spans="1:1">
-      <c r="A270" s="8" t="s">
+      <c r="A270" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="271" ht="27" spans="1:1">
-      <c r="A271" s="8" t="s">
+      <c r="A271" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="272" ht="27" spans="1:1">
-      <c r="A272" s="8" t="s">
+      <c r="A272" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="273" ht="27" spans="1:1">
-      <c r="A273" s="8" t="s">
+      <c r="A273" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="274" ht="27" spans="1:1">
-      <c r="A274" s="8" t="s">
+      <c r="A274" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="276" ht="14" spans="1:1">
-      <c r="A276" s="8" t="s">
+      <c r="A276" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="277" ht="40" spans="1:1">
-      <c r="A277" s="8" t="s">
+      <c r="A277" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="278" ht="14" spans="1:1">
-      <c r="A278" s="8" t="s">
+      <c r="A278" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="280" ht="14" spans="1:1">
-      <c r="A280" s="8" t="s">
+      <c r="A280" s="3" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="281" ht="14" spans="1:1">
-      <c r="A281" s="8" t="s">
+      <c r="A281" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="282" ht="14" spans="1:1">
-      <c r="A282" s="8" t="s">
+      <c r="A282" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="283" ht="27" spans="1:1">
-      <c r="A283" s="8" t="s">
+      <c r="A283" s="3" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="284" ht="14" spans="1:1">
-      <c r="A284" s="8" t="s">
+      <c r="A284" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="286" ht="14" spans="1:1">
-      <c r="A286" s="8" t="s">
+      <c r="A286" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="287" ht="27" spans="1:2">
-      <c r="A287" s="8" t="s">
+      <c r="A287" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B287" s="8" t="s">
+      <c r="B287" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="288" ht="14" spans="1:1">
-      <c r="A288" s="8" t="s">
+      <c r="A288" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="289" ht="27" spans="1:1">
-      <c r="A289" s="8" t="s">
+      <c r="A289" s="3" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="290" ht="27" spans="1:1">
-      <c r="A290" s="8" t="s">
+      <c r="A290" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="291" ht="27" spans="1:1">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="293" ht="14" spans="1:1">
-      <c r="A293" s="8" t="s">
+      <c r="A293" s="3" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="294" ht="27" spans="1:1">
-      <c r="A294" s="8" t="s">
+      <c r="A294" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="295" ht="14" spans="1:1">
-      <c r="A295" s="8" t="s">
+      <c r="A295" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="296" ht="40" spans="1:1">
-      <c r="A296" s="8" t="s">
+      <c r="A296" s="3" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="297" ht="14" spans="1:1">
-      <c r="A297" s="8" t="s">
+      <c r="A297" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="299" ht="14" spans="1:1">
-      <c r="A299" s="8" t="s">
+      <c r="A299" s="3" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="300" ht="14" spans="1:2">
-      <c r="A300" s="8" t="s">
+      <c r="A300" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B300" s="8" t="s">
+      <c r="B300" s="3" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="301" ht="27" spans="1:1">
-      <c r="A301" s="8" t="s">
+      <c r="A301" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="302" ht="40" spans="1:1">
-      <c r="A302" s="8" t="s">
+      <c r="A302" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="303" ht="40" spans="1:1">
-      <c r="A303" s="8" t="s">
+      <c r="A303" s="3" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="304" ht="40" spans="1:1">
-      <c r="A304" s="8" t="s">
+      <c r="A304" s="3" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="306" ht="14" spans="1:1">
-      <c r="A306" s="8" t="s">
+      <c r="A306" s="3" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="307" ht="27" spans="1:1">
-      <c r="A307" s="8" t="s">
+      <c r="A307" s="3" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="308" ht="14" spans="1:1">
-      <c r="A308" s="8" t="s">
+      <c r="A308" s="3" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="310" ht="14" spans="1:1">
-      <c r="A310" s="8" t="s">
+      <c r="A310" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="311" ht="27" spans="1:1">
-      <c r="A311" s="8" t="s">
+      <c r="A311" s="3" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="312" ht="27" spans="1:1">
-      <c r="A312" s="8" t="s">
+      <c r="A312" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="313" ht="14" spans="1:1">
-      <c r="A313" s="8" t="s">
+      <c r="A313" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="314" ht="14" spans="1:1">
-      <c r="A314" s="8" t="s">
+      <c r="A314" s="3" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="316" ht="14" spans="1:1">
-      <c r="A316" s="8" t="s">
+      <c r="A316" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="317" ht="27" spans="1:1">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="3" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="318" ht="14" spans="1:1">
-      <c r="A318" s="8" t="s">
+      <c r="A318" s="3" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="319" ht="14" spans="1:1">
-      <c r="A319" s="8" t="s">
+      <c r="A319" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="320" ht="14" spans="1:1">
-      <c r="A320" s="8" t="s">
+      <c r="A320" s="3" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="321" ht="14" spans="1:1">
-      <c r="A321" s="8" t="s">
+      <c r="A321" s="3" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="322" ht="14" spans="1:1">
-      <c r="A322" s="8" t="s">
+      <c r="A322" s="3" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="323" ht="14" spans="1:1">
-      <c r="A323" s="8" t="s">
+      <c r="A323" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="324" ht="14" spans="1:1">
-      <c r="A324" s="8" t="s">
+      <c r="A324" s="3" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="325" ht="14" spans="1:1">
-      <c r="A325" s="8" t="s">
+      <c r="A325" s="3" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="326" ht="27" spans="1:1">
-      <c r="A326" s="8" t="s">
+      <c r="A326" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="327" ht="14" spans="1:1">
-      <c r="A327" s="8" t="s">
+      <c r="A327" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="328" ht="14" spans="1:1">
-      <c r="A328" s="8" t="s">
+      <c r="A328" s="3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="329" ht="14" spans="1:1">
-      <c r="A329" s="8" t="s">
+      <c r="A329" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="330" ht="27" spans="1:1">
-      <c r="A330" s="8" t="s">
+      <c r="A330" s="3" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="331" ht="14" spans="1:1">
-      <c r="A331" s="8" t="s">
+      <c r="A331" s="3" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="332" ht="14" spans="1:1">
-      <c r="A332" s="8" t="s">
+      <c r="A332" s="3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="334" ht="14" spans="1:1">
-      <c r="A334" s="8" t="s">
+      <c r="A334" s="3" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="335" ht="14" spans="1:1">
-      <c r="A335" s="8" t="s">
+      <c r="A335" s="3" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="336" ht="14" spans="1:1">
-      <c r="A336" s="8" t="s">
+      <c r="A336" s="3" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="337" ht="14" spans="1:1">
-      <c r="A337" s="8" t="s">
+      <c r="A337" s="3" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="339" ht="14" spans="1:1">
-      <c r="A339" s="8" t="s">
+      <c r="A339" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="340" ht="27" spans="1:2">
-      <c r="A340" s="8" t="s">
+      <c r="A340" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B340" s="8" t="s">
+      <c r="B340" s="3" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="341" ht="27" spans="1:1">
-      <c r="A341" s="8" t="s">
+      <c r="A341" s="3" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="343" ht="14" spans="1:1">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="3" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="344" ht="14" spans="1:1">
-      <c r="A344" s="8" t="s">
+      <c r="A344" s="3" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="345" ht="27" spans="1:1">
-      <c r="A345" s="8" t="s">
+      <c r="A345" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="346" ht="14" spans="1:1">
-      <c r="A346" s="8" t="s">
+      <c r="A346" s="3" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="347" ht="27" spans="1:1">
-      <c r="A347" s="8" t="s">
+      <c r="A347" s="3" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="348" ht="14" spans="1:1">
-      <c r="A348" s="8" t="s">
+      <c r="A348" s="3" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="349" ht="27" spans="1:1">
-      <c r="A349" s="8" t="s">
+      <c r="A349" s="3" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="351" ht="14" spans="1:1">
-      <c r="A351" s="8" t="s">
+      <c r="A351" s="3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="352" ht="14" spans="1:1">
-      <c r="A352" s="8" t="s">
+      <c r="A352" s="3" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="353" ht="27" spans="1:1">
-      <c r="A353" s="8" t="s">
+      <c r="A353" s="3" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="354" ht="14" spans="1:1">
-      <c r="A354" s="8" t="s">
+      <c r="A354" s="3" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="355" ht="14" spans="1:1">
-      <c r="A355" s="8" t="s">
+      <c r="A355" s="3" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="357" ht="14" spans="1:1">
-      <c r="A357" s="8" t="s">
+      <c r="A357" s="3" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="358" ht="14" spans="1:2">
-      <c r="A358" s="8" t="s">
+      <c r="A358" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B358" s="8" t="s">
+      <c r="B358" s="3" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="360" ht="14" spans="1:1">
-      <c r="A360" s="8" t="s">
+      <c r="A360" s="3" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="361" ht="14" spans="1:1">
-      <c r="A361" s="8" t="s">
+      <c r="A361" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="362" ht="14" spans="1:1">
-      <c r="A362" s="8" t="s">
+      <c r="A362" s="3" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="363" ht="18" customHeight="1" spans="1:2">
-      <c r="A363" s="8" t="s">
+      <c r="A363" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B363" s="8" t="s">
+      <c r="B363" s="3" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="364" ht="27" spans="1:1">
-      <c r="A364" s="8" t="s">
+      <c r="A364" s="3" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="366" ht="14" spans="1:1">
-      <c r="A366" s="8" t="s">
+      <c r="A366" s="3" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="367" ht="14" spans="1:2">
-      <c r="A367" s="8" t="s">
+      <c r="A367" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B367" s="8" t="s">
+      <c r="B367" s="3" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="369" ht="14" spans="1:1">
-      <c r="A369" s="8" t="s">
+      <c r="A369" s="3" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="370" ht="14" spans="1:1">
-      <c r="A370" s="8" t="s">
+      <c r="A370" s="3" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="372" ht="14" spans="1:1">
-      <c r="A372" s="8" t="s">
+      <c r="A372" s="3" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="373" ht="14" spans="1:1">
-      <c r="A373" s="8" t="s">
+      <c r="A373" s="3" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="374" ht="14" spans="1:1">
-      <c r="A374" s="8" t="s">
+      <c r="A374" s="3" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="375" ht="14" spans="1:1">
-      <c r="A375" s="8" t="s">
+      <c r="A375" s="3" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="376" ht="14" spans="1:2">
-      <c r="A376" s="8" t="s">
+      <c r="A376" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B376" s="8" t="s">
+      <c r="B376" s="3" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="377" ht="14" spans="1:1">
-      <c r="A377" s="8" t="s">
+      <c r="A377" s="3" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="378" ht="14" spans="1:1">
-      <c r="A378" s="8" t="s">
+      <c r="A378" s="3" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="379" ht="14" spans="1:1">
-      <c r="A379" s="8" t="s">
+      <c r="A379" s="3" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="380" ht="14" spans="1:1">
-      <c r="A380" s="8" t="s">
+      <c r="A380" s="3" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="381" ht="14" spans="1:1">
-      <c r="A381" s="8" t="s">
+      <c r="A381" s="3" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="382" ht="14" spans="1:1">
-      <c r="A382" s="8" t="s">
+      <c r="A382" s="3" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="383" ht="14" spans="1:1">
-      <c r="A383" s="8" t="s">
+      <c r="A383" s="3" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="384" ht="14" spans="1:1">
-      <c r="A384" s="8" t="s">
+      <c r="A384" s="3" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="385" ht="14" spans="1:1">
-      <c r="A385" s="8" t="s">
+      <c r="A385" s="3" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="386" ht="14" spans="1:2">
-      <c r="A386" s="8" t="s">
+      <c r="A386" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B386" s="8" t="s">
+      <c r="B386" s="3" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="387" ht="14" spans="1:1">
-      <c r="A387" s="8" t="s">
+      <c r="A387" s="3" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="388" ht="14" spans="1:1">
-      <c r="A388" s="8" t="s">
+      <c r="A388" s="3" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="389" ht="14" spans="1:1">
-      <c r="A389" s="8" t="s">
+      <c r="A389" s="3" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="390" ht="14" spans="1:1">
-      <c r="A390" s="8" t="s">
+      <c r="A390" s="3" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="391" ht="14" spans="1:1">
-      <c r="A391" s="8" t="s">
+      <c r="A391" s="3" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="392" ht="14" spans="1:1">
-      <c r="A392" s="8" t="s">
+      <c r="A392" s="3" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="393" ht="14" spans="1:1">
-      <c r="A393" s="8" t="s">
+      <c r="A393" s="3" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="394" ht="14" spans="1:1">
-      <c r="A394" s="8" t="s">
+      <c r="A394" s="3" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="395" ht="14" spans="1:1">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="396" ht="14" spans="1:1">
-      <c r="A396" s="8" t="s">
+      <c r="A396" s="3" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="397" ht="14" spans="1:1">
-      <c r="A397" s="8" t="s">
+      <c r="A397" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="399" ht="14" spans="1:1">
-      <c r="A399" s="8" t="s">
+      <c r="A399" s="3" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="400" ht="14" spans="1:1">
-      <c r="A400" s="8" t="s">
+      <c r="A400" s="3" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="401" ht="14" spans="1:1">
-      <c r="A401" s="8" t="s">
+      <c r="A401" s="3" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="402" ht="14" spans="1:2">
-      <c r="A402" s="8" t="s">
+      <c r="A402" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B402" s="8" t="s">
+      <c r="B402" s="3" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="403" ht="14" spans="1:1">
-      <c r="A403" s="8" t="s">
+      <c r="A403" s="3" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="404" ht="14" spans="1:1">
-      <c r="A404" s="8" t="s">
+      <c r="A404" s="3" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="405" ht="14" spans="1:1">
-      <c r="A405" s="8" t="s">
+      <c r="A405" s="3" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="406" ht="14" spans="1:1">
-      <c r="A406" s="8" t="s">
+      <c r="A406" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="408" ht="14" spans="1:1">
-      <c r="A408" s="8" t="s">
+      <c r="A408" s="3" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="409" ht="14" spans="1:1">
-      <c r="A409" s="8" t="s">
+      <c r="A409" s="3" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="410" ht="14" spans="1:1">
-      <c r="A410" s="8" t="s">
+      <c r="A410" s="3" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="411" ht="14" spans="1:1">
-      <c r="A411" s="8" t="s">
+      <c r="A411" s="3" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="412" ht="14" spans="1:1">
-      <c r="A412" s="8" t="s">
+      <c r="A412" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="413" ht="14" spans="1:1">
-      <c r="A413" s="8" t="s">
+      <c r="A413" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="414" ht="14" spans="1:1">
-      <c r="A414" s="8" t="s">
+      <c r="A414" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="415" ht="27" spans="1:1">
-      <c r="A415" s="8" t="s">
+      <c r="A415" s="3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="416" ht="27" spans="1:1">
-      <c r="A416" s="8" t="s">
+      <c r="A416" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="417" ht="27" spans="1:1">
-      <c r="A417" s="8" t="s">
+      <c r="A417" s="3" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="418" ht="14" spans="1:1">
-      <c r="A418" s="8" t="s">
+      <c r="A418" s="3" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="419" ht="14" spans="1:1">
-      <c r="A419" s="11" t="s">
+      <c r="A419" s="9" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="420" ht="14" spans="1:1">
-      <c r="A420" s="11" t="s">
+      <c r="A420" s="9" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="421" ht="14" spans="1:1">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="3" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="422" ht="27" spans="1:1">
-      <c r="A422" s="8" t="s">
+      <c r="A422" s="3" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="423" ht="14" spans="1:1">
-      <c r="A423" s="8" t="s">
+      <c r="A423" s="3" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="424" ht="14" spans="1:1">
-      <c r="A424" s="8" t="s">
+      <c r="A424" s="3" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="425" ht="14" spans="1:1">
-      <c r="A425" s="8" t="s">
+      <c r="A425" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="426" ht="14" spans="1:1">
-      <c r="A426" s="8" t="s">
+      <c r="A426" s="3" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="428" ht="14" spans="1:1">
-      <c r="A428" s="8" t="s">
+      <c r="A428" s="3" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="429" ht="14" spans="1:1">
-      <c r="A429" s="8" t="s">
+      <c r="A429" s="3" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="430" ht="27" spans="1:1">
-      <c r="A430" s="8" t="s">
+      <c r="A430" s="3" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="431" ht="27" spans="1:1">
-      <c r="A431" s="8" t="s">
+      <c r="A431" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="433" ht="14" spans="1:1">
-      <c r="A433" s="8" t="s">
+      <c r="A433" s="3" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="434" ht="14" spans="1:1">
-      <c r="A434" s="8" t="s">
+      <c r="A434" s="3" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="435" ht="14" spans="1:1">
-      <c r="A435" s="8" t="s">
+      <c r="A435" s="3" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="437" ht="14" spans="1:1">
-      <c r="A437" s="8" t="s">
+      <c r="A437" s="3" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="438" ht="27" spans="1:1">
-      <c r="A438" s="8" t="s">
+      <c r="A438" s="3" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="439" ht="27" spans="1:2">
-      <c r="A439" s="8" t="s">
+      <c r="A439" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B439" s="8" t="s">
+      <c r="B439" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="440" ht="27" spans="1:1">
-      <c r="A440" s="8" t="s">
+      <c r="A440" s="3" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="441" ht="14" spans="1:1">
-      <c r="A441" s="8" t="s">
+      <c r="A441" s="3" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="442" ht="27" spans="1:1">
-      <c r="A442" s="8" t="s">
+      <c r="A442" s="3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="443" ht="27" spans="1:1">
-      <c r="A443" s="8" t="s">
+      <c r="A443" s="3" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="444" ht="14" spans="1:1">
-      <c r="A444" s="8" t="s">
+      <c r="A444" s="3" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="445" ht="14" spans="1:1">
-      <c r="A445" s="8" t="s">
+      <c r="A445" s="3" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="449" ht="14" spans="1:1">
-      <c r="A449" s="8" t="s">
+      <c r="A449" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="450" ht="14" spans="1:1">
-      <c r="A450" s="8" t="s">
+      <c r="A450" s="3" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="451" ht="53" spans="1:2">
-      <c r="A451" s="8" t="s">
+      <c r="A451" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B451" s="8" t="s">
+      <c r="B451" s="3" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="452" ht="14" spans="1:1">
-      <c r="A452" s="8" t="s">
+      <c r="A452" s="3" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="453" ht="14" spans="1:2">
-      <c r="A453" s="8" t="s">
+      <c r="A453" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B453" s="8" t="s">
+      <c r="B453" s="3" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="455" ht="14" spans="1:1">
-      <c r="A455" s="8" t="s">
+      <c r="A455" s="3" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="456" ht="14" spans="1:1">
-      <c r="A456" s="8" t="s">
+      <c r="A456" s="3" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="457" ht="14" spans="1:1">
-      <c r="A457" s="8" t="s">
+      <c r="A457" s="3" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="458" ht="14" spans="1:2">
-      <c r="A458" s="8" t="s">
+      <c r="A458" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B458" s="8" t="s">
+      <c r="B458" s="3" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="459" ht="14" spans="1:1">
-      <c r="A459" s="8" t="s">
+      <c r="A459" s="3" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="460" ht="14" spans="1:1">
-      <c r="A460" s="8" t="s">
+      <c r="A460" s="3" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="462" ht="14" spans="1:1">
-      <c r="A462" s="8" t="s">
+      <c r="A462" s="3" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="463" ht="14" spans="1:1">
-      <c r="A463" s="8" t="s">
+      <c r="A463" s="3" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="464" ht="14" spans="1:1">
-      <c r="A464" s="8" t="s">
+      <c r="A464" s="3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="465" ht="14" spans="1:1">
-      <c r="A465" s="8" t="s">
+      <c r="A465" s="3" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="466" ht="14" spans="1:1">
-      <c r="A466" s="8" t="s">
+      <c r="A466" s="3" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="467" ht="14" spans="1:1">
-      <c r="A467" s="8" t="s">
+      <c r="A467" s="3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="469" ht="14" spans="1:1">
-      <c r="A469" s="8" t="s">
+      <c r="A469" s="3" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="470" ht="27" spans="1:1">
-      <c r="A470" s="8" t="s">
+      <c r="A470" s="3" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="471" ht="27" spans="1:1">
-      <c r="A471" s="8" t="s">
+      <c r="A471" s="3" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="473" ht="14" spans="1:1">
-      <c r="A473" s="8" t="s">
+      <c r="A473" s="3" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="474" ht="14" spans="1:2">
-      <c r="A474" s="8" t="s">
+      <c r="A474" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B474" s="8" t="s">
+      <c r="B474" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="475" ht="27" spans="1:1">
-      <c r="A475" s="8" t="s">
+      <c r="A475" s="3" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="477" ht="14" spans="1:1">
-      <c r="A477" s="8" t="s">
+      <c r="A477" s="3" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="478" ht="14" spans="1:1">
-      <c r="A478" s="8" t="s">
+      <c r="A478" s="3" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="480" ht="14" spans="1:1">
-      <c r="A480" s="8" t="s">
+      <c r="A480" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="481" ht="27" spans="1:1">
-      <c r="A481" s="8" t="s">
+      <c r="A481" s="3" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="482" ht="27" spans="1:1">
-      <c r="A482" s="8" t="s">
+      <c r="A482" s="3" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="484" ht="14" spans="1:1">
-      <c r="A484" s="8" t="s">
+      <c r="A484" s="3" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="485" ht="14" spans="1:1">
-      <c r="A485" s="8" t="s">
+      <c r="A485" s="3" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="486" ht="14" spans="1:1">
-      <c r="A486" s="8" t="s">
+      <c r="A486" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="489" ht="14" spans="1:1">
-      <c r="A489" s="8" t="s">
+      <c r="A489" s="3" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="490" ht="40" spans="1:1">
-      <c r="A490" s="8" t="s">
+      <c r="A490" s="3" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="492" ht="14" spans="1:1">
-      <c r="A492" s="8" t="s">
+      <c r="A492" s="3" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="493" ht="14" spans="1:1">
-      <c r="A493" s="8" t="s">
+      <c r="A493" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="495" ht="14" spans="1:1">
-      <c r="A495" s="8" t="s">
+      <c r="A495" s="3" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="496" ht="27" spans="1:1">
-      <c r="A496" s="8" t="s">
+      <c r="A496" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="497" ht="27" spans="1:2">
-      <c r="A497" s="8" t="s">
+      <c r="A497" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B497" s="8" t="s">
+      <c r="B497" s="3" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="499" ht="14" spans="1:1">
-      <c r="A499" s="8" t="s">
+      <c r="A499" s="3" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="500" ht="27" spans="1:2">
-      <c r="A500" s="8" t="s">
+      <c r="A500" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B500" s="8" t="s">
+      <c r="B500" s="3" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="502" ht="14" spans="1:1">
-      <c r="A502" s="8" t="s">
+      <c r="A502" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="503" ht="14" spans="1:1">
-      <c r="A503" s="8" t="s">
+      <c r="A503" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="504" ht="27" spans="1:1">
-      <c r="A504" s="8" t="s">
+      <c r="A504" s="3" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="506" ht="14" spans="1:1">
-      <c r="A506" s="12" t="s">
+      <c r="A506" s="10" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="507" ht="27" spans="1:1">
-      <c r="A507" s="12" t="s">
+      <c r="A507" s="10" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="509" ht="14" spans="1:1">
-      <c r="A509" s="8" t="s">
+      <c r="A509" s="3" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="510" ht="14" spans="1:1">
-      <c r="A510" s="8" t="s">
+      <c r="A510" s="3" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="512" ht="14" spans="1:1">
-      <c r="A512" s="8" t="s">
+      <c r="A512" s="3" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="513" ht="14" spans="1:1">
-      <c r="A513" s="8" t="s">
+      <c r="A513" s="3" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="526" ht="14" spans="1:1">
-      <c r="A526" s="8" t="s">
+      <c r="A526" s="3" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="527" ht="14" spans="1:1">
-      <c r="A527" s="8" t="s">
+      <c r="A527" s="3" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="528" ht="27" spans="1:1">
-      <c r="A528" s="8" t="s">
+      <c r="A528" s="3" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6217,8 +6267,8 @@
   <sheetPr/>
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelCol="2"/>
@@ -6230,10 +6280,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="16" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -6246,7 +6296,7 @@
       </c>
     </row>
     <row r="3" ht="16" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>478</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -6254,7 +6304,7 @@
       </c>
     </row>
     <row r="4" ht="16" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>480</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -6262,7 +6312,7 @@
       </c>
     </row>
     <row r="5" ht="16" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>482</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -6278,7 +6328,7 @@
       </c>
     </row>
     <row r="7" ht="16" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>486</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -6286,12 +6336,12 @@
       </c>
     </row>
     <row r="8" ht="16" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>489</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -6299,7 +6349,7 @@
       </c>
     </row>
     <row r="10" ht="16" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>491</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -6318,61 +6368,55 @@
       </c>
     </row>
     <row r="12" ht="31" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>496</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="6"/>
-    </row>
     <row r="14" ht="16" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="15" ht="31" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="17" ht="16" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="18" ht="31" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="19" ht="16" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="20" ht="16" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="21" ht="16" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6"/>
-    </row>
     <row r="23" ht="16" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="24" ht="46" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>506</v>
       </c>
     </row>
@@ -6382,20 +6426,17 @@
       </c>
     </row>
     <row r="26" ht="16" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="6"/>
-    </row>
     <row r="28" ht="16" spans="1:1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="29" ht="46" spans="1:2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>509</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -6403,12 +6444,12 @@
       </c>
     </row>
     <row r="31" ht="16" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="32" ht="16" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>512</v>
       </c>
     </row>
@@ -6421,33 +6462,27 @@
       </c>
     </row>
     <row r="35" ht="16" spans="1:1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="36" ht="16" spans="1:1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="37" ht="16" spans="1:1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="6"/>
-    </row>
     <row r="40" ht="16" spans="1:1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="41" ht="31" spans="1:2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>519</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -6455,7 +6490,7 @@
       </c>
     </row>
     <row r="42" ht="31" spans="1:2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>521</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -6463,12 +6498,12 @@
       </c>
     </row>
     <row r="43" ht="16" spans="1:1">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="44" ht="31" spans="1:1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6501,7 +6536,7 @@
       <c r="A55" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>531</v>
       </c>
     </row>
@@ -6509,33 +6544,33 @@
       <c r="A56" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" ht="46" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B57" s="7"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" ht="46" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B58" s="7"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" ht="46" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="61" ht="16" spans="1:1">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="4" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="62" ht="16" spans="1:1">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="4" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6545,12 +6580,12 @@
       </c>
     </row>
     <row r="66" ht="16" spans="1:1">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="4" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="67" ht="16" spans="1:1">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="4" t="s">
         <v>540</v>
       </c>
     </row>
@@ -6610,7 +6645,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="82" ht="46" spans="1:3">
+    <row r="82" ht="31" spans="1:3">
       <c r="A82" s="4" t="s">
         <v>553</v>
       </c>
@@ -6881,7 +6916,7 @@
       <c r="A148" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="6" t="s">
         <v>610</v>
       </c>
     </row>
@@ -7054,8 +7089,8 @@
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
@@ -7078,7 +7113,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="4" ht="106" spans="1:1">
+    <row r="4" ht="172" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>642</v>
       </c>
@@ -7093,12 +7128,12 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" ht="53" spans="1:1">
+    <row r="9" ht="66" spans="1:1">
       <c r="A9" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="11" ht="40" spans="1:1">
+    <row r="11" ht="159" spans="1:1">
       <c r="A11" s="3" t="s">
         <v>646</v>
       </c>

--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -2889,7 +2889,8 @@
 //2   this._engine.globalVariables.pausedVideo 是否可以订阅
 //3   this._engine.mainClientVariables.mutedRemoteVideoStreams 如果有自己，那么以这个为准，否则以4为准
 //4.  this._engine.globalVariables.defaultMutedAllRemoteVideoStreams 里是否可以订阅
-//5   this._engine.mainClientVariables.remoteVideoStreamType 如果有自己，则订阅大小流量以这个为准，否则以6为准</t>
+//5   this._engine.mainClientVariables.remoteVideoStreamTypes 如果有自己，则订阅大小流量以这个为准，否则以6为准
+//6        this._engine.mainClientVariables.remoteDefaultVideoStreamType 设置大小流</t>
   </si>
   <si>
     <t>、、</t>
@@ -7089,8 +7090,8 @@
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>

--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29480" windowHeight="13200" activeTab="3"/>
+    <workbookView windowWidth="28000" windowHeight="13440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="648">
   <si>
     <t>C++功能</t>
   </si>
@@ -2534,6 +2534,9 @@
     <t>OnAudioDeviceVolumeChanged(MEDIA_DEVICE_TYPE deviceType, int volume, bool muted) { }</t>
   </si>
   <si>
+    <t>可能会被触发</t>
+  </si>
+  <si>
     <t>void OnCameraReady()</t>
   </si>
   <si>
@@ -2599,6 +2602,9 @@
     <t>OnConnectionLost(RtcConnection connection)</t>
   </si>
   <si>
+    <t>client.onEventConnectionStateChange</t>
+  </si>
+  <si>
     <t>OnConnectionInterrupted(RtcConnection connection)</t>
   </si>
   <si>
@@ -2606,9 +2612,6 @@
   </si>
   <si>
     <t>void OnConnectionStateChanged(RtcConnection connection, CONNECTION_STATE_TYPE state, CONNECTION_CHANGED_REASON_TYPE reason)</t>
-  </si>
-  <si>
-    <t>client.onEventConnectionStateChange</t>
   </si>
   <si>
     <t>首帧/尾帧回调</t>
@@ -2884,13 +2887,13 @@
     <t>void OnDirectCdnStreamingStats(DirectCdnStreamingStats stats)</t>
   </si>
   <si>
-    <t xml:space="preserve"> //mainClient 当一个远端的video流被 发布过来的时候。
+    <t xml:space="preserve"> //mainClient    当一个远端的video流被 发布过来的时候。
 //1.  this._engine.globalVariables.enabledVideo 是否可以订阅
 //2   this._engine.globalVariables.pausedVideo 是否可以订阅
 //3   this._engine.mainClientVariables.mutedRemoteVideoStreams 如果有自己，那么以这个为准，否则以4为准
 //4.  this._engine.globalVariables.defaultMutedAllRemoteVideoStreams 里是否可以订阅
 //5   this._engine.mainClientVariables.remoteVideoStreamTypes 如果有自己，则订阅大小流量以这个为准，否则以6为准
-//6        this._engine.mainClientVariables.remoteDefaultVideoStreamType 设置大小流</t>
+//6   this._engine.mainClientVariables.remoteDefaultVideoStreamType 设置大小流</t>
   </si>
   <si>
     <t>、、</t>
@@ -3140,12 +3143,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3445,76 +3466,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3523,7 +3544,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3532,7 +3553,7 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3544,25 +3565,25 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3574,23 +3595,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3609,8 +3630,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3621,7 +3651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
@@ -3948,8 +3978,8 @@
   <sheetPr/>
   <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -3973,7 +4003,7 @@
       </c>
     </row>
     <row r="3" ht="14" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3981,33 +4011,33 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7"/>
+      <c r="A4" s="10"/>
     </row>
     <row r="5" ht="14" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14" spans="1:1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7"/>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" ht="14" spans="1:1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4015,12 +4045,12 @@
       </c>
     </row>
     <row r="12" ht="14" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -4028,22 +4058,22 @@
       </c>
     </row>
     <row r="14" ht="27" spans="1:1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" ht="38" customHeight="1" spans="1:1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" ht="14" spans="1:1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4051,7 +4081,7 @@
       </c>
     </row>
     <row r="18" ht="14" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4059,7 +4089,7 @@
       </c>
     </row>
     <row r="19" ht="14" spans="1:1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4069,7 +4099,7 @@
       </c>
     </row>
     <row r="21" ht="14" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4092,7 +4122,7 @@
       </c>
     </row>
     <row r="27" ht="27" spans="1:1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4142,7 +4172,7 @@
       </c>
     </row>
     <row r="40" ht="14" spans="1:2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -4150,7 +4180,7 @@
       </c>
     </row>
     <row r="41" ht="14" spans="1:1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4170,12 +4200,12 @@
       </c>
     </row>
     <row r="46" ht="27" spans="1:1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" ht="14" spans="1:1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4190,7 +4220,7 @@
       </c>
     </row>
     <row r="51" ht="14" spans="1:1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4240,7 +4270,7 @@
       </c>
     </row>
     <row r="64" ht="14" spans="1:1">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4278,7 +4308,7 @@
       </c>
     </row>
     <row r="73" ht="14" spans="1:1">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4298,7 +4328,7 @@
       </c>
     </row>
     <row r="78" ht="14" spans="1:2">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -4314,45 +4344,45 @@
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="10"/>
+      <c r="A80" s="13"/>
     </row>
     <row r="81" ht="14" spans="1:1">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="82" ht="14" spans="1:1">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="83" ht="27" spans="1:1">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="84" ht="14" spans="1:1">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="85" ht="27" spans="1:1">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="86" ht="27" spans="1:1">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="87" ht="27" spans="1:1">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="88" ht="14" spans="1:1">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4362,7 +4392,7 @@
       </c>
     </row>
     <row r="91" ht="27" spans="1:1">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="12" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4382,17 +4412,17 @@
       </c>
     </row>
     <row r="96" ht="27" spans="1:1">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="97" ht="14" spans="1:1">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="98" ht="14" spans="1:1">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4487,7 +4517,7 @@
       </c>
     </row>
     <row r="123" ht="14" spans="1:1">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="12" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4500,7 +4530,7 @@
       <c r="A126" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4558,7 +4588,7 @@
       <c r="A138" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4583,17 +4613,17 @@
       </c>
     </row>
     <row r="146" ht="14" spans="1:1">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="147" ht="14" spans="1:1">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="148" ht="14" spans="1:1">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="13" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4884,7 +4914,7 @@
       </c>
     </row>
     <row r="209" ht="14" spans="1:2">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="12" t="s">
         <v>190</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -4892,7 +4922,7 @@
       </c>
     </row>
     <row r="210" ht="27" spans="1:2">
-      <c r="A210" s="9" t="s">
+      <c r="A210" s="12" t="s">
         <v>192</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -4900,7 +4930,7 @@
       </c>
     </row>
     <row r="211" ht="27" spans="1:2">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -4908,12 +4938,12 @@
       </c>
     </row>
     <row r="212" ht="27" spans="1:1">
-      <c r="A212" s="9" t="s">
+      <c r="A212" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="213" ht="27" spans="1:2">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="12" t="s">
         <v>197</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -4921,7 +4951,7 @@
       </c>
     </row>
     <row r="214" ht="27" spans="1:2">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B214" s="3" t="s">
@@ -4929,7 +4959,7 @@
       </c>
     </row>
     <row r="215" ht="27" spans="1:2">
-      <c r="A215" s="9" t="s">
+      <c r="A215" s="12" t="s">
         <v>200</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -4987,7 +5017,7 @@
       </c>
     </row>
     <row r="228" ht="14" spans="1:2">
-      <c r="A228" s="9" t="s">
+      <c r="A228" s="12" t="s">
         <v>212</v>
       </c>
       <c r="B228" s="3" t="s">
@@ -5853,12 +5883,12 @@
       </c>
     </row>
     <row r="419" ht="14" spans="1:1">
-      <c r="A419" s="9" t="s">
+      <c r="A419" s="12" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="420" ht="14" spans="1:1">
-      <c r="A420" s="9" t="s">
+      <c r="A420" s="12" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6209,12 +6239,12 @@
       </c>
     </row>
     <row r="506" ht="14" spans="1:1">
-      <c r="A506" s="10" t="s">
+      <c r="A506" s="13" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="507" ht="27" spans="1:1">
-      <c r="A507" s="10" t="s">
+      <c r="A507" s="13" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6268,8 +6298,8 @@
   <sheetPr/>
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelCol="2"/>
@@ -6483,7 +6513,7 @@
       </c>
     </row>
     <row r="41" ht="31" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>519</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -6491,7 +6521,7 @@
       </c>
     </row>
     <row r="42" ht="31" spans="1:2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="6" t="s">
         <v>521</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -6499,311 +6529,329 @@
       </c>
     </row>
     <row r="43" ht="16" spans="1:1">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="44" ht="31" spans="1:1">
-      <c r="A44" s="4" t="s">
+    <row r="44" ht="31" spans="1:2">
+      <c r="A44" s="7" t="s">
         <v>524</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="46" ht="16" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" ht="16" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" ht="16" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" ht="31" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" ht="16" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" ht="46" spans="1:2">
-      <c r="A55" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="6" t="s">
         <v>531</v>
       </c>
+      <c r="B55" s="8" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="56" ht="46" spans="1:2">
-      <c r="A56" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="B56" s="6"/>
+      <c r="A56" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" ht="46" spans="1:2">
-      <c r="A57" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="B57" s="6"/>
+      <c r="A57" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" ht="46" spans="1:2">
-      <c r="A58" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="B58" s="6"/>
+      <c r="A58" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" ht="46" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="B59" s="6"/>
+        <v>536</v>
+      </c>
+      <c r="B59" s="8"/>
     </row>
     <row r="61" ht="16" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="62" ht="16" spans="1:1">
       <c r="A62" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="63" ht="31" spans="1:1">
       <c r="A63" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66" ht="16" spans="1:1">
       <c r="A66" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" ht="16" spans="1:1">
       <c r="A67" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70" ht="16" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" ht="31" spans="1:1">
       <c r="A71" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73" ht="16" spans="1:1">
       <c r="A73" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="74" ht="16" spans="1:1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="74" ht="16" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="75" ht="16" spans="1:1">
       <c r="A75" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="76" ht="16" spans="1:1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76" ht="16" spans="1:2">
       <c r="A76" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="77" ht="46" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="79" ht="16" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" ht="31" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" ht="31" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" ht="31" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="83" ht="31" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="83" ht="31" spans="1:1">
-      <c r="A83" s="4" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="84" ht="16" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="85" ht="31" spans="1:1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="85" ht="31" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="86" ht="31" spans="1:1">
+        <v>560</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="86" ht="31" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="88" ht="16" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" ht="31" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="90" ht="31" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" ht="16" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" ht="46" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" ht="31" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96" ht="16" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="97" ht="46" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="98" ht="46" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="101" ht="16" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" ht="16" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" ht="16" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" ht="31" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="106" ht="31" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="109" ht="16" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="110" ht="16" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="112" ht="16" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113" ht="46" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" ht="31" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="116" ht="16" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="117" ht="16" spans="1:2">
       <c r="A117" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="118" ht="16" spans="1:2">
       <c r="A118" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="120" ht="16" spans="1:1">
       <c r="A120" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="121" ht="16" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="123" ht="16" spans="1:1">
@@ -6813,250 +6861,255 @@
     </row>
     <row r="124" ht="16" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="125" ht="46" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="127" ht="16" spans="1:1">
       <c r="A127" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="128" ht="31" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="129" ht="46" spans="1:1">
       <c r="A129" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="131" ht="16" spans="1:1">
       <c r="A131" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="132" ht="31" spans="1:2">
       <c r="A132" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="133" ht="16" spans="1:2">
       <c r="A133" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="134" ht="31" spans="1:1">
       <c r="A134" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="135" ht="31" spans="1:1">
       <c r="A135" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="136" ht="31" spans="1:1">
+      <c r="A136" s="4" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="137" ht="16" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="138" ht="31" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="140" ht="16" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="141" ht="16" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="143" ht="16" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="144" ht="16" spans="1:2">
       <c r="A144" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="145" ht="16" spans="1:2">
       <c r="A145" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="147" ht="16" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="148" ht="16" spans="1:2">
       <c r="A148" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B148" s="6" t="s">
         <v>610</v>
       </c>
+      <c r="B148" s="8" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="149" ht="16" spans="1:1">
-      <c r="A149" s="4" t="s">
-        <v>611</v>
+      <c r="A149" s="6" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="151" ht="16" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="152" ht="31" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="154" ht="16" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="155" ht="31" spans="1:2">
       <c r="A155" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="157" ht="16" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="158" ht="46" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" ht="16" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="160" ht="31" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="161" ht="16" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="162" ht="16" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="164" ht="16" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="165" ht="16" spans="1:1">
       <c r="A165" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="167" ht="16" spans="1:1">
       <c r="A167" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="168" ht="46" spans="1:1">
       <c r="A168" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="169" ht="46" spans="1:1">
       <c r="A169" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="171" ht="16" spans="1:1">
       <c r="A171" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="172" ht="31" spans="1:1">
       <c r="A172" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="173" ht="31" spans="1:1">
       <c r="A173" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="175" ht="16" spans="1:1">
       <c r="A175" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="176" ht="16" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="177" ht="16" spans="1:1">
       <c r="A177" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="178" ht="16" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="179" ht="16" spans="1:1">
       <c r="A179" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="181" ht="16" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="182" ht="31" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="183" ht="16" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -7090,8 +7143,8 @@
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
@@ -7101,42 +7154,42 @@
   <sheetData>
     <row r="1" ht="179" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" ht="255" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" ht="172" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" ht="191" customHeight="1" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" ht="53" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" ht="66" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" ht="159" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13440" activeTab="1"/>
+    <workbookView windowWidth="31960" windowHeight="13400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
     <sheet name="eventHandle" sheetId="2" r:id="rId2"/>
     <sheet name="3.8.201" sheetId="3" r:id="rId3"/>
     <sheet name="流的流程" sheetId="4" r:id="rId4"/>
+    <sheet name="exception转换" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="685">
   <si>
     <t>C++功能</t>
   </si>
@@ -2501,7 +2502,11 @@
     <t>void OnNetworkQuality(RtcConnection connection, uint remoteUid, int txQuality, int rxQuality)</t>
   </si>
   <si>
-    <t>client.network-quality</t>
+    <t xml:space="preserve">
+client.getRemoteNetworkQuality</t>
+  </si>
+  <si>
+    <t>client.network-quality,这是获取自己的网络状态</t>
   </si>
   <si>
     <t>上/下行网络信息</t>
@@ -2744,7 +2749,7 @@
     <t>void OnClientRoleChangeFailed(RtcConnection connection, CLIENT_ROLE_CHANGE_FAILED_REASON reason, CLIENT_ROLE_TYPE currentRole)</t>
   </si>
   <si>
-    <t>RtmpStreaming相关</t>
+    <t>RtmpStreaming相关//todo 放到后边做。 要在clientEvent里保存当前推流状态（RTMP_STREAM_PUBLISH_STATE）才行</t>
   </si>
   <si>
     <t>OnRtmpStreamingStateChanged(string url, RTMP_STREAM_PUBLISH_STATE state, RTMP_STREAM_PUBLISH_ERROR_TYPE errCode)</t>
@@ -2756,10 +2761,14 @@
     <t>OnRtmpStreamingEvent(string url, RTMP_STREAMING_EVENT eventCode)</t>
   </si>
   <si>
-    <t>client.live-streaming-warning</t>
+    <t>client.live-streaming-error, client.live-streaming-warning</t>
   </si>
   <si>
     <t>OnStreamPublished(string url, int error)//use OnRtmpStreamingStateChanged instead.</t>
+  </si>
+  <si>
+    <t>在推流的时候，promise前后做，也要触发
+OnRtmpStreamingStateChanged(string url, RTMP_STREAM_PUBLISH_STATE state, RTMP_STREAM_PUBLISH_ERROR_TYPE errCode)</t>
   </si>
   <si>
     <t>OnStreamUnpublished(string url)//Use onRtmpStreamingStateChanged instead of</t>
@@ -2958,6 +2967,111 @@
    defaultMutedAllRemoteAudioStreams
 4. muted 
 3. 读取 playbackDeviceId的值，如果不是null,则设置一下playDevice呢</t>
+  </si>
+  <si>
+    <t>事件码</t>
+  </si>
+  <si>
+    <t>提示消息</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 异常</t>
+  </si>
+  <si>
+    <t>FRAMERATE_INPUT_TOO_LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 视频采集帧率过低</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRAMERATE_SENT_TOO_LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 视频发送帧率过低</t>
+  </si>
+  <si>
+    <t>SEND_VIDEO_BITRATE_TOO_LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 视频发送码率过低</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RECV_VIDEO_DECODE_FAILED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 接收视频解码失败</t>
+  </si>
+  <si>
+    <t>AUDIO_INPUT_LEVEL_TOO_LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 发送音量过低</t>
+  </si>
+  <si>
+    <t>AUDIO_OUTPUT_LEVEL_TOO_LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 接收音量过低</t>
+  </si>
+  <si>
+    <t>SEND_AUDIO_BITRATE_TOO_LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 音频发送码率过低</t>
+  </si>
+  <si>
+    <t>RECV_AUDIO_DECODE_FAILED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 接收音频解码失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRAMERATE_INPUT_TOO_LOW_RECOVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 视频采集帧率恢复正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRAMERATE_SENT_TOO_LOW_RECOVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 视频发送帧率恢复正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEND_VIDEO_BITRATE_TOO_LOW_RECOVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 视频发送码率恢复正常</t>
+  </si>
+  <si>
+    <t>RECV_VIDEO_DECODE_FAILED_RECOVER</t>
+  </si>
+  <si>
+    <t>接收视频解码恢复正常</t>
+  </si>
+  <si>
+    <t>AUDIO_INPUT_LEVEL_TOO_LOW_RECOVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 发送音量恢复正常</t>
+  </si>
+  <si>
+    <t>AUDIO_OUTPUT_LEVEL_TOO_LOW_RECOVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 接收音量恢复正常</t>
+  </si>
+  <si>
+    <t>SEND_AUDIO_BITRATE_TOO_LOW_RECOVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 音频发送码率恢复正常</t>
+  </si>
+  <si>
+    <t>RECV_AUDIO_DECODE_FAILED_RECOVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 接收音频解码恢复正常</t>
   </si>
 </sst>
 </file>
@@ -3143,7 +3257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3158,6 +3272,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3165,6 +3285,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3466,76 +3592,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3544,7 +3670,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3553,7 +3679,7 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3565,25 +3691,25 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3595,23 +3721,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3636,10 +3762,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3651,7 +3783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
@@ -4003,7 +4135,7 @@
       </c>
     </row>
     <row r="3" ht="14" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4011,33 +4143,33 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" ht="14" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="14" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" ht="14" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="14" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4045,12 +4177,12 @@
       </c>
     </row>
     <row r="12" ht="14" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -4058,22 +4190,22 @@
       </c>
     </row>
     <row r="14" ht="27" spans="1:1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" ht="38" customHeight="1" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" ht="14" spans="1:1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4081,7 +4213,7 @@
       </c>
     </row>
     <row r="18" ht="14" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4089,7 +4221,7 @@
       </c>
     </row>
     <row r="19" ht="14" spans="1:1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4099,7 +4231,7 @@
       </c>
     </row>
     <row r="21" ht="14" spans="1:1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4122,7 +4254,7 @@
       </c>
     </row>
     <row r="27" ht="27" spans="1:1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4172,7 +4304,7 @@
       </c>
     </row>
     <row r="40" ht="14" spans="1:2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -4180,7 +4312,7 @@
       </c>
     </row>
     <row r="41" ht="14" spans="1:1">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4200,12 +4332,12 @@
       </c>
     </row>
     <row r="46" ht="27" spans="1:1">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" ht="14" spans="1:1">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4220,7 +4352,7 @@
       </c>
     </row>
     <row r="51" ht="14" spans="1:1">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4270,7 +4402,7 @@
       </c>
     </row>
     <row r="64" ht="14" spans="1:1">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4308,7 +4440,7 @@
       </c>
     </row>
     <row r="73" ht="14" spans="1:1">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4328,7 +4460,7 @@
       </c>
     </row>
     <row r="78" ht="14" spans="1:2">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -4344,45 +4476,45 @@
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="13"/>
+      <c r="A80" s="15"/>
     </row>
     <row r="81" ht="14" spans="1:1">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="82" ht="14" spans="1:1">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="83" ht="27" spans="1:1">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="84" ht="14" spans="1:1">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="85" ht="27" spans="1:1">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="86" ht="27" spans="1:1">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="87" ht="27" spans="1:1">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="88" ht="14" spans="1:1">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4392,7 +4524,7 @@
       </c>
     </row>
     <row r="91" ht="27" spans="1:1">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4412,17 +4544,17 @@
       </c>
     </row>
     <row r="96" ht="27" spans="1:1">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="97" ht="14" spans="1:1">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="98" ht="14" spans="1:1">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4517,7 +4649,7 @@
       </c>
     </row>
     <row r="123" ht="14" spans="1:1">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="14" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4530,7 +4662,7 @@
       <c r="A126" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4588,7 +4720,7 @@
       <c r="A138" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="16" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4613,17 +4745,17 @@
       </c>
     </row>
     <row r="146" ht="14" spans="1:1">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="147" ht="14" spans="1:1">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="148" ht="14" spans="1:1">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="15" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4914,7 +5046,7 @@
       </c>
     </row>
     <row r="209" ht="14" spans="1:2">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="14" t="s">
         <v>190</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -4922,7 +5054,7 @@
       </c>
     </row>
     <row r="210" ht="27" spans="1:2">
-      <c r="A210" s="12" t="s">
+      <c r="A210" s="14" t="s">
         <v>192</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -4930,7 +5062,7 @@
       </c>
     </row>
     <row r="211" ht="27" spans="1:2">
-      <c r="A211" s="12" t="s">
+      <c r="A211" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -4938,12 +5070,12 @@
       </c>
     </row>
     <row r="212" ht="27" spans="1:1">
-      <c r="A212" s="12" t="s">
+      <c r="A212" s="14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="213" ht="27" spans="1:2">
-      <c r="A213" s="12" t="s">
+      <c r="A213" s="14" t="s">
         <v>197</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -4951,7 +5083,7 @@
       </c>
     </row>
     <row r="214" ht="27" spans="1:2">
-      <c r="A214" s="12" t="s">
+      <c r="A214" s="14" t="s">
         <v>199</v>
       </c>
       <c r="B214" s="3" t="s">
@@ -4959,7 +5091,7 @@
       </c>
     </row>
     <row r="215" ht="27" spans="1:2">
-      <c r="A215" s="12" t="s">
+      <c r="A215" s="14" t="s">
         <v>200</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -5017,7 +5149,7 @@
       </c>
     </row>
     <row r="228" ht="14" spans="1:2">
-      <c r="A228" s="12" t="s">
+      <c r="A228" s="14" t="s">
         <v>212</v>
       </c>
       <c r="B228" s="3" t="s">
@@ -5883,12 +6015,12 @@
       </c>
     </row>
     <row r="419" ht="14" spans="1:1">
-      <c r="A419" s="12" t="s">
+      <c r="A419" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="420" ht="14" spans="1:1">
-      <c r="A420" s="12" t="s">
+      <c r="A420" s="14" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6239,12 +6371,12 @@
       </c>
     </row>
     <row r="506" ht="14" spans="1:1">
-      <c r="A506" s="13" t="s">
+      <c r="A506" s="15" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="507" ht="27" spans="1:1">
-      <c r="A507" s="13" t="s">
+      <c r="A507" s="15" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6298,8 +6430,8 @@
   <sheetPr/>
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelCol="2"/>
@@ -6467,7 +6599,7 @@
       </c>
     </row>
     <row r="29" ht="46" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>509</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -6484,374 +6616,377 @@
         <v>512</v>
       </c>
     </row>
-    <row r="33" ht="31" spans="1:2">
-      <c r="A33" s="4" t="s">
+    <row r="33" ht="31" spans="1:3">
+      <c r="A33" s="7" t="s">
         <v>513</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>514</v>
       </c>
+      <c r="C33" s="5" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="35" ht="16" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" ht="16" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" ht="16" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" ht="16" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" ht="31" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" ht="31" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" ht="16" spans="1:1">
       <c r="A43" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" ht="31" spans="1:2">
-      <c r="A44" s="7" t="s">
-        <v>524</v>
+      <c r="A44" s="8" t="s">
+        <v>525</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" ht="16" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" ht="16" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" ht="16" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" ht="31" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" ht="16" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55" ht="46" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B55" s="8" t="s">
         <v>532</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="56" ht="46" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B56" s="8"/>
+        <v>534</v>
+      </c>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" ht="46" spans="1:2">
-      <c r="A57" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="B57" s="8"/>
+      <c r="A57" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" ht="46" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="B58" s="8"/>
+        <v>536</v>
+      </c>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" ht="46" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="B59" s="8"/>
+        <v>537</v>
+      </c>
+      <c r="B59" s="9"/>
     </row>
     <row r="61" ht="16" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="62" ht="16" spans="1:1">
       <c r="A62" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63" ht="31" spans="1:1">
       <c r="A63" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="66" ht="16" spans="1:1">
       <c r="A66" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="67" ht="16" spans="1:1">
       <c r="A67" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70" ht="16" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71" ht="31" spans="1:1">
       <c r="A71" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="73" ht="16" spans="1:1">
       <c r="A73" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74" ht="16" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" ht="16" spans="1:1">
       <c r="A75" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" ht="16" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="77" ht="46" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" ht="16" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" ht="31" spans="1:1">
       <c r="A80" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="81" ht="31" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" ht="31" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="83" ht="31" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" ht="16" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="85" ht="31" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="86" ht="31" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="88" ht="16" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" ht="31" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90" ht="31" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92" ht="16" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="93" ht="46" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94" ht="31" spans="1:1">
       <c r="A94" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" ht="16" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" ht="46" spans="1:1">
       <c r="A97" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="98" ht="46" spans="1:1">
       <c r="A98" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" ht="16" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="102" ht="16" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="104" ht="16" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="105" ht="31" spans="1:1">
       <c r="A105" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="106" ht="31" spans="1:1">
       <c r="A106" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="109" ht="16" spans="1:1">
       <c r="A109" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="110" ht="16" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="112" ht="16" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" ht="46" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="114" ht="31" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" ht="16" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="117" ht="16" spans="1:2">
-      <c r="A117" s="4" t="s">
-        <v>582</v>
+      <c r="A117" s="6" t="s">
+        <v>583</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="118" ht="16" spans="1:2">
-      <c r="A118" s="4" t="s">
-        <v>584</v>
+      <c r="A118" s="6" t="s">
+        <v>585</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="120" ht="16" spans="1:1">
       <c r="A120" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="121" ht="16" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="123" ht="16" spans="1:1">
@@ -6861,260 +6996,260 @@
     </row>
     <row r="124" ht="16" spans="1:1">
       <c r="A124" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="125" ht="46" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="127" ht="16" spans="1:1">
       <c r="A127" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="128" ht="31" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="129" ht="46" spans="1:1">
       <c r="A129" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="131" ht="16" spans="1:1">
-      <c r="A131" s="4" t="s">
         <v>593</v>
+      </c>
+    </row>
+    <row r="131" ht="31" spans="1:1">
+      <c r="A131" s="8" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="132" ht="31" spans="1:2">
       <c r="A132" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="133" ht="16" spans="1:2">
-      <c r="A133" s="4" t="s">
-        <v>596</v>
+      <c r="A133" s="11" t="s">
+        <v>597</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="134" ht="31" spans="1:1">
-      <c r="A134" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="135" ht="31" spans="1:1">
-      <c r="A135" s="4" t="s">
+    <row r="134" ht="31" spans="1:2">
+      <c r="A134" s="7" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="136" ht="31" spans="1:1">
-      <c r="A136" s="4" t="s">
-        <v>599</v>
-      </c>
+      <c r="B134" s="9" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="135" ht="31" spans="1:2">
+      <c r="A135" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B135" s="9"/>
     </row>
     <row r="137" ht="16" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="138" ht="31" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="140" ht="16" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="141" ht="16" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="143" ht="16" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="144" ht="16" spans="1:2">
       <c r="A144" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="145" ht="16" spans="1:2">
       <c r="A145" s="4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="147" ht="16" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="148" ht="16" spans="1:2">
       <c r="A148" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="149" ht="16" spans="1:1">
       <c r="A149" s="6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="151" ht="16" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="152" ht="31" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154" ht="16" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="155" ht="31" spans="1:2">
-      <c r="A155" s="4" t="s">
-        <v>616</v>
+      <c r="A155" s="6" t="s">
+        <v>618</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="157" ht="16" spans="1:1">
       <c r="A157" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="158" ht="46" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="159" ht="16" spans="1:1">
       <c r="A159" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" ht="31" spans="1:1">
       <c r="A160" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="161" ht="16" spans="1:1">
       <c r="A161" s="4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="162" ht="16" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="164" ht="16" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="165" ht="16" spans="1:1">
       <c r="A165" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="167" ht="16" spans="1:1">
       <c r="A167" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="168" ht="46" spans="1:1">
       <c r="A168" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="169" ht="46" spans="1:1">
       <c r="A169" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="171" ht="16" spans="1:1">
       <c r="A171" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="172" ht="31" spans="1:1">
       <c r="A172" s="4" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="173" ht="31" spans="1:1">
       <c r="A173" s="4" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="175" ht="16" spans="1:1">
       <c r="A175" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="176" ht="16" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="177" ht="16" spans="1:1">
       <c r="A177" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="178" ht="16" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="179" ht="16" spans="1:1">
       <c r="A179" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="181" ht="16" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="182" ht="31" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="183" ht="16" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B134:B135"/>
     <mergeCell ref="B148:B149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7154,42 +7289,251 @@
   <sheetData>
     <row r="1" ht="179" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" ht="255" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" ht="172" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" ht="191" customHeight="1" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" ht="53" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" ht="66" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" ht="159" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.15" customWidth="1"/>
+    <col min="2" max="2" width="45.225" customWidth="1"/>
+    <col min="3" max="3" width="21.2666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1005</v>
+      </c>
+      <c r="B5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>663</v>
+      </c>
+      <c r="C8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2003</v>
+      </c>
+      <c r="B9" t="s">
+        <v>665</v>
+      </c>
+      <c r="C9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>3001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>669</v>
+      </c>
+      <c r="C12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>3002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>671</v>
+      </c>
+      <c r="C13" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>3003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>673</v>
+      </c>
+      <c r="C14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>3005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>675</v>
+      </c>
+      <c r="C15" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>4001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>677</v>
+      </c>
+      <c r="C17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>4002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>679</v>
+      </c>
+      <c r="C18" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C19" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>4005</v>
+      </c>
+      <c r="B20" t="s">
+        <v>683</v>
+      </c>
+      <c r="C20" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31960" windowHeight="13400" activeTab="4"/>
+    <workbookView windowWidth="28000" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="689">
   <si>
     <t>C++功能</t>
   </si>
@@ -2978,6 +2978,12 @@
     <t xml:space="preserve"> 异常</t>
   </si>
   <si>
+    <t>Error_CODE_Type</t>
+  </si>
+  <si>
+    <t>WARN_CODE_TYPE</t>
+  </si>
+  <si>
     <t>FRAMERATE_INPUT_TOO_LOW</t>
   </si>
   <si>
@@ -3008,10 +3014,16 @@
     <t xml:space="preserve"> 发送音量过低</t>
   </si>
   <si>
+    <t>WARN_ADM_RECORD_AUDIO_LOWLEVEL</t>
+  </si>
+  <si>
     <t>AUDIO_OUTPUT_LEVEL_TOO_LOW</t>
   </si>
   <si>
     <t xml:space="preserve"> 接收音量过低</t>
+  </si>
+  <si>
+    <t>WARN_ADM_PLAYOUT_AUDIO_LOWLEVEL</t>
   </si>
   <si>
     <t>SEND_AUDIO_BITRATE_TOO_LOW</t>
@@ -4110,8 +4122,8 @@
   <sheetPr/>
   <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -6430,8 +6442,8 @@
   <sheetPr/>
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2" outlineLevelCol="2"/>
@@ -7336,20 +7348,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.15" customWidth="1"/>
     <col min="2" max="2" width="45.225" customWidth="1"/>
     <col min="3" max="3" width="21.2666666666667" customWidth="1"/>
+    <col min="4" max="5" width="18.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>650</v>
       </c>
@@ -7358,6 +7371,12 @@
       </c>
       <c r="C1" t="s">
         <v>652</v>
+      </c>
+      <c r="D1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E1" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7365,10 +7384,10 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7376,10 +7395,10 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7387,10 +7406,10 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C4" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7398,32 +7417,38 @@
         <v>1005</v>
       </c>
       <c r="B5" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C5" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>664</v>
+      </c>
+      <c r="E7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C8" t="s">
-        <v>664</v>
+        <v>667</v>
+      </c>
+      <c r="E8" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7431,10 +7456,10 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C9" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7442,10 +7467,10 @@
         <v>2005</v>
       </c>
       <c r="B10" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C10" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7453,10 +7478,10 @@
         <v>3001</v>
       </c>
       <c r="B12" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C12" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7464,10 +7489,10 @@
         <v>3002</v>
       </c>
       <c r="B13" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C13" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7475,10 +7500,10 @@
         <v>3003</v>
       </c>
       <c r="B14" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C14" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7486,10 +7511,10 @@
         <v>3005</v>
       </c>
       <c r="B15" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C15" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7497,10 +7522,10 @@
         <v>4001</v>
       </c>
       <c r="B17" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C17" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7508,10 +7533,10 @@
         <v>4002</v>
       </c>
       <c r="B18" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C18" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7519,10 +7544,10 @@
         <v>4003</v>
       </c>
       <c r="B19" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C19" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7530,10 +7555,10 @@
         <v>4005</v>
       </c>
       <c r="B20" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C20" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>

--- a/功能梳理.xlsx
+++ b/功能梳理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13380" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -3091,8 +3091,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3120,6 +3120,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3133,36 +3140,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3177,11 +3164,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3195,7 +3226,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3211,52 +3256,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3320,7 +3320,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3332,7 +3368,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3344,61 +3398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3410,31 +3422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3452,7 +3446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3464,7 +3464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3476,19 +3476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3499,21 +3499,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3535,28 +3520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3577,6 +3551,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3590,162 +3599,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4122,8 +4122,8 @@
   <sheetPr/>
   <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="B432" workbookViewId="0">
+      <selection activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -6442,7 +6442,7 @@
   <sheetPr/>
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
